--- a/src/theme/MultiFamilyPortal.AdminTheme/Documents/underwriting-v2.xlsx
+++ b/src/theme/MultiFamilyPortal.AdminTheme/Documents/underwriting-v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Personal\MultiFamilyPortal\src\theme\MultiFamilyPortal.AdminTheme\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1723ED2E-33AF-4D87-AE24-C097D33E8DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7BFD97-3AFD-4996-B9E9-D63BEA7DF3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2430" yWindow="2850" windowWidth="21600" windowHeight="11453" tabRatio="886" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="886" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Disclaimer" sheetId="8" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Summary of Returns" sheetId="3" r:id="rId6"/>
     <sheet name="copy for package" sheetId="5" r:id="rId7"/>
     <sheet name="Underwriting Notes" sheetId="10" r:id="rId8"/>
+    <sheet name="Files" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1606,7 +1607,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="246">
   <si>
     <t>Year 1</t>
   </si>
@@ -2354,6 +2355,15 @@
   </si>
   <si>
     <t>Underwriter</t>
+  </si>
+  <si>
+    <t>Underwriting Files</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
@@ -2375,7 +2385,7 @@
     <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="171" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2643,6 +2653,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="20">
     <fill>
@@ -2760,7 +2778,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="91">
+  <borders count="92">
     <border>
       <left/>
       <right/>
@@ -3908,8 +3926,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3918,8 +3945,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="91" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="838">
+  <cellXfs count="839">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5004,261 +5032,220 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="171" fontId="28" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="42" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="42" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="42" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="42" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="42" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="170" fontId="42" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="42" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="42" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="51" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="57" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="80" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="73" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1"/>
@@ -5272,9 +5259,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5286,6 +5270,77 @@
     </xf>
     <xf numFmtId="6" fontId="14" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1"/>
@@ -5295,18 +5350,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5316,17 +5365,6 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="5" fontId="14" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5339,291 +5377,241 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="73" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="80" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="73" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="7" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="7" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="51" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="57" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="7" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="7" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="59" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="82" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="83" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="12" borderId="84" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="12" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="86" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5634,6 +5622,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5658,102 +5664,418 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="59" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="82" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="83" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="12" borderId="84" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="12" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="86" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="73" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5795,15 +6117,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="87" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5828,286 +6144,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6116,27 +6159,36 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6144,18 +6196,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6164,17 +6204,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6182,97 +6243,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Heading 1" xfId="8" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -6897,6 +6929,18 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{56D9AFA3-9B78-486A-AA80-F81018EC9EFF}" name="Table2" displayName="Table2" ref="A2:C44" totalsRowShown="0">
+  <autoFilter ref="A2:C44" xr:uid="{1F4A2F78-C486-42AB-BDA2-99C3B72DB5AD}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A840D9BB-F993-4DC2-B971-535457BDAEB8}" name="Type"/>
+    <tableColumn id="2" xr3:uid="{5A015742-25AF-4033-8CED-9F5B50B5785B}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{6D83E94B-BFB1-4988-AC7D-4EA02B3B90C7}" name="Link"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7751,26 +7795,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.8">
-      <c r="A1" s="436" t="s">
+      <c r="A1" s="425" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="436"/>
-      <c r="C1" s="436"/>
-      <c r="D1" s="436"/>
-      <c r="E1" s="436"/>
-      <c r="F1" s="436"/>
-      <c r="G1" s="436"/>
-      <c r="H1" s="436"/>
-      <c r="I1" s="436"/>
-      <c r="J1" s="436"/>
-      <c r="K1" s="436"/>
+      <c r="B1" s="425"/>
+      <c r="C1" s="425"/>
+      <c r="D1" s="425"/>
+      <c r="E1" s="425"/>
+      <c r="F1" s="425"/>
+      <c r="G1" s="425"/>
+      <c r="H1" s="425"/>
+      <c r="I1" s="425"/>
+      <c r="J1" s="425"/>
+      <c r="K1" s="425"/>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="413" t="s">
@@ -7787,17 +7831,17 @@
       <c r="J3" s="414"/>
     </row>
     <row r="4" spans="1:11" ht="52.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="437"/>
-      <c r="B4" s="437"/>
-      <c r="C4" s="437"/>
-      <c r="D4" s="437"/>
-      <c r="E4" s="437"/>
-      <c r="F4" s="437"/>
-      <c r="G4" s="437"/>
-      <c r="H4" s="437"/>
-      <c r="I4" s="437"/>
-      <c r="J4" s="437"/>
-      <c r="K4" s="437"/>
+      <c r="A4" s="426"/>
+      <c r="B4" s="426"/>
+      <c r="C4" s="426"/>
+      <c r="D4" s="426"/>
+      <c r="E4" s="426"/>
+      <c r="F4" s="426"/>
+      <c r="G4" s="426"/>
+      <c r="H4" s="426"/>
+      <c r="I4" s="426"/>
+      <c r="J4" s="426"/>
+      <c r="K4" s="426"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="413" t="s">
@@ -7814,25 +7858,25 @@
       <c r="J5" s="414"/>
     </row>
     <row r="6" spans="1:11" ht="76.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="438"/>
-      <c r="B6" s="438"/>
-      <c r="C6" s="438"/>
-      <c r="D6" s="438"/>
-      <c r="E6" s="438"/>
-      <c r="F6" s="438"/>
-      <c r="G6" s="438"/>
-      <c r="H6" s="438"/>
-      <c r="I6" s="438"/>
-      <c r="J6" s="438"/>
-      <c r="K6" s="438"/>
+      <c r="A6" s="424"/>
+      <c r="B6" s="424"/>
+      <c r="C6" s="424"/>
+      <c r="D6" s="424"/>
+      <c r="E6" s="424"/>
+      <c r="F6" s="424"/>
+      <c r="G6" s="424"/>
+      <c r="H6" s="424"/>
+      <c r="I6" s="424"/>
+      <c r="J6" s="424"/>
+      <c r="K6" s="424"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A7" s="433" t="s">
+      <c r="A7" s="427" t="s">
         <v>216</v>
       </c>
-      <c r="B7" s="433"/>
-      <c r="C7" s="439"/>
-      <c r="D7" s="439"/>
+      <c r="B7" s="427"/>
+      <c r="C7" s="428"/>
+      <c r="D7" s="428"/>
       <c r="E7" s="414"/>
       <c r="F7" s="414"/>
       <c r="G7" s="414"/>
@@ -7856,44 +7900,44 @@
       <c r="J8" s="414"/>
     </row>
     <row r="9" spans="1:11" ht="61.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="438"/>
-      <c r="B9" s="438"/>
-      <c r="C9" s="438"/>
-      <c r="D9" s="438"/>
-      <c r="E9" s="438"/>
-      <c r="F9" s="438"/>
-      <c r="G9" s="438"/>
-      <c r="H9" s="438"/>
-      <c r="I9" s="438"/>
-      <c r="J9" s="438"/>
-      <c r="K9" s="438"/>
+      <c r="A9" s="424"/>
+      <c r="B9" s="424"/>
+      <c r="C9" s="424"/>
+      <c r="D9" s="424"/>
+      <c r="E9" s="424"/>
+      <c r="F9" s="424"/>
+      <c r="G9" s="424"/>
+      <c r="H9" s="424"/>
+      <c r="I9" s="424"/>
+      <c r="J9" s="424"/>
+      <c r="K9" s="424"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A10" s="433" t="s">
+      <c r="A10" s="427" t="s">
         <v>218</v>
       </c>
-      <c r="B10" s="433"/>
-      <c r="C10" s="433"/>
-      <c r="D10" s="433"/>
-      <c r="E10" s="433"/>
-      <c r="F10" s="433"/>
-      <c r="G10" s="434"/>
-      <c r="H10" s="434"/>
-      <c r="I10" s="434"/>
-      <c r="J10" s="434"/>
-      <c r="K10" s="434"/>
+      <c r="B10" s="427"/>
+      <c r="C10" s="427"/>
+      <c r="D10" s="427"/>
+      <c r="E10" s="427"/>
+      <c r="F10" s="427"/>
+      <c r="G10" s="429"/>
+      <c r="H10" s="429"/>
+      <c r="I10" s="429"/>
+      <c r="J10" s="429"/>
+      <c r="K10" s="429"/>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A11" s="433" t="s">
+      <c r="A11" s="427" t="s">
         <v>219</v>
       </c>
-      <c r="B11" s="433"/>
-      <c r="C11" s="433"/>
-      <c r="D11" s="435">
-        <v>0</v>
-      </c>
-      <c r="E11" s="435"/>
-      <c r="F11" s="435"/>
+      <c r="B11" s="427"/>
+      <c r="C11" s="427"/>
+      <c r="D11" s="430">
+        <v>0</v>
+      </c>
+      <c r="E11" s="430"/>
+      <c r="F11" s="430"/>
       <c r="G11" s="415"/>
       <c r="H11" s="415"/>
       <c r="I11" s="415"/>
@@ -7901,34 +7945,34 @@
       <c r="K11" s="415"/>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A12" s="433" t="s">
+      <c r="A12" s="427" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="433"/>
-      <c r="C12" s="433"/>
-      <c r="D12" s="434"/>
-      <c r="E12" s="434"/>
-      <c r="F12" s="434"/>
-      <c r="G12" s="434"/>
-      <c r="H12" s="434"/>
-      <c r="I12" s="434"/>
-      <c r="J12" s="434"/>
-      <c r="K12" s="434"/>
+      <c r="B12" s="427"/>
+      <c r="C12" s="427"/>
+      <c r="D12" s="429"/>
+      <c r="E12" s="429"/>
+      <c r="F12" s="429"/>
+      <c r="G12" s="429"/>
+      <c r="H12" s="429"/>
+      <c r="I12" s="429"/>
+      <c r="J12" s="429"/>
+      <c r="K12" s="429"/>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A13" s="433" t="s">
+      <c r="A13" s="427" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="433"/>
-      <c r="C13" s="433"/>
-      <c r="D13" s="434"/>
-      <c r="E13" s="434"/>
-      <c r="F13" s="434"/>
-      <c r="G13" s="434"/>
-      <c r="H13" s="434"/>
-      <c r="I13" s="434"/>
-      <c r="J13" s="434"/>
-      <c r="K13" s="434"/>
+      <c r="B13" s="427"/>
+      <c r="C13" s="427"/>
+      <c r="D13" s="429"/>
+      <c r="E13" s="429"/>
+      <c r="F13" s="429"/>
+      <c r="G13" s="429"/>
+      <c r="H13" s="429"/>
+      <c r="I13" s="429"/>
+      <c r="J13" s="429"/>
+      <c r="K13" s="429"/>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="414"/>
@@ -7948,128 +7992,128 @@
       </c>
       <c r="B15" s="414"/>
       <c r="C15" s="414"/>
-      <c r="D15" s="434"/>
-      <c r="E15" s="434"/>
-      <c r="F15" s="434"/>
-      <c r="G15" s="434"/>
-      <c r="H15" s="434"/>
-      <c r="I15" s="434"/>
-      <c r="J15" s="434"/>
-      <c r="K15" s="434"/>
+      <c r="D15" s="429"/>
+      <c r="E15" s="429"/>
+      <c r="F15" s="429"/>
+      <c r="G15" s="429"/>
+      <c r="H15" s="429"/>
+      <c r="I15" s="429"/>
+      <c r="J15" s="429"/>
+      <c r="K15" s="429"/>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A16" s="428" t="s">
+      <c r="A16" s="431" t="s">
         <v>223</v>
       </c>
-      <c r="B16" s="428"/>
-      <c r="C16" s="428"/>
-      <c r="D16" s="428"/>
+      <c r="B16" s="431"/>
+      <c r="C16" s="431"/>
+      <c r="D16" s="431"/>
       <c r="E16" s="416" t="s">
         <v>224</v>
       </c>
       <c r="F16" s="416" t="s">
         <v>225</v>
       </c>
-      <c r="G16" s="428" t="s">
+      <c r="G16" s="431" t="s">
         <v>226</v>
       </c>
-      <c r="H16" s="428"/>
-      <c r="I16" s="428" t="s">
+      <c r="H16" s="431"/>
+      <c r="I16" s="431" t="s">
         <v>227</v>
       </c>
-      <c r="J16" s="428"/>
-      <c r="K16" s="428"/>
+      <c r="J16" s="431"/>
+      <c r="K16" s="431"/>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A17" s="428"/>
-      <c r="B17" s="428"/>
-      <c r="C17" s="428"/>
-      <c r="D17" s="428"/>
+      <c r="A17" s="431"/>
+      <c r="B17" s="431"/>
+      <c r="C17" s="431"/>
+      <c r="D17" s="431"/>
       <c r="E17" s="414"/>
       <c r="F17" s="414"/>
-      <c r="G17" s="431"/>
-      <c r="H17" s="431"/>
-      <c r="I17" s="432"/>
-      <c r="J17" s="432"/>
-      <c r="K17" s="432"/>
+      <c r="G17" s="432"/>
+      <c r="H17" s="432"/>
+      <c r="I17" s="433"/>
+      <c r="J17" s="433"/>
+      <c r="K17" s="433"/>
     </row>
     <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A18" s="428"/>
-      <c r="B18" s="428"/>
-      <c r="C18" s="428"/>
-      <c r="D18" s="428"/>
+      <c r="A18" s="431"/>
+      <c r="B18" s="431"/>
+      <c r="C18" s="431"/>
+      <c r="D18" s="431"/>
       <c r="E18" s="414"/>
       <c r="F18" s="414"/>
-      <c r="G18" s="431"/>
-      <c r="H18" s="431"/>
-      <c r="I18" s="432"/>
-      <c r="J18" s="432"/>
-      <c r="K18" s="432"/>
+      <c r="G18" s="432"/>
+      <c r="H18" s="432"/>
+      <c r="I18" s="433"/>
+      <c r="J18" s="433"/>
+      <c r="K18" s="433"/>
     </row>
     <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A19" s="428"/>
-      <c r="B19" s="428"/>
-      <c r="C19" s="428"/>
-      <c r="D19" s="428"/>
+      <c r="A19" s="431"/>
+      <c r="B19" s="431"/>
+      <c r="C19" s="431"/>
+      <c r="D19" s="431"/>
       <c r="E19" s="414"/>
       <c r="F19" s="414"/>
-      <c r="G19" s="431"/>
-      <c r="H19" s="431"/>
-      <c r="I19" s="432"/>
-      <c r="J19" s="432"/>
-      <c r="K19" s="432"/>
+      <c r="G19" s="432"/>
+      <c r="H19" s="432"/>
+      <c r="I19" s="433"/>
+      <c r="J19" s="433"/>
+      <c r="K19" s="433"/>
     </row>
     <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A20" s="428"/>
-      <c r="B20" s="428"/>
-      <c r="C20" s="428"/>
-      <c r="D20" s="428"/>
+      <c r="A20" s="431"/>
+      <c r="B20" s="431"/>
+      <c r="C20" s="431"/>
+      <c r="D20" s="431"/>
       <c r="E20" s="414"/>
       <c r="F20" s="414"/>
-      <c r="G20" s="431"/>
-      <c r="H20" s="431"/>
-      <c r="I20" s="432"/>
-      <c r="J20" s="432"/>
-      <c r="K20" s="432"/>
+      <c r="G20" s="432"/>
+      <c r="H20" s="432"/>
+      <c r="I20" s="433"/>
+      <c r="J20" s="433"/>
+      <c r="K20" s="433"/>
     </row>
     <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A21" s="428"/>
-      <c r="B21" s="428"/>
-      <c r="C21" s="428"/>
-      <c r="D21" s="428"/>
+      <c r="A21" s="431"/>
+      <c r="B21" s="431"/>
+      <c r="C21" s="431"/>
+      <c r="D21" s="431"/>
       <c r="E21" s="414"/>
       <c r="F21" s="414"/>
-      <c r="G21" s="431"/>
-      <c r="H21" s="431"/>
-      <c r="I21" s="432"/>
-      <c r="J21" s="432"/>
-      <c r="K21" s="432"/>
+      <c r="G21" s="432"/>
+      <c r="H21" s="432"/>
+      <c r="I21" s="433"/>
+      <c r="J21" s="433"/>
+      <c r="K21" s="433"/>
     </row>
     <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A22" s="428"/>
-      <c r="B22" s="428"/>
-      <c r="C22" s="428"/>
-      <c r="D22" s="428"/>
+      <c r="A22" s="431"/>
+      <c r="B22" s="431"/>
+      <c r="C22" s="431"/>
+      <c r="D22" s="431"/>
       <c r="E22" s="414"/>
       <c r="F22" s="414"/>
-      <c r="G22" s="431"/>
-      <c r="H22" s="431"/>
-      <c r="I22" s="432"/>
-      <c r="J22" s="432"/>
-      <c r="K22" s="432"/>
+      <c r="G22" s="432"/>
+      <c r="H22" s="432"/>
+      <c r="I22" s="433"/>
+      <c r="J22" s="433"/>
+      <c r="K22" s="433"/>
     </row>
     <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A23" s="428"/>
-      <c r="B23" s="428"/>
-      <c r="C23" s="428"/>
-      <c r="D23" s="428"/>
-      <c r="E23" s="428"/>
-      <c r="F23" s="428"/>
-      <c r="G23" s="428"/>
-      <c r="H23" s="428"/>
-      <c r="I23" s="428"/>
-      <c r="J23" s="428"/>
-      <c r="K23" s="428"/>
+      <c r="A23" s="431"/>
+      <c r="B23" s="431"/>
+      <c r="C23" s="431"/>
+      <c r="D23" s="431"/>
+      <c r="E23" s="431"/>
+      <c r="F23" s="431"/>
+      <c r="G23" s="431"/>
+      <c r="H23" s="431"/>
+      <c r="I23" s="431"/>
+      <c r="J23" s="431"/>
+      <c r="K23" s="431"/>
     </row>
     <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="413" t="s">
@@ -8077,11 +8121,11 @@
       </c>
       <c r="B24" s="414"/>
       <c r="C24" s="414"/>
-      <c r="D24" s="429">
-        <v>0</v>
-      </c>
-      <c r="E24" s="429"/>
-      <c r="F24" s="429"/>
+      <c r="D24" s="435">
+        <v>0</v>
+      </c>
+      <c r="E24" s="435"/>
+      <c r="F24" s="435"/>
       <c r="G24" s="417"/>
       <c r="H24" s="417"/>
       <c r="I24" s="417"/>
@@ -8094,11 +8138,11 @@
       </c>
       <c r="B25" s="414"/>
       <c r="C25" s="414"/>
-      <c r="D25" s="425">
-        <v>0</v>
-      </c>
-      <c r="E25" s="425"/>
-      <c r="F25" s="425"/>
+      <c r="D25" s="434">
+        <v>0</v>
+      </c>
+      <c r="E25" s="434"/>
+      <c r="F25" s="434"/>
       <c r="G25" s="414"/>
       <c r="H25" s="414"/>
       <c r="I25" s="414"/>
@@ -8111,11 +8155,11 @@
       </c>
       <c r="B26" s="414"/>
       <c r="C26" s="414"/>
-      <c r="D26" s="430">
-        <v>0</v>
-      </c>
-      <c r="E26" s="430"/>
-      <c r="F26" s="430"/>
+      <c r="D26" s="436">
+        <v>0</v>
+      </c>
+      <c r="E26" s="436"/>
+      <c r="F26" s="436"/>
       <c r="G26" s="414"/>
       <c r="H26" s="414"/>
       <c r="I26" s="414"/>
@@ -8128,11 +8172,11 @@
       </c>
       <c r="B27" s="414"/>
       <c r="C27" s="414"/>
-      <c r="D27" s="430">
-        <v>0</v>
-      </c>
-      <c r="E27" s="430"/>
-      <c r="F27" s="430"/>
+      <c r="D27" s="436">
+        <v>0</v>
+      </c>
+      <c r="E27" s="436"/>
+      <c r="F27" s="436"/>
       <c r="G27" s="418"/>
       <c r="H27" s="418"/>
       <c r="I27" s="418"/>
@@ -8145,11 +8189,11 @@
       </c>
       <c r="B28" s="414"/>
       <c r="C28" s="414"/>
-      <c r="D28" s="425">
-        <v>0</v>
-      </c>
-      <c r="E28" s="425"/>
-      <c r="F28" s="425"/>
+      <c r="D28" s="434">
+        <v>0</v>
+      </c>
+      <c r="E28" s="434"/>
+      <c r="F28" s="434"/>
       <c r="G28" s="419"/>
       <c r="H28" s="419"/>
       <c r="I28" s="419"/>
@@ -8162,11 +8206,11 @@
       </c>
       <c r="B29" s="414"/>
       <c r="C29" s="414"/>
-      <c r="D29" s="425">
-        <v>0</v>
-      </c>
-      <c r="E29" s="425"/>
-      <c r="F29" s="425"/>
+      <c r="D29" s="434">
+        <v>0</v>
+      </c>
+      <c r="E29" s="434"/>
+      <c r="F29" s="434"/>
       <c r="G29" s="419"/>
       <c r="H29" s="419"/>
       <c r="I29" s="419"/>
@@ -8179,11 +8223,11 @@
       </c>
       <c r="B30" s="414"/>
       <c r="C30" s="414"/>
-      <c r="D30" s="425">
-        <v>0</v>
-      </c>
-      <c r="E30" s="425"/>
-      <c r="F30" s="425"/>
+      <c r="D30" s="434">
+        <v>0</v>
+      </c>
+      <c r="E30" s="434"/>
+      <c r="F30" s="434"/>
       <c r="G30" s="419"/>
       <c r="H30" s="419"/>
       <c r="I30" s="419"/>
@@ -8206,31 +8250,31 @@
       <c r="A32" s="413" t="s">
         <v>235</v>
       </c>
-      <c r="D32" s="426">
-        <v>0</v>
-      </c>
-      <c r="E32" s="426"/>
-      <c r="F32" s="426"/>
+      <c r="D32" s="438">
+        <v>0</v>
+      </c>
+      <c r="E32" s="438"/>
+      <c r="F32" s="438"/>
     </row>
     <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="413" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="427">
-        <v>0</v>
-      </c>
-      <c r="E33" s="427"/>
-      <c r="F33" s="427"/>
+      <c r="D33" s="439">
+        <v>0</v>
+      </c>
+      <c r="E33" s="439"/>
+      <c r="F33" s="439"/>
     </row>
     <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="413" t="s">
         <v>237</v>
       </c>
-      <c r="D34" s="426">
-        <v>0</v>
-      </c>
-      <c r="E34" s="426"/>
-      <c r="F34" s="426"/>
+      <c r="D34" s="438">
+        <v>0</v>
+      </c>
+      <c r="E34" s="438"/>
+      <c r="F34" s="438"/>
     </row>
     <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="413" t="s">
@@ -8238,17 +8282,17 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="95.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="424"/>
-      <c r="B36" s="424"/>
-      <c r="C36" s="424"/>
-      <c r="D36" s="424"/>
-      <c r="E36" s="424"/>
-      <c r="F36" s="424"/>
-      <c r="G36" s="424"/>
-      <c r="H36" s="424"/>
-      <c r="I36" s="424"/>
-      <c r="J36" s="424"/>
-      <c r="K36" s="424"/>
+      <c r="A36" s="437"/>
+      <c r="B36" s="437"/>
+      <c r="C36" s="437"/>
+      <c r="D36" s="437"/>
+      <c r="E36" s="437"/>
+      <c r="F36" s="437"/>
+      <c r="G36" s="437"/>
+      <c r="H36" s="437"/>
+      <c r="I36" s="437"/>
+      <c r="J36" s="437"/>
+      <c r="K36" s="437"/>
     </row>
     <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="413" t="s">
@@ -8261,50 +8305,27 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="53.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="424"/>
-      <c r="B40" s="424"/>
-      <c r="C40" s="424"/>
-      <c r="D40" s="424"/>
-      <c r="E40" s="424"/>
-      <c r="F40" s="424"/>
-      <c r="G40" s="424"/>
-      <c r="H40" s="424"/>
-      <c r="I40" s="424"/>
-      <c r="J40" s="424"/>
-      <c r="K40" s="424"/>
+      <c r="A40" s="437"/>
+      <c r="B40" s="437"/>
+      <c r="C40" s="437"/>
+      <c r="D40" s="437"/>
+      <c r="E40" s="437"/>
+      <c r="F40" s="437"/>
+      <c r="G40" s="437"/>
+      <c r="H40" s="437"/>
+      <c r="I40" s="437"/>
+      <c r="J40" s="437"/>
+      <c r="K40" s="437"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A36:K36"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="G21:H21"/>
@@ -8317,13 +8338,36 @@
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8364,147 +8408,147 @@
   <sheetData>
     <row r="1" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="469" t="s">
+      <c r="B2" s="549" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="470"/>
-      <c r="D2" s="470"/>
-      <c r="E2" s="470"/>
-      <c r="F2" s="470"/>
-      <c r="G2" s="470"/>
-      <c r="H2" s="470"/>
-      <c r="I2" s="470"/>
-      <c r="J2" s="470"/>
-      <c r="K2" s="470"/>
-      <c r="L2" s="470"/>
-      <c r="M2" s="470"/>
-      <c r="N2" s="470"/>
-      <c r="O2" s="471"/>
+      <c r="C2" s="550"/>
+      <c r="D2" s="550"/>
+      <c r="E2" s="550"/>
+      <c r="F2" s="550"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="550"/>
+      <c r="I2" s="550"/>
+      <c r="J2" s="550"/>
+      <c r="K2" s="550"/>
+      <c r="L2" s="550"/>
+      <c r="M2" s="550"/>
+      <c r="N2" s="550"/>
+      <c r="O2" s="551"/>
     </row>
     <row r="3" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="402"/>
       <c r="C3" s="403"/>
       <c r="D3" s="403"/>
       <c r="E3" s="403"/>
-      <c r="F3" s="472"/>
-      <c r="G3" s="472"/>
-      <c r="H3" s="472"/>
-      <c r="I3" s="472"/>
-      <c r="J3" s="472"/>
-      <c r="K3" s="472"/>
-      <c r="L3" s="472"/>
-      <c r="M3" s="472"/>
-      <c r="N3" s="472"/>
-      <c r="O3" s="473"/>
+      <c r="F3" s="552"/>
+      <c r="G3" s="552"/>
+      <c r="H3" s="552"/>
+      <c r="I3" s="552"/>
+      <c r="J3" s="552"/>
+      <c r="K3" s="552"/>
+      <c r="L3" s="552"/>
+      <c r="M3" s="552"/>
+      <c r="N3" s="552"/>
+      <c r="O3" s="553"/>
     </row>
     <row r="4" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B4" s="480" t="s">
+      <c r="B4" s="560" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="481"/>
-      <c r="D4" s="481"/>
-      <c r="E4" s="481"/>
-      <c r="F4" s="481"/>
-      <c r="G4" s="481"/>
-      <c r="H4" s="481"/>
-      <c r="I4" s="481"/>
-      <c r="J4" s="481"/>
-      <c r="K4" s="481"/>
-      <c r="L4" s="481"/>
-      <c r="M4" s="481"/>
-      <c r="N4" s="481"/>
-      <c r="O4" s="482"/>
+      <c r="C4" s="561"/>
+      <c r="D4" s="561"/>
+      <c r="E4" s="561"/>
+      <c r="F4" s="561"/>
+      <c r="G4" s="561"/>
+      <c r="H4" s="561"/>
+      <c r="I4" s="561"/>
+      <c r="J4" s="561"/>
+      <c r="K4" s="561"/>
+      <c r="L4" s="561"/>
+      <c r="M4" s="561"/>
+      <c r="N4" s="561"/>
+      <c r="O4" s="562"/>
     </row>
     <row r="5" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B5" s="477" t="s">
+      <c r="B5" s="557" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="478"/>
-      <c r="D5" s="478"/>
-      <c r="E5" s="478"/>
-      <c r="F5" s="478"/>
-      <c r="G5" s="478"/>
-      <c r="H5" s="478"/>
-      <c r="I5" s="478"/>
-      <c r="J5" s="478"/>
-      <c r="K5" s="478"/>
-      <c r="L5" s="478"/>
-      <c r="M5" s="478"/>
-      <c r="N5" s="478"/>
-      <c r="O5" s="479"/>
+      <c r="C5" s="558"/>
+      <c r="D5" s="558"/>
+      <c r="E5" s="558"/>
+      <c r="F5" s="558"/>
+      <c r="G5" s="558"/>
+      <c r="H5" s="558"/>
+      <c r="I5" s="558"/>
+      <c r="J5" s="558"/>
+      <c r="K5" s="558"/>
+      <c r="L5" s="558"/>
+      <c r="M5" s="558"/>
+      <c r="N5" s="558"/>
+      <c r="O5" s="559"/>
     </row>
     <row r="6" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B6" s="477" t="s">
+      <c r="B6" s="557" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="478"/>
-      <c r="D6" s="478"/>
-      <c r="E6" s="478"/>
-      <c r="F6" s="478"/>
-      <c r="G6" s="478"/>
-      <c r="H6" s="478"/>
-      <c r="I6" s="478"/>
-      <c r="J6" s="478"/>
-      <c r="K6" s="478"/>
-      <c r="L6" s="478"/>
-      <c r="M6" s="478"/>
-      <c r="N6" s="478"/>
-      <c r="O6" s="479"/>
+      <c r="C6" s="558"/>
+      <c r="D6" s="558"/>
+      <c r="E6" s="558"/>
+      <c r="F6" s="558"/>
+      <c r="G6" s="558"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="558"/>
+      <c r="J6" s="558"/>
+      <c r="K6" s="558"/>
+      <c r="L6" s="558"/>
+      <c r="M6" s="558"/>
+      <c r="N6" s="558"/>
+      <c r="O6" s="559"/>
     </row>
     <row r="7" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="474" t="s">
+      <c r="B7" s="554" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="475"/>
-      <c r="D7" s="475"/>
-      <c r="E7" s="475"/>
-      <c r="F7" s="475"/>
-      <c r="G7" s="475"/>
-      <c r="H7" s="475"/>
-      <c r="I7" s="475"/>
-      <c r="J7" s="475"/>
-      <c r="K7" s="475"/>
-      <c r="L7" s="475"/>
-      <c r="M7" s="475"/>
-      <c r="N7" s="475"/>
-      <c r="O7" s="476"/>
+      <c r="C7" s="555"/>
+      <c r="D7" s="555"/>
+      <c r="E7" s="555"/>
+      <c r="F7" s="555"/>
+      <c r="G7" s="555"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="555"/>
+      <c r="J7" s="555"/>
+      <c r="K7" s="555"/>
+      <c r="L7" s="555"/>
+      <c r="M7" s="555"/>
+      <c r="N7" s="555"/>
+      <c r="O7" s="556"/>
     </row>
     <row r="9" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="483" t="s">
+      <c r="B10" s="563" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="484"/>
-      <c r="D10" s="484"/>
-      <c r="E10" s="484"/>
-      <c r="F10" s="484"/>
-      <c r="G10" s="484"/>
-      <c r="H10" s="484"/>
-      <c r="I10" s="485"/>
+      <c r="C10" s="564"/>
+      <c r="D10" s="564"/>
+      <c r="E10" s="564"/>
+      <c r="F10" s="564"/>
+      <c r="G10" s="564"/>
+      <c r="H10" s="564"/>
+      <c r="I10" s="565"/>
     </row>
     <row r="11" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="486"/>
-      <c r="C11" s="487"/>
-      <c r="D11" s="487"/>
-      <c r="E11" s="487"/>
-      <c r="F11" s="487"/>
-      <c r="G11" s="487"/>
-      <c r="H11" s="487"/>
-      <c r="I11" s="488"/>
+      <c r="B11" s="566"/>
+      <c r="C11" s="567"/>
+      <c r="D11" s="567"/>
+      <c r="E11" s="567"/>
+      <c r="F11" s="567"/>
+      <c r="G11" s="567"/>
+      <c r="H11" s="567"/>
+      <c r="I11" s="568"/>
     </row>
     <row r="12" spans="2:15" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="458" t="s">
+      <c r="B12" s="574" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="459"/>
-      <c r="D12" s="455" t="s">
+      <c r="C12" s="575"/>
+      <c r="D12" s="454" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="456"/>
-      <c r="F12" s="456"/>
-      <c r="G12" s="456"/>
-      <c r="H12" s="456"/>
-      <c r="I12" s="457"/>
+      <c r="E12" s="455"/>
+      <c r="F12" s="455"/>
+      <c r="G12" s="455"/>
+      <c r="H12" s="455"/>
+      <c r="I12" s="456"/>
       <c r="J12" s="401"/>
       <c r="K12" s="401"/>
       <c r="L12" s="401"/>
@@ -8513,224 +8557,224 @@
       <c r="O12" s="401"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="460" t="s">
+      <c r="B13" s="576" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="461"/>
-      <c r="D13" s="464" t="s">
+      <c r="C13" s="577"/>
+      <c r="D13" s="580" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="465"/>
-      <c r="F13" s="465"/>
-      <c r="G13" s="465"/>
-      <c r="H13" s="465"/>
-      <c r="I13" s="466"/>
+      <c r="E13" s="581"/>
+      <c r="F13" s="581"/>
+      <c r="G13" s="581"/>
+      <c r="H13" s="581"/>
+      <c r="I13" s="582"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="447" t="s">
+      <c r="B14" s="521" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="448"/>
-      <c r="D14" s="442" t="s">
+      <c r="C14" s="522"/>
+      <c r="D14" s="525" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="443"/>
-      <c r="F14" s="443"/>
-      <c r="G14" s="443"/>
-      <c r="H14" s="443"/>
-      <c r="I14" s="444"/>
+      <c r="E14" s="526"/>
+      <c r="F14" s="526"/>
+      <c r="G14" s="526"/>
+      <c r="H14" s="526"/>
+      <c r="I14" s="527"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="447" t="s">
+      <c r="B15" s="521" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="448"/>
-      <c r="D15" s="442" t="s">
+      <c r="C15" s="522"/>
+      <c r="D15" s="525" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="443"/>
-      <c r="F15" s="443"/>
-      <c r="G15" s="443"/>
-      <c r="H15" s="443"/>
-      <c r="I15" s="444"/>
+      <c r="E15" s="526"/>
+      <c r="F15" s="526"/>
+      <c r="G15" s="526"/>
+      <c r="H15" s="526"/>
+      <c r="I15" s="527"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="447" t="s">
+      <c r="B16" s="521" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="448"/>
-      <c r="D16" s="442" t="s">
+      <c r="C16" s="522"/>
+      <c r="D16" s="525" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="443"/>
-      <c r="F16" s="443"/>
-      <c r="G16" s="443"/>
-      <c r="H16" s="443"/>
-      <c r="I16" s="444"/>
+      <c r="E16" s="526"/>
+      <c r="F16" s="526"/>
+      <c r="G16" s="526"/>
+      <c r="H16" s="526"/>
+      <c r="I16" s="527"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B17" s="447" t="s">
+      <c r="B17" s="521" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="448"/>
-      <c r="D17" s="442" t="s">
+      <c r="C17" s="522"/>
+      <c r="D17" s="525" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="443"/>
-      <c r="F17" s="443"/>
-      <c r="G17" s="443"/>
-      <c r="H17" s="443"/>
-      <c r="I17" s="444"/>
+      <c r="E17" s="526"/>
+      <c r="F17" s="526"/>
+      <c r="G17" s="526"/>
+      <c r="H17" s="526"/>
+      <c r="I17" s="527"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B18" s="447" t="s">
+      <c r="B18" s="521" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="448"/>
-      <c r="D18" s="442" t="s">
+      <c r="C18" s="522"/>
+      <c r="D18" s="525" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="443"/>
-      <c r="F18" s="443"/>
-      <c r="G18" s="443"/>
-      <c r="H18" s="443"/>
-      <c r="I18" s="444"/>
+      <c r="E18" s="526"/>
+      <c r="F18" s="526"/>
+      <c r="G18" s="526"/>
+      <c r="H18" s="526"/>
+      <c r="I18" s="527"/>
     </row>
     <row r="19" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="445" t="s">
+      <c r="B19" s="583" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="446"/>
-      <c r="D19" s="499" t="s">
+      <c r="C19" s="584"/>
+      <c r="D19" s="518" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="500"/>
-      <c r="F19" s="500"/>
-      <c r="G19" s="500"/>
-      <c r="H19" s="500"/>
-      <c r="I19" s="501"/>
+      <c r="E19" s="519"/>
+      <c r="F19" s="519"/>
+      <c r="G19" s="519"/>
+      <c r="H19" s="519"/>
+      <c r="I19" s="520"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B20" s="447" t="s">
+      <c r="B20" s="521" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="448"/>
-      <c r="D20" s="442" t="s">
+      <c r="C20" s="522"/>
+      <c r="D20" s="525" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="443"/>
-      <c r="F20" s="443"/>
-      <c r="G20" s="443"/>
-      <c r="H20" s="443"/>
-      <c r="I20" s="444"/>
+      <c r="E20" s="526"/>
+      <c r="F20" s="526"/>
+      <c r="G20" s="526"/>
+      <c r="H20" s="526"/>
+      <c r="I20" s="527"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B21" s="502" t="s">
+      <c r="B21" s="523" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="503"/>
-      <c r="D21" s="442" t="s">
+      <c r="C21" s="524"/>
+      <c r="D21" s="525" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="443"/>
-      <c r="F21" s="443"/>
-      <c r="G21" s="443"/>
-      <c r="H21" s="443"/>
-      <c r="I21" s="444"/>
+      <c r="E21" s="526"/>
+      <c r="F21" s="526"/>
+      <c r="G21" s="526"/>
+      <c r="H21" s="526"/>
+      <c r="I21" s="527"/>
     </row>
     <row r="22" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="462" t="s">
+      <c r="B22" s="578" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="463"/>
-      <c r="D22" s="449" t="s">
+      <c r="C22" s="579"/>
+      <c r="D22" s="585" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="450"/>
-      <c r="F22" s="450"/>
-      <c r="G22" s="450"/>
-      <c r="H22" s="450"/>
-      <c r="I22" s="451"/>
+      <c r="E22" s="586"/>
+      <c r="F22" s="586"/>
+      <c r="G22" s="586"/>
+      <c r="H22" s="586"/>
+      <c r="I22" s="587"/>
     </row>
     <row r="24" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="2:15" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="452" t="s">
+      <c r="B25" s="588" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="453"/>
-      <c r="D25" s="454"/>
+      <c r="C25" s="589"/>
+      <c r="D25" s="590"/>
     </row>
     <row r="26" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="162"/>
-      <c r="C26" s="440" t="s">
+      <c r="C26" s="547" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="441"/>
+      <c r="D26" s="548"/>
     </row>
     <row r="27" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="160"/>
-      <c r="C27" s="440" t="s">
+      <c r="C27" s="547" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="441"/>
+      <c r="D27" s="548"/>
     </row>
     <row r="28" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="152"/>
-      <c r="C28" s="440" t="s">
+      <c r="C28" s="547" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="441"/>
+      <c r="D28" s="548"/>
     </row>
     <row r="30" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="2:15" ht="19.899999999999999" x14ac:dyDescent="0.5">
-      <c r="B31" s="574" t="s">
+      <c r="B31" s="571" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="575"/>
-      <c r="D31" s="575"/>
-      <c r="E31" s="575"/>
-      <c r="F31" s="575"/>
-      <c r="G31" s="575"/>
-      <c r="H31" s="575"/>
-      <c r="I31" s="575"/>
-      <c r="J31" s="575"/>
-      <c r="K31" s="575"/>
-      <c r="L31" s="575"/>
-      <c r="M31" s="575"/>
-      <c r="N31" s="575"/>
-      <c r="O31" s="576"/>
+      <c r="C31" s="572"/>
+      <c r="D31" s="572"/>
+      <c r="E31" s="572"/>
+      <c r="F31" s="572"/>
+      <c r="G31" s="572"/>
+      <c r="H31" s="572"/>
+      <c r="I31" s="572"/>
+      <c r="J31" s="572"/>
+      <c r="K31" s="572"/>
+      <c r="L31" s="572"/>
+      <c r="M31" s="572"/>
+      <c r="N31" s="572"/>
+      <c r="O31" s="573"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B32" s="577"/>
-      <c r="C32" s="578"/>
-      <c r="D32" s="578"/>
-      <c r="E32" s="578"/>
-      <c r="F32" s="578"/>
-      <c r="G32" s="578"/>
-      <c r="H32" s="578"/>
-      <c r="I32" s="578"/>
-      <c r="J32" s="578"/>
-      <c r="K32" s="578"/>
-      <c r="L32" s="578"/>
-      <c r="M32" s="578"/>
-      <c r="N32" s="578"/>
-      <c r="O32" s="579"/>
+      <c r="B32" s="442"/>
+      <c r="C32" s="443"/>
+      <c r="D32" s="443"/>
+      <c r="E32" s="443"/>
+      <c r="F32" s="443"/>
+      <c r="G32" s="443"/>
+      <c r="H32" s="443"/>
+      <c r="I32" s="443"/>
+      <c r="J32" s="443"/>
+      <c r="K32" s="443"/>
+      <c r="L32" s="443"/>
+      <c r="M32" s="443"/>
+      <c r="N32" s="443"/>
+      <c r="O32" s="444"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B33" s="577"/>
-      <c r="C33" s="578"/>
-      <c r="D33" s="578"/>
-      <c r="E33" s="578"/>
-      <c r="F33" s="578"/>
-      <c r="G33" s="578"/>
-      <c r="H33" s="578"/>
-      <c r="I33" s="578"/>
-      <c r="J33" s="578"/>
-      <c r="K33" s="578"/>
-      <c r="L33" s="578"/>
-      <c r="M33" s="578"/>
-      <c r="N33" s="578"/>
-      <c r="O33" s="579"/>
+      <c r="B33" s="442"/>
+      <c r="C33" s="443"/>
+      <c r="D33" s="443"/>
+      <c r="E33" s="443"/>
+      <c r="F33" s="443"/>
+      <c r="G33" s="443"/>
+      <c r="H33" s="443"/>
+      <c r="I33" s="443"/>
+      <c r="J33" s="443"/>
+      <c r="K33" s="443"/>
+      <c r="L33" s="443"/>
+      <c r="M33" s="443"/>
+      <c r="N33" s="443"/>
+      <c r="O33" s="444"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B34" s="404"/>
@@ -8797,85 +8841,85 @@
       <c r="O37" s="406"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B38" s="577"/>
-      <c r="C38" s="578"/>
-      <c r="D38" s="578"/>
-      <c r="E38" s="578"/>
-      <c r="F38" s="578"/>
-      <c r="G38" s="578"/>
-      <c r="H38" s="578"/>
-      <c r="I38" s="578"/>
-      <c r="J38" s="578"/>
-      <c r="K38" s="578"/>
-      <c r="L38" s="578"/>
-      <c r="M38" s="578"/>
-      <c r="N38" s="578"/>
-      <c r="O38" s="579"/>
+      <c r="B38" s="442"/>
+      <c r="C38" s="443"/>
+      <c r="D38" s="443"/>
+      <c r="E38" s="443"/>
+      <c r="F38" s="443"/>
+      <c r="G38" s="443"/>
+      <c r="H38" s="443"/>
+      <c r="I38" s="443"/>
+      <c r="J38" s="443"/>
+      <c r="K38" s="443"/>
+      <c r="L38" s="443"/>
+      <c r="M38" s="443"/>
+      <c r="N38" s="443"/>
+      <c r="O38" s="444"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B39" s="577"/>
-      <c r="C39" s="578"/>
-      <c r="D39" s="578"/>
-      <c r="E39" s="578"/>
-      <c r="F39" s="578"/>
-      <c r="G39" s="578"/>
-      <c r="H39" s="578"/>
-      <c r="I39" s="578"/>
-      <c r="J39" s="578"/>
-      <c r="K39" s="578"/>
-      <c r="L39" s="578"/>
-      <c r="M39" s="578"/>
-      <c r="N39" s="578"/>
-      <c r="O39" s="579"/>
+      <c r="B39" s="442"/>
+      <c r="C39" s="443"/>
+      <c r="D39" s="443"/>
+      <c r="E39" s="443"/>
+      <c r="F39" s="443"/>
+      <c r="G39" s="443"/>
+      <c r="H39" s="443"/>
+      <c r="I39" s="443"/>
+      <c r="J39" s="443"/>
+      <c r="K39" s="443"/>
+      <c r="L39" s="443"/>
+      <c r="M39" s="443"/>
+      <c r="N39" s="443"/>
+      <c r="O39" s="444"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B40" s="577"/>
-      <c r="C40" s="578"/>
-      <c r="D40" s="578"/>
-      <c r="E40" s="578"/>
-      <c r="F40" s="578"/>
-      <c r="G40" s="578"/>
-      <c r="H40" s="578"/>
-      <c r="I40" s="578"/>
-      <c r="J40" s="578"/>
-      <c r="K40" s="578"/>
-      <c r="L40" s="578"/>
-      <c r="M40" s="578"/>
-      <c r="N40" s="578"/>
-      <c r="O40" s="579"/>
+      <c r="B40" s="442"/>
+      <c r="C40" s="443"/>
+      <c r="D40" s="443"/>
+      <c r="E40" s="443"/>
+      <c r="F40" s="443"/>
+      <c r="G40" s="443"/>
+      <c r="H40" s="443"/>
+      <c r="I40" s="443"/>
+      <c r="J40" s="443"/>
+      <c r="K40" s="443"/>
+      <c r="L40" s="443"/>
+      <c r="M40" s="443"/>
+      <c r="N40" s="443"/>
+      <c r="O40" s="444"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B41" s="577"/>
-      <c r="C41" s="578"/>
-      <c r="D41" s="578"/>
-      <c r="E41" s="578"/>
-      <c r="F41" s="578"/>
-      <c r="G41" s="578"/>
-      <c r="H41" s="578"/>
-      <c r="I41" s="578"/>
-      <c r="J41" s="578"/>
-      <c r="K41" s="578"/>
-      <c r="L41" s="578"/>
-      <c r="M41" s="578"/>
-      <c r="N41" s="578"/>
-      <c r="O41" s="579"/>
+      <c r="B41" s="442"/>
+      <c r="C41" s="443"/>
+      <c r="D41" s="443"/>
+      <c r="E41" s="443"/>
+      <c r="F41" s="443"/>
+      <c r="G41" s="443"/>
+      <c r="H41" s="443"/>
+      <c r="I41" s="443"/>
+      <c r="J41" s="443"/>
+      <c r="K41" s="443"/>
+      <c r="L41" s="443"/>
+      <c r="M41" s="443"/>
+      <c r="N41" s="443"/>
+      <c r="O41" s="444"/>
     </row>
     <row r="46" spans="2:21" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="2:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="504" t="s">
+      <c r="B47" s="528" t="s">
         <v>208</v>
       </c>
-      <c r="C47" s="505"/>
-      <c r="D47" s="505"/>
-      <c r="E47" s="505"/>
-      <c r="F47" s="505"/>
-      <c r="G47" s="505"/>
-      <c r="H47" s="505"/>
-      <c r="I47" s="505"/>
-      <c r="J47" s="505"/>
-      <c r="K47" s="505"/>
-      <c r="L47" s="505"/>
-      <c r="M47" s="506"/>
+      <c r="C47" s="529"/>
+      <c r="D47" s="529"/>
+      <c r="E47" s="529"/>
+      <c r="F47" s="529"/>
+      <c r="G47" s="529"/>
+      <c r="H47" s="529"/>
+      <c r="I47" s="529"/>
+      <c r="J47" s="529"/>
+      <c r="K47" s="529"/>
+      <c r="L47" s="529"/>
+      <c r="M47" s="530"/>
       <c r="U47" s="231"/>
     </row>
     <row r="48" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8894,11 +8938,11 @@
       <c r="U48" s="105"/>
     </row>
     <row r="49" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="455" t="s">
+      <c r="B49" s="454" t="s">
         <v>143</v>
       </c>
-      <c r="C49" s="456"/>
-      <c r="D49" s="457"/>
+      <c r="C49" s="455"/>
+      <c r="D49" s="456"/>
       <c r="E49" s="181" t="s">
         <v>142</v>
       </c>
@@ -8914,34 +8958,34 @@
       <c r="B50" s="224" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="547"/>
-      <c r="D50" s="548"/>
+      <c r="C50" s="476"/>
+      <c r="D50" s="477"/>
       <c r="E50" s="223"/>
       <c r="F50" s="222"/>
       <c r="G50" s="222"/>
       <c r="H50" s="222"/>
       <c r="I50" s="221"/>
       <c r="J50" s="113"/>
-      <c r="K50" s="455" t="s">
+      <c r="K50" s="454" t="s">
         <v>139</v>
       </c>
-      <c r="L50" s="456"/>
-      <c r="M50" s="457"/>
+      <c r="L50" s="455"/>
+      <c r="M50" s="456"/>
       <c r="U50" s="105"/>
     </row>
     <row r="51" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="507" t="s">
+      <c r="B51" s="469" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="509"/>
+      <c r="C51" s="531"/>
       <c r="D51" s="220"/>
-      <c r="E51" s="491" t="s">
+      <c r="E51" s="510" t="s">
         <v>136</v>
       </c>
-      <c r="F51" s="492"/>
-      <c r="G51" s="492"/>
-      <c r="H51" s="493"/>
-      <c r="I51" s="545" t="s">
+      <c r="F51" s="511"/>
+      <c r="G51" s="511"/>
+      <c r="H51" s="512"/>
+      <c r="I51" s="569" t="s">
         <v>135</v>
       </c>
       <c r="J51" s="113"/>
@@ -8953,16 +8997,16 @@
       <c r="U51" s="211"/>
     </row>
     <row r="52" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="507" t="s">
+      <c r="B52" s="469" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="508"/>
+      <c r="C52" s="490"/>
       <c r="D52" s="217"/>
-      <c r="E52" s="494"/>
-      <c r="F52" s="495"/>
-      <c r="G52" s="495"/>
-      <c r="H52" s="496"/>
-      <c r="I52" s="546"/>
+      <c r="E52" s="513"/>
+      <c r="F52" s="514"/>
+      <c r="G52" s="514"/>
+      <c r="H52" s="515"/>
+      <c r="I52" s="570"/>
       <c r="J52" s="113"/>
       <c r="K52" s="216" t="s">
         <v>132</v>
@@ -8975,22 +9019,22 @@
       <c r="U52" s="211"/>
     </row>
     <row r="53" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="507" t="s">
+      <c r="B53" s="469" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="508"/>
+      <c r="C53" s="490"/>
       <c r="D53" s="210" t="e">
         <f>D52/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E53" s="497" t="s">
+      <c r="E53" s="516" t="s">
         <v>129</v>
       </c>
-      <c r="F53" s="498"/>
-      <c r="G53" s="467">
-        <v>0</v>
-      </c>
-      <c r="H53" s="468"/>
+      <c r="F53" s="517"/>
+      <c r="G53" s="545">
+        <v>0</v>
+      </c>
+      <c r="H53" s="546"/>
       <c r="I53" s="209" t="e">
         <f>G53/G55</f>
         <v>#DIV/0!</v>
@@ -9006,19 +9050,19 @@
       </c>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B54" s="507" t="s">
+      <c r="B54" s="469" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="508"/>
+      <c r="C54" s="490"/>
       <c r="D54" s="206"/>
-      <c r="E54" s="587" t="s">
+      <c r="E54" s="452" t="s">
         <v>126</v>
       </c>
-      <c r="F54" s="588"/>
-      <c r="G54" s="557">
-        <v>0</v>
-      </c>
-      <c r="H54" s="558"/>
+      <c r="F54" s="453"/>
+      <c r="G54" s="486">
+        <v>0</v>
+      </c>
+      <c r="H54" s="487"/>
       <c r="I54" s="205" t="e">
         <f>G54/G55</f>
         <v>#DIV/0!</v>
@@ -9037,14 +9081,14 @@
         <f>D52/D54</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E55" s="563" t="s">
+      <c r="E55" s="491" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="564"/>
-      <c r="G55" s="565">
-        <v>0</v>
-      </c>
-      <c r="H55" s="566"/>
+      <c r="F55" s="492"/>
+      <c r="G55" s="493">
+        <v>0</v>
+      </c>
+      <c r="H55" s="494"/>
       <c r="I55" s="202" t="s">
         <v>31</v>
       </c>
@@ -9081,45 +9125,45 @@
       <c r="F57" s="182" t="s">
         <v>98</v>
       </c>
-      <c r="G57" s="456" t="s">
+      <c r="G57" s="455" t="s">
         <v>97</v>
       </c>
-      <c r="H57" s="457"/>
+      <c r="H57" s="456"/>
       <c r="I57" s="181" t="s">
         <v>121</v>
       </c>
       <c r="J57" s="107"/>
-      <c r="K57" s="455" t="s">
+      <c r="K57" s="454" t="s">
         <v>120</v>
       </c>
-      <c r="L57" s="456"/>
-      <c r="M57" s="457"/>
+      <c r="L57" s="455"/>
+      <c r="M57" s="456"/>
     </row>
     <row r="58" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="532" t="s">
+      <c r="B58" s="509" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="533"/>
+      <c r="C58" s="538"/>
       <c r="D58" s="180"/>
       <c r="E58" s="179" t="e">
         <f>D58/D51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F58" s="178"/>
-      <c r="G58" s="534" t="e">
+      <c r="G58" s="539" t="e">
         <f>F58/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="535"/>
+      <c r="H58" s="540"/>
       <c r="I58" s="177" t="e">
         <f>D58/D58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J58" s="141"/>
-      <c r="K58" s="530" t="s">
+      <c r="K58" s="536" t="s">
         <v>116</v>
       </c>
-      <c r="L58" s="531"/>
+      <c r="L58" s="537"/>
       <c r="M58" s="175">
         <f>D52</f>
         <v>0</v>
@@ -9139,11 +9183,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F59" s="155"/>
-      <c r="G59" s="510" t="e">
+      <c r="G59" s="474" t="e">
         <f>F59/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H59" s="511"/>
+      <c r="H59" s="475"/>
       <c r="I59" s="153" t="e">
         <f>D59/D58</f>
         <v>#DIV/0!</v>
@@ -9158,7 +9202,7 @@
       </c>
     </row>
     <row r="60" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="539" t="s">
+      <c r="B60" s="471" t="s">
         <v>111</v>
       </c>
       <c r="C60" s="542"/>
@@ -9168,30 +9212,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F60" s="149"/>
-      <c r="G60" s="510" t="e">
+      <c r="G60" s="474" t="e">
         <f>F60/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="511"/>
+      <c r="H60" s="475"/>
       <c r="I60" s="153" t="e">
         <f>D60/D58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J60" s="141"/>
-      <c r="K60" s="569" t="s">
+      <c r="K60" s="461" t="s">
         <v>110</v>
       </c>
-      <c r="L60" s="570"/>
+      <c r="L60" s="462"/>
       <c r="M60" s="168">
         <f>M58*M59</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:21" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="525" t="s">
+      <c r="B61" s="532" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="526"/>
+      <c r="C61" s="533"/>
       <c r="D61" s="193">
         <f>D58-D59-D60</f>
         <v>0</v>
@@ -9204,20 +9248,20 @@
         <f>F58-F59-F60</f>
         <v>0</v>
       </c>
-      <c r="G61" s="549" t="e">
+      <c r="G61" s="478" t="e">
         <f>F61/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="550"/>
+      <c r="H61" s="479"/>
       <c r="I61" s="153" t="e">
         <f>D61/D58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J61" s="141"/>
-      <c r="K61" s="520" t="s">
+      <c r="K61" s="465" t="s">
         <v>75</v>
       </c>
-      <c r="L61" s="529"/>
+      <c r="L61" s="473"/>
       <c r="M61" s="168">
         <f>M58-M60</f>
         <v>0</v>
@@ -9234,49 +9278,49 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F62" s="155"/>
-      <c r="G62" s="510" t="e">
+      <c r="G62" s="474" t="e">
         <f>F62/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="511"/>
+      <c r="H62" s="475"/>
       <c r="I62" s="153" t="e">
         <f>D62/D58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J62" s="141"/>
-      <c r="K62" s="520" t="s">
+      <c r="K62" s="465" t="s">
         <v>74</v>
       </c>
-      <c r="L62" s="529"/>
+      <c r="L62" s="473"/>
       <c r="M62" s="136">
         <v>0.04</v>
       </c>
     </row>
     <row r="63" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="539" t="s">
+      <c r="B63" s="471" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="540"/>
+      <c r="C63" s="472"/>
       <c r="D63" s="151"/>
       <c r="E63" s="150" t="e">
         <f>D63/D51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F63" s="149"/>
-      <c r="G63" s="559" t="e">
+      <c r="G63" s="488" t="e">
         <f>F63/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="560"/>
+      <c r="H63" s="489"/>
       <c r="I63" s="147" t="e">
         <f>D63/D58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J63" s="141"/>
-      <c r="K63" s="527" t="s">
+      <c r="K63" s="534" t="s">
         <v>104</v>
       </c>
-      <c r="L63" s="528"/>
+      <c r="L63" s="535"/>
       <c r="M63" s="131">
         <v>250</v>
       </c>
@@ -9298,11 +9342,11 @@
         <f>F61+F62+F63</f>
         <v>0</v>
       </c>
-      <c r="G64" s="561" t="e">
+      <c r="G64" s="463" t="e">
         <f>F64/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="562"/>
+      <c r="H64" s="464"/>
       <c r="I64" s="142" t="e">
         <f>D64/D58</f>
         <v>#DIV/0!</v>
@@ -9345,38 +9389,38 @@
       <c r="F66" s="182" t="s">
         <v>98</v>
       </c>
-      <c r="G66" s="456" t="s">
+      <c r="G66" s="455" t="s">
         <v>97</v>
       </c>
-      <c r="H66" s="457"/>
+      <c r="H66" s="456"/>
       <c r="I66" s="181" t="s">
         <v>96</v>
       </c>
       <c r="J66" s="107"/>
-      <c r="K66" s="455" t="s">
+      <c r="K66" s="454" t="s">
         <v>95</v>
       </c>
-      <c r="L66" s="456"/>
-      <c r="M66" s="457"/>
+      <c r="L66" s="455"/>
+      <c r="M66" s="456"/>
       <c r="N66" s="105"/>
       <c r="O66" s="105"/>
     </row>
     <row r="67" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="532" t="s">
+      <c r="B67" s="509" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="538"/>
+      <c r="C67" s="466"/>
       <c r="D67" s="180"/>
       <c r="E67" s="179" t="e">
         <f>D67/D51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F67" s="178"/>
-      <c r="G67" s="516" t="e">
+      <c r="G67" s="499" t="e">
         <f>F67/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H67" s="517"/>
+      <c r="H67" s="500"/>
       <c r="I67" s="177" t="e">
         <f>D67/D58</f>
         <v>#DIV/0!</v>
@@ -9394,21 +9438,21 @@
       </c>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B68" s="520" t="s">
+      <c r="B68" s="465" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="522"/>
+      <c r="C68" s="504"/>
       <c r="D68" s="157"/>
       <c r="E68" s="156" t="e">
         <f>D68/D51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F68" s="155"/>
-      <c r="G68" s="489" t="e">
+      <c r="G68" s="459" t="e">
         <f>F68/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H68" s="490"/>
+      <c r="H68" s="460"/>
       <c r="I68" s="153" t="e">
         <f>D68/D58</f>
         <v>#DIV/0!</v>
@@ -9433,11 +9477,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F69" s="155"/>
-      <c r="G69" s="489" t="e">
+      <c r="G69" s="459" t="e">
         <f>F69/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H69" s="490"/>
+      <c r="H69" s="460"/>
       <c r="I69" s="153" t="e">
         <f>D69/D58</f>
         <v>#DIV/0!</v>
@@ -9453,21 +9497,21 @@
       </c>
     </row>
     <row r="70" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="520" t="s">
+      <c r="B70" s="465" t="s">
         <v>87</v>
       </c>
-      <c r="C70" s="521"/>
+      <c r="C70" s="503"/>
       <c r="D70" s="157"/>
       <c r="E70" s="170" t="e">
         <f>D70/D51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F70" s="155"/>
-      <c r="G70" s="489" t="e">
+      <c r="G70" s="459" t="e">
         <f>F70/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H70" s="490"/>
+      <c r="H70" s="460"/>
       <c r="I70" s="153" t="e">
         <f>D70/D58</f>
         <v>#DIV/0!</v>
@@ -9498,41 +9542,41 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F71" s="155"/>
-      <c r="G71" s="489" t="e">
+      <c r="G71" s="459" t="e">
         <f>F71/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H71" s="490"/>
+      <c r="H71" s="460"/>
       <c r="I71" s="153" t="e">
         <f>D71/D58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J71" s="141"/>
-      <c r="K71" s="589" t="s">
+      <c r="K71" s="457" t="s">
         <v>84</v>
       </c>
-      <c r="L71" s="590"/>
+      <c r="L71" s="458"/>
       <c r="M71" s="412">
         <f>M83+M84+M85+M86+M87+M88+M89+M90</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B72" s="520" t="s">
+      <c r="B72" s="465" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="538"/>
+      <c r="C72" s="466"/>
       <c r="D72" s="157"/>
       <c r="E72" s="156" t="e">
         <f>D72/D51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F72" s="155"/>
-      <c r="G72" s="489" t="e">
+      <c r="G72" s="459" t="e">
         <f>F72/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H72" s="490"/>
+      <c r="H72" s="460"/>
       <c r="I72" s="153" t="e">
         <f>D72/D58</f>
         <v>#DIV/0!</v>
@@ -9548,21 +9592,21 @@
       </c>
     </row>
     <row r="73" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="520" t="s">
+      <c r="B73" s="465" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="522"/>
+      <c r="C73" s="504"/>
       <c r="D73" s="157"/>
       <c r="E73" s="156" t="e">
         <f>D73/D51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F73" s="155"/>
-      <c r="G73" s="489" t="e">
+      <c r="G73" s="459" t="e">
         <f>F73/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H73" s="490"/>
+      <c r="H73" s="460"/>
       <c r="I73" s="153" t="e">
         <f>D73/D58</f>
         <v>#DIV/0!</v>
@@ -9573,21 +9617,21 @@
       <c r="M73" s="161"/>
     </row>
     <row r="74" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="520" t="s">
+      <c r="B74" s="465" t="s">
         <v>79</v>
       </c>
-      <c r="C74" s="522"/>
+      <c r="C74" s="504"/>
       <c r="D74" s="157"/>
       <c r="E74" s="156" t="e">
         <f>D74/D51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F74" s="155"/>
-      <c r="G74" s="489" t="e">
+      <c r="G74" s="459" t="e">
         <f>F74/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H74" s="490"/>
+      <c r="H74" s="460"/>
       <c r="I74" s="153" t="e">
         <f>D74/D58</f>
         <v>#DIV/0!</v>
@@ -9603,21 +9647,21 @@
       </c>
     </row>
     <row r="75" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="539" t="s">
+      <c r="B75" s="471" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="540"/>
+      <c r="C75" s="472"/>
       <c r="D75" s="151"/>
       <c r="E75" s="150" t="e">
         <f>D75/D51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F75" s="149"/>
-      <c r="G75" s="523" t="e">
+      <c r="G75" s="505" t="e">
         <f>F75/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H75" s="524"/>
+      <c r="H75" s="506"/>
       <c r="I75" s="147" t="e">
         <f>D75/D58</f>
         <v>#DIV/0!</v>
@@ -9645,34 +9689,34 @@
         <f>SUM(F67:F75)</f>
         <v>0</v>
       </c>
-      <c r="G76" s="561" t="e">
+      <c r="G76" s="463" t="e">
         <f>F76/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H76" s="562"/>
+      <c r="H76" s="464"/>
       <c r="I76" s="142" t="e">
         <f>D76/D58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J76" s="141"/>
-      <c r="K76" s="455" t="s">
+      <c r="K76" s="454" t="s">
         <v>76</v>
       </c>
-      <c r="L76" s="456"/>
-      <c r="M76" s="457"/>
+      <c r="L76" s="455"/>
+      <c r="M76" s="456"/>
       <c r="S76" s="122"/>
     </row>
     <row r="77" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="551" t="s">
+      <c r="B77" s="480" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="552"/>
-      <c r="D77" s="555">
+      <c r="C77" s="481"/>
+      <c r="D77" s="484">
         <f>D64-D76</f>
         <v>0</v>
       </c>
       <c r="E77" s="140"/>
-      <c r="F77" s="555">
+      <c r="F77" s="484">
         <f>F64-F76</f>
         <v>0</v>
       </c>
@@ -9688,11 +9732,11 @@
       <c r="S77" s="122"/>
     </row>
     <row r="78" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="553"/>
-      <c r="C78" s="554"/>
-      <c r="D78" s="556"/>
+      <c r="B78" s="482"/>
+      <c r="C78" s="483"/>
+      <c r="D78" s="485"/>
       <c r="E78" s="113"/>
-      <c r="F78" s="556"/>
+      <c r="F78" s="485"/>
       <c r="G78" s="120"/>
       <c r="H78" s="120"/>
       <c r="I78" s="120"/>
@@ -9705,10 +9749,10 @@
       <c r="S78" s="122"/>
     </row>
     <row r="79" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="536" t="s">
+      <c r="B79" s="507" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="537"/>
+      <c r="C79" s="508"/>
       <c r="D79" s="134">
         <f>D51*E79</f>
         <v>0</v>
@@ -9724,10 +9768,10 @@
       <c r="H79" s="120"/>
       <c r="I79" s="120"/>
       <c r="J79" s="120"/>
-      <c r="K79" s="507" t="s">
+      <c r="K79" s="469" t="s">
         <v>72</v>
       </c>
-      <c r="L79" s="573"/>
+      <c r="L79" s="470"/>
       <c r="M79" s="131">
         <v>250</v>
       </c>
@@ -9762,10 +9806,10 @@
       <c r="S80" s="122"/>
     </row>
     <row r="81" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="518" t="s">
+      <c r="B81" s="501" t="s">
         <v>69</v>
       </c>
-      <c r="C81" s="519"/>
+      <c r="C81" s="502"/>
       <c r="D81" s="112">
         <f>M64</f>
         <v>0</v>
@@ -9785,10 +9829,10 @@
       <c r="S81" s="122"/>
     </row>
     <row r="82" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="514" t="s">
+      <c r="B82" s="497" t="s">
         <v>68</v>
       </c>
-      <c r="C82" s="515"/>
+      <c r="C82" s="498"/>
       <c r="D82" s="123">
         <f>M80</f>
         <v>0</v>
@@ -9802,18 +9846,18 @@
       <c r="H82" s="410"/>
       <c r="I82" s="410"/>
       <c r="J82" s="410"/>
-      <c r="K82" s="582" t="s">
+      <c r="K82" s="445" t="s">
         <v>199</v>
       </c>
-      <c r="L82" s="583"/>
-      <c r="M82" s="584"/>
+      <c r="L82" s="446"/>
+      <c r="M82" s="447"/>
       <c r="S82" s="122"/>
     </row>
     <row r="83" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B83" s="518" t="s">
+      <c r="B83" s="501" t="s">
         <v>174</v>
       </c>
-      <c r="C83" s="519"/>
+      <c r="C83" s="502"/>
       <c r="D83" s="112">
         <f>(D80-D81-D82)</f>
         <v>0</v>
@@ -9827,17 +9871,17 @@
       <c r="H83" s="411"/>
       <c r="I83" s="411"/>
       <c r="J83" s="411"/>
-      <c r="K83" s="585" t="s">
+      <c r="K83" s="448" t="s">
         <v>200</v>
       </c>
-      <c r="L83" s="586"/>
+      <c r="L83" s="449"/>
       <c r="M83" s="409"/>
     </row>
     <row r="84" spans="2:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="514" t="s">
+      <c r="B84" s="497" t="s">
         <v>66</v>
       </c>
-      <c r="C84" s="515"/>
+      <c r="C84" s="498"/>
       <c r="D84" s="117" t="e">
         <f>D83/M74</f>
         <v>#DIV/0!</v>
@@ -9851,17 +9895,17 @@
       <c r="H84" s="411"/>
       <c r="I84" s="411"/>
       <c r="J84" s="411"/>
-      <c r="K84" s="567" t="s">
+      <c r="K84" s="450" t="s">
         <v>203</v>
       </c>
-      <c r="L84" s="568"/>
+      <c r="L84" s="451"/>
       <c r="M84" s="407"/>
     </row>
     <row r="85" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="514" t="s">
+      <c r="B85" s="497" t="s">
         <v>65</v>
       </c>
-      <c r="C85" s="515"/>
+      <c r="C85" s="498"/>
       <c r="D85" s="118" t="e">
         <f>D80/(D81+D82)</f>
         <v>#DIV/0!</v>
@@ -9877,17 +9921,17 @@
       <c r="H85" s="411"/>
       <c r="I85" s="411"/>
       <c r="J85" s="411"/>
-      <c r="K85" s="567" t="s">
+      <c r="K85" s="450" t="s">
         <v>204</v>
       </c>
-      <c r="L85" s="568"/>
+      <c r="L85" s="451"/>
       <c r="M85" s="407"/>
     </row>
     <row r="86" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="514" t="s">
+      <c r="B86" s="497" t="s">
         <v>64</v>
       </c>
-      <c r="C86" s="515"/>
+      <c r="C86" s="498"/>
       <c r="D86" s="117" t="e">
         <f>D77/D52</f>
         <v>#DIV/0!</v>
@@ -9903,17 +9947,17 @@
       <c r="H86" s="411"/>
       <c r="I86" s="411"/>
       <c r="J86" s="411"/>
-      <c r="K86" s="567" t="s">
+      <c r="K86" s="450" t="s">
         <v>201</v>
       </c>
-      <c r="L86" s="568"/>
+      <c r="L86" s="451"/>
       <c r="M86" s="407"/>
     </row>
     <row r="87" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="514" t="s">
+      <c r="B87" s="497" t="s">
         <v>176</v>
       </c>
-      <c r="C87" s="515"/>
+      <c r="C87" s="498"/>
       <c r="D87" s="112">
         <f>D83*E87</f>
         <v>0</v>
@@ -9931,17 +9975,17 @@
       <c r="H87" s="411"/>
       <c r="I87" s="411"/>
       <c r="J87" s="411"/>
-      <c r="K87" s="567" t="s">
+      <c r="K87" s="450" t="s">
         <v>202</v>
       </c>
-      <c r="L87" s="568"/>
+      <c r="L87" s="451"/>
       <c r="M87" s="407"/>
     </row>
     <row r="88" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B88" s="514" t="s">
+      <c r="B88" s="497" t="s">
         <v>173</v>
       </c>
-      <c r="C88" s="515"/>
+      <c r="C88" s="498"/>
       <c r="D88" s="112">
         <f>D83-D87</f>
         <v>0</v>
@@ -9955,17 +9999,17 @@
       <c r="H88" s="411"/>
       <c r="I88" s="411"/>
       <c r="J88" s="411"/>
-      <c r="K88" s="567" t="s">
+      <c r="K88" s="450" t="s">
         <v>205</v>
       </c>
-      <c r="L88" s="568"/>
+      <c r="L88" s="451"/>
       <c r="M88" s="407"/>
     </row>
     <row r="89" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="512" t="s">
+      <c r="B89" s="495" t="s">
         <v>171</v>
       </c>
-      <c r="C89" s="513"/>
+      <c r="C89" s="496"/>
       <c r="D89" s="108" t="e">
         <f>D88/M74</f>
         <v>#DIV/0!</v>
@@ -9979,8 +10023,8 @@
       <c r="H89" s="411"/>
       <c r="I89" s="411"/>
       <c r="J89" s="411"/>
-      <c r="K89" s="571"/>
-      <c r="L89" s="572"/>
+      <c r="K89" s="467"/>
+      <c r="L89" s="468"/>
       <c r="M89" s="407"/>
       <c r="S89" s="106" t="s">
         <v>63</v>
@@ -9990,8 +10034,8 @@
       <c r="F90" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="K90" s="580"/>
-      <c r="L90" s="581"/>
+      <c r="K90" s="440"/>
+      <c r="L90" s="441"/>
       <c r="M90" s="408"/>
     </row>
     <row r="91" spans="2:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -10000,6 +10044,102 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="120">
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B4:O4"/>
+    <mergeCell ref="B10:I11"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B38:O38"/>
+    <mergeCell ref="B39:O39"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B47:M47"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="E51:H52"/>
+    <mergeCell ref="E53:F53"/>
     <mergeCell ref="K90:L90"/>
     <mergeCell ref="B41:O41"/>
     <mergeCell ref="K82:M82"/>
@@ -10024,102 +10164,6 @@
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="G62:H62"/>
     <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="E51:H52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B47:M47"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B4:O4"/>
-    <mergeCell ref="B10:I11"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="B38:O38"/>
-    <mergeCell ref="B39:O39"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <conditionalFormatting sqref="E68">
     <cfRule type="cellIs" dxfId="84" priority="25" stopIfTrue="1" operator="between">
@@ -10342,27 +10386,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="504" t="s">
+      <c r="B2" s="528" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="505"/>
-      <c r="D2" s="505"/>
-      <c r="E2" s="505"/>
-      <c r="F2" s="505"/>
-      <c r="G2" s="505"/>
-      <c r="H2" s="505"/>
-      <c r="I2" s="505"/>
-      <c r="J2" s="505"/>
-      <c r="K2" s="505"/>
-      <c r="L2" s="505"/>
-      <c r="M2" s="506"/>
-      <c r="P2" s="624" t="s">
+      <c r="C2" s="529"/>
+      <c r="D2" s="529"/>
+      <c r="E2" s="529"/>
+      <c r="F2" s="529"/>
+      <c r="G2" s="529"/>
+      <c r="H2" s="529"/>
+      <c r="I2" s="529"/>
+      <c r="J2" s="529"/>
+      <c r="K2" s="529"/>
+      <c r="L2" s="529"/>
+      <c r="M2" s="530"/>
+      <c r="P2" s="627" t="s">
         <v>144</v>
       </c>
-      <c r="Q2" s="625"/>
-      <c r="R2" s="625"/>
-      <c r="S2" s="625"/>
-      <c r="T2" s="626"/>
+      <c r="Q2" s="628"/>
+      <c r="R2" s="628"/>
+      <c r="S2" s="628"/>
+      <c r="T2" s="629"/>
       <c r="U2" s="231"/>
     </row>
     <row r="3" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10386,31 +10430,31 @@
       <c r="U3" s="105"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="455" t="s">
+      <c r="B4" s="454" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="456"/>
-      <c r="D4" s="457"/>
-      <c r="E4" s="621" t="s">
+      <c r="C4" s="455"/>
+      <c r="D4" s="456"/>
+      <c r="E4" s="624" t="s">
         <v>198</v>
       </c>
-      <c r="F4" s="622"/>
-      <c r="G4" s="622"/>
-      <c r="H4" s="622"/>
-      <c r="I4" s="623"/>
+      <c r="F4" s="625"/>
+      <c r="G4" s="625"/>
+      <c r="H4" s="625"/>
+      <c r="I4" s="626"/>
       <c r="J4" s="375"/>
       <c r="K4" s="632" t="s">
         <v>150</v>
       </c>
       <c r="L4" s="632"/>
       <c r="M4" s="633"/>
-      <c r="P4" s="627" t="s">
+      <c r="P4" s="621" t="s">
         <v>141</v>
       </c>
-      <c r="Q4" s="628"/>
-      <c r="R4" s="628"/>
-      <c r="S4" s="628"/>
-      <c r="T4" s="629"/>
+      <c r="Q4" s="622"/>
+      <c r="R4" s="622"/>
+      <c r="S4" s="622"/>
+      <c r="T4" s="623"/>
       <c r="U4" s="105"/>
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10422,86 +10466,86 @@
         <v>0</v>
       </c>
       <c r="D5" s="631"/>
-      <c r="E5" s="611" t="s">
+      <c r="E5" s="657" t="s">
         <v>194</v>
       </c>
-      <c r="F5" s="612"/>
-      <c r="G5" s="612"/>
-      <c r="H5" s="613"/>
+      <c r="F5" s="658"/>
+      <c r="G5" s="658"/>
+      <c r="H5" s="659"/>
       <c r="I5" s="380">
         <f>'Acqusition-NF'!M51</f>
         <v>0</v>
       </c>
-      <c r="J5" s="600"/>
+      <c r="J5" s="646"/>
       <c r="K5" s="634"/>
       <c r="L5" s="635"/>
       <c r="M5" s="636"/>
-      <c r="P5" s="627" t="s">
+      <c r="P5" s="621" t="s">
         <v>149</v>
       </c>
-      <c r="Q5" s="628"/>
-      <c r="R5" s="628"/>
-      <c r="S5" s="628"/>
-      <c r="T5" s="629"/>
+      <c r="Q5" s="622"/>
+      <c r="R5" s="622"/>
+      <c r="S5" s="622"/>
+      <c r="T5" s="623"/>
       <c r="U5" s="105"/>
     </row>
     <row r="6" spans="2:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="507" t="s">
+      <c r="B6" s="469" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="509"/>
+      <c r="C6" s="531"/>
       <c r="D6" s="271">
         <f>'Acqusition-NF'!D51</f>
         <v>0</v>
       </c>
-      <c r="E6" s="607" t="s">
+      <c r="E6" s="653" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="608"/>
-      <c r="G6" s="609"/>
-      <c r="H6" s="610"/>
+      <c r="F6" s="654"/>
+      <c r="G6" s="655"/>
+      <c r="H6" s="656"/>
       <c r="I6" s="381">
         <f>'Acqusition-NF'!M53</f>
         <v>0</v>
       </c>
-      <c r="J6" s="601"/>
-      <c r="K6" s="591"/>
-      <c r="L6" s="592"/>
-      <c r="M6" s="593"/>
-      <c r="P6" s="627" t="s">
+      <c r="J6" s="647"/>
+      <c r="K6" s="637"/>
+      <c r="L6" s="638"/>
+      <c r="M6" s="639"/>
+      <c r="P6" s="621" t="s">
         <v>133</v>
       </c>
-      <c r="Q6" s="628"/>
-      <c r="R6" s="628"/>
-      <c r="S6" s="628"/>
-      <c r="T6" s="629"/>
+      <c r="Q6" s="622"/>
+      <c r="R6" s="622"/>
+      <c r="S6" s="622"/>
+      <c r="T6" s="623"/>
       <c r="U6" s="211"/>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="507" t="s">
+      <c r="B7" s="469" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="508"/>
+      <c r="C7" s="490"/>
       <c r="D7" s="252">
         <f>'Acqusition-NF'!D52</f>
         <v>0</v>
       </c>
-      <c r="E7" s="607" t="s">
+      <c r="E7" s="653" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="620"/>
-      <c r="G7" s="614">
-        <v>0</v>
-      </c>
-      <c r="H7" s="615"/>
+      <c r="F7" s="666"/>
+      <c r="G7" s="660">
+        <v>0</v>
+      </c>
+      <c r="H7" s="661"/>
       <c r="I7" s="381">
         <f xml:space="preserve"> I6-(I6*G7)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="591"/>
-      <c r="L7" s="592"/>
-      <c r="M7" s="593"/>
+      <c r="J7" s="647"/>
+      <c r="K7" s="637"/>
+      <c r="L7" s="638"/>
+      <c r="M7" s="639"/>
       <c r="P7" s="214" t="s">
         <v>131</v>
       </c>
@@ -10512,47 +10556,47 @@
       <c r="U7" s="211"/>
     </row>
     <row r="8" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="507" t="s">
+      <c r="B8" s="469" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="508"/>
+      <c r="C8" s="490"/>
       <c r="D8" s="252" t="e">
         <f>'Acqusition-NF'!D53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="616" t="s">
+      <c r="E8" s="662" t="s">
         <v>197</v>
       </c>
-      <c r="F8" s="617"/>
-      <c r="G8" s="618"/>
-      <c r="H8" s="619"/>
+      <c r="F8" s="663"/>
+      <c r="G8" s="664"/>
+      <c r="H8" s="665"/>
       <c r="I8" s="382">
         <f>I5-I7</f>
         <v>0</v>
       </c>
-      <c r="J8" s="601"/>
-      <c r="K8" s="591"/>
-      <c r="L8" s="592"/>
-      <c r="M8" s="593"/>
+      <c r="J8" s="647"/>
+      <c r="K8" s="637"/>
+      <c r="L8" s="638"/>
+      <c r="M8" s="639"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B9" s="507" t="s">
+      <c r="B9" s="469" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="508"/>
+      <c r="C9" s="490"/>
       <c r="D9" s="270">
         <f>'Acqusition-NF'!D54</f>
         <v>0</v>
       </c>
-      <c r="E9" s="594"/>
-      <c r="F9" s="595"/>
-      <c r="G9" s="595"/>
-      <c r="H9" s="595"/>
-      <c r="I9" s="596"/>
-      <c r="J9" s="602"/>
-      <c r="K9" s="591"/>
-      <c r="L9" s="592"/>
-      <c r="M9" s="593"/>
+      <c r="E9" s="640"/>
+      <c r="F9" s="641"/>
+      <c r="G9" s="641"/>
+      <c r="H9" s="641"/>
+      <c r="I9" s="642"/>
+      <c r="J9" s="648"/>
+      <c r="K9" s="637"/>
+      <c r="L9" s="638"/>
+      <c r="M9" s="639"/>
     </row>
     <row r="10" spans="2:21" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="543" t="s">
@@ -10563,15 +10607,15 @@
         <f>'Acqusition-NF'!D55</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="597"/>
-      <c r="F10" s="598"/>
-      <c r="G10" s="598"/>
-      <c r="H10" s="598"/>
-      <c r="I10" s="599"/>
-      <c r="J10" s="603"/>
-      <c r="K10" s="604"/>
-      <c r="L10" s="605"/>
-      <c r="M10" s="606"/>
+      <c r="E10" s="643"/>
+      <c r="F10" s="644"/>
+      <c r="G10" s="644"/>
+      <c r="H10" s="644"/>
+      <c r="I10" s="645"/>
+      <c r="J10" s="649"/>
+      <c r="K10" s="650"/>
+      <c r="L10" s="651"/>
+      <c r="M10" s="652"/>
     </row>
     <row r="11" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="201"/>
@@ -10601,30 +10645,30 @@
       <c r="F12" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="456" t="s">
+      <c r="G12" s="455" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="457"/>
+      <c r="H12" s="456"/>
       <c r="I12" s="261" t="s">
         <v>147</v>
       </c>
       <c r="J12" s="107"/>
-      <c r="K12" s="455" t="s">
+      <c r="K12" s="454" t="s">
         <v>120</v>
       </c>
-      <c r="L12" s="456"/>
-      <c r="M12" s="457"/>
-      <c r="P12" s="455" t="s">
+      <c r="L12" s="455"/>
+      <c r="M12" s="456"/>
+      <c r="P12" s="454" t="s">
         <v>83</v>
       </c>
-      <c r="Q12" s="456"/>
-      <c r="R12" s="457"/>
+      <c r="Q12" s="455"/>
+      <c r="R12" s="456"/>
     </row>
     <row r="13" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="532" t="s">
+      <c r="B13" s="509" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="533"/>
+      <c r="C13" s="538"/>
       <c r="D13" s="252">
         <f>'Acqusition-NF'!D58</f>
         <v>0</v>
@@ -10634,29 +10678,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="260"/>
-      <c r="G13" s="534" t="e">
+      <c r="G13" s="539" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="535"/>
+      <c r="H13" s="540"/>
       <c r="I13" s="259" t="e">
         <f>F13/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="141"/>
-      <c r="K13" s="530" t="s">
+      <c r="K13" s="536" t="s">
         <v>116</v>
       </c>
-      <c r="L13" s="531"/>
+      <c r="L13" s="537"/>
       <c r="M13" s="175">
         <f>D7</f>
         <v>0</v>
       </c>
       <c r="P13" s="162"/>
-      <c r="Q13" s="440" t="s">
+      <c r="Q13" s="547" t="s">
         <v>81</v>
       </c>
-      <c r="R13" s="441"/>
+      <c r="R13" s="548"/>
     </row>
     <row r="14" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="159" t="s">
@@ -10677,11 +10721,11 @@
         <f>C14*F13</f>
         <v>0</v>
       </c>
-      <c r="G14" s="510" t="e">
+      <c r="G14" s="474" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="511"/>
+      <c r="H14" s="475"/>
       <c r="I14" s="235" t="e">
         <f>F14/F13</f>
         <v>#DIV/0!</v>
@@ -10696,13 +10740,13 @@
         <v>0.2</v>
       </c>
       <c r="P14" s="160"/>
-      <c r="Q14" s="440" t="s">
+      <c r="Q14" s="547" t="s">
         <v>80</v>
       </c>
-      <c r="R14" s="441"/>
+      <c r="R14" s="548"/>
     </row>
     <row r="15" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="539" t="s">
+      <c r="B15" s="471" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="542"/>
@@ -10715,29 +10759,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="250"/>
-      <c r="G15" s="559" t="e">
+      <c r="G15" s="488" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="560"/>
+      <c r="H15" s="489"/>
       <c r="I15" s="249" t="e">
         <f>F15/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="141"/>
-      <c r="K15" s="569" t="s">
+      <c r="K15" s="461" t="s">
         <v>110</v>
       </c>
-      <c r="L15" s="570"/>
+      <c r="L15" s="462"/>
       <c r="M15" s="168">
         <f>M13*M14</f>
         <v>0</v>
       </c>
       <c r="P15" s="152"/>
-      <c r="Q15" s="440" t="s">
+      <c r="Q15" s="547" t="s">
         <v>77</v>
       </c>
-      <c r="R15" s="441"/>
+      <c r="R15" s="548"/>
     </row>
     <row r="16" spans="2:21" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B16" s="195" t="s">
@@ -10756,20 +10800,20 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="637" t="e">
+      <c r="G16" s="611" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="638"/>
+      <c r="H16" s="612"/>
       <c r="I16" s="259" t="e">
         <f>F16/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="141"/>
-      <c r="K16" s="520" t="s">
+      <c r="K16" s="465" t="s">
         <v>75</v>
       </c>
-      <c r="L16" s="529"/>
+      <c r="L16" s="473"/>
       <c r="M16" s="168">
         <f>M13-M15</f>
         <v>0</v>
@@ -10789,30 +10833,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="251"/>
-      <c r="G17" s="510" t="e">
+      <c r="G17" s="474" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="511"/>
+      <c r="H17" s="475"/>
       <c r="I17" s="235" t="e">
         <f>F17/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="141"/>
-      <c r="K17" s="520" t="s">
+      <c r="K17" s="465" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="529"/>
+      <c r="L17" s="473"/>
       <c r="M17" s="266">
         <f>'Acqusition-NF'!M62</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="539" t="s">
+      <c r="B18" s="471" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="540"/>
+      <c r="C18" s="472"/>
       <c r="D18" s="265">
         <f>'Acqusition-NF'!D63</f>
         <v>0</v>
@@ -10822,20 +10866,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="250"/>
-      <c r="G18" s="559" t="e">
+      <c r="G18" s="488" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="560"/>
+      <c r="H18" s="489"/>
       <c r="I18" s="249" t="e">
         <f>F18/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="141"/>
-      <c r="K18" s="527" t="s">
+      <c r="K18" s="534" t="s">
         <v>104</v>
       </c>
-      <c r="L18" s="528"/>
+      <c r="L18" s="535"/>
       <c r="M18" s="264">
         <f>'Acqusition-NF'!M63</f>
         <v>250</v>
@@ -10858,11 +10902,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="561" t="e">
+      <c r="G19" s="463" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="562"/>
+      <c r="H19" s="464"/>
       <c r="I19" s="248" t="e">
         <f>F19/F13</f>
         <v>#DIV/0!</v>
@@ -10905,27 +10949,27 @@
       <c r="F21" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="456" t="s">
+      <c r="G21" s="455" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="457"/>
+      <c r="H21" s="456"/>
       <c r="I21" s="261" t="s">
         <v>147</v>
       </c>
       <c r="J21" s="107"/>
-      <c r="K21" s="649" t="s">
+      <c r="K21" s="608" t="s">
         <v>95</v>
       </c>
-      <c r="L21" s="650"/>
-      <c r="M21" s="651"/>
+      <c r="L21" s="609"/>
+      <c r="M21" s="606"/>
       <c r="N21" s="105"/>
       <c r="O21" s="105"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B22" s="532" t="s">
+      <c r="B22" s="509" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="538"/>
+      <c r="C22" s="466"/>
       <c r="D22" s="252">
         <f>'Acqusition-NF'!D67</f>
         <v>0</v>
@@ -10935,30 +10979,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="260"/>
-      <c r="G22" s="516" t="e">
+      <c r="G22" s="499" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="517"/>
+      <c r="H22" s="500"/>
       <c r="I22" s="259" t="e">
         <f>F22/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="141"/>
-      <c r="K22" s="665" t="s">
+      <c r="K22" s="619" t="s">
         <v>93</v>
       </c>
-      <c r="L22" s="666"/>
+      <c r="L22" s="620"/>
       <c r="M22" s="175">
         <f>'Acqusition-NF'!M67</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="520" t="s">
+      <c r="B23" s="465" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="522"/>
+      <c r="C23" s="504"/>
       <c r="D23" s="252">
         <f>'Acqusition-NF'!D68</f>
         <v>0</v>
@@ -10968,20 +11012,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="251"/>
-      <c r="G23" s="489" t="e">
+      <c r="G23" s="459" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="490"/>
+      <c r="H23" s="460"/>
       <c r="I23" s="235" t="e">
         <f>F23/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="141"/>
-      <c r="K23" s="520" t="s">
+      <c r="K23" s="465" t="s">
         <v>91</v>
       </c>
-      <c r="L23" s="529"/>
+      <c r="L23" s="473"/>
       <c r="M23" s="205">
         <f>'Acqusition-NF'!M68</f>
         <v>0.01</v>
@@ -11001,30 +11045,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="251"/>
-      <c r="G24" s="489" t="e">
+      <c r="G24" s="459" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="490"/>
+      <c r="H24" s="460"/>
       <c r="I24" s="235" t="e">
         <f>F24/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="141"/>
-      <c r="K24" s="520" t="s">
+      <c r="K24" s="465" t="s">
         <v>88</v>
       </c>
-      <c r="L24" s="529"/>
+      <c r="L24" s="473"/>
       <c r="M24" s="168">
         <f>'Acqusition-NF'!M69</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="520" t="s">
+      <c r="B25" s="465" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="521"/>
+      <c r="C25" s="503"/>
       <c r="D25" s="252">
         <f>'Acqusition-NF'!D70</f>
         <v>0</v>
@@ -11034,20 +11078,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="251"/>
-      <c r="G25" s="489" t="e">
+      <c r="G25" s="459" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="490"/>
+      <c r="H25" s="460"/>
       <c r="I25" s="235" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="141"/>
-      <c r="K25" s="527" t="s">
+      <c r="K25" s="534" t="s">
         <v>86</v>
       </c>
-      <c r="L25" s="528"/>
+      <c r="L25" s="535"/>
       <c r="M25" s="168">
         <f>'Acqusition-NF'!M70</f>
         <v>0</v>
@@ -11073,30 +11117,30 @@
         <f>F19*C26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="489" t="e">
+      <c r="G26" s="459" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="490"/>
+      <c r="H26" s="460"/>
       <c r="I26" s="235" t="e">
         <f>F26/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="141"/>
-      <c r="K26" s="647" t="s">
+      <c r="K26" s="617" t="s">
         <v>84</v>
       </c>
-      <c r="L26" s="648"/>
+      <c r="L26" s="618"/>
       <c r="M26" s="124">
         <f>'Acqusition-NF'!M71</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="520" t="s">
+      <c r="B27" s="465" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="538"/>
+      <c r="C27" s="466"/>
       <c r="D27" s="252">
         <f>'Acqusition-NF'!D72</f>
         <v>0</v>
@@ -11106,11 +11150,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="251"/>
-      <c r="G27" s="489" t="e">
+      <c r="G27" s="459" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="490"/>
+      <c r="H27" s="460"/>
       <c r="I27" s="235" t="e">
         <f>F27/F13</f>
         <v>#DIV/0!</v>
@@ -11126,10 +11170,10 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="520" t="s">
+      <c r="B28" s="465" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="522"/>
+      <c r="C28" s="504"/>
       <c r="D28" s="252">
         <f>'Acqusition-NF'!D73</f>
         <v>0</v>
@@ -11139,11 +11183,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="251"/>
-      <c r="G28" s="489" t="e">
+      <c r="G28" s="459" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="490"/>
+      <c r="H28" s="460"/>
       <c r="I28" s="235" t="e">
         <f>F28/F13</f>
         <v>#DIV/0!</v>
@@ -11154,10 +11198,10 @@
       <c r="M28" s="253"/>
     </row>
     <row r="29" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="520" t="s">
+      <c r="B29" s="465" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="522"/>
+      <c r="C29" s="504"/>
       <c r="D29" s="252">
         <f>'Acqusition-NF'!D74</f>
         <v>0</v>
@@ -11167,11 +11211,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="251"/>
-      <c r="G29" s="489" t="e">
+      <c r="G29" s="459" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="490"/>
+      <c r="H29" s="460"/>
       <c r="I29" s="235" t="e">
         <f>F29/F13</f>
         <v>#DIV/0!</v>
@@ -11187,10 +11231,10 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="539" t="s">
+      <c r="B30" s="471" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="540"/>
+      <c r="C30" s="472"/>
       <c r="D30" s="192">
         <f>'Acqusition-NF'!D75</f>
         <v>0</v>
@@ -11200,11 +11244,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="250"/>
-      <c r="G30" s="523" t="e">
+      <c r="G30" s="505" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="524"/>
+      <c r="H30" s="506"/>
       <c r="I30" s="249" t="e">
         <f>F30/F13</f>
         <v>#DIV/0!</v>
@@ -11232,34 +11276,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="654" t="e">
+      <c r="G31" s="604" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="655"/>
+      <c r="H31" s="605"/>
       <c r="I31" s="248" t="e">
         <f>F31/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="141"/>
-      <c r="K31" s="455" t="s">
+      <c r="K31" s="454" t="s">
         <v>76</v>
       </c>
-      <c r="L31" s="456"/>
-      <c r="M31" s="651"/>
+      <c r="L31" s="455"/>
+      <c r="M31" s="606"/>
       <c r="S31" s="122"/>
     </row>
     <row r="32" spans="2:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="551" t="s">
+      <c r="B32" s="480" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="552"/>
-      <c r="D32" s="657">
+      <c r="C32" s="481"/>
+      <c r="D32" s="594">
         <f>'Acqusition-NF'!D77</f>
         <v>0</v>
       </c>
       <c r="E32" s="247"/>
-      <c r="F32" s="659">
+      <c r="F32" s="596">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -11278,11 +11322,11 @@
       <c r="S32" s="122"/>
     </row>
     <row r="33" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="553"/>
-      <c r="C33" s="554"/>
-      <c r="D33" s="658"/>
+      <c r="B33" s="482"/>
+      <c r="C33" s="483"/>
+      <c r="D33" s="595"/>
       <c r="E33" s="245"/>
-      <c r="F33" s="660"/>
+      <c r="F33" s="597"/>
       <c r="G33" s="120"/>
       <c r="H33" s="120"/>
       <c r="I33" s="120"/>
@@ -11298,10 +11342,10 @@
       <c r="S33" s="122"/>
     </row>
     <row r="34" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="536" t="s">
+      <c r="B34" s="507" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="537"/>
+      <c r="C34" s="508"/>
       <c r="D34" s="134">
         <f>'Acqusition-NF'!D79</f>
         <v>0</v>
@@ -11315,10 +11359,10 @@
       <c r="H34" s="120"/>
       <c r="I34" s="120"/>
       <c r="J34" s="120"/>
-      <c r="K34" s="507" t="s">
+      <c r="K34" s="469" t="s">
         <v>72</v>
       </c>
-      <c r="L34" s="661"/>
+      <c r="L34" s="598"/>
       <c r="M34" s="168">
         <f>'Acqusition-NF'!M79</f>
         <v>250</v>
@@ -11354,10 +11398,10 @@
       <c r="S35" s="122"/>
     </row>
     <row r="36" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="518" t="s">
+      <c r="B36" s="501" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="662"/>
+      <c r="C36" s="599"/>
       <c r="D36" s="233">
         <f>'Acqusition-NF'!D81</f>
         <v>0</v>
@@ -11377,10 +11421,10 @@
       <c r="S36" s="122"/>
     </row>
     <row r="37" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="514" t="s">
+      <c r="B37" s="497" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="656"/>
+      <c r="C37" s="603"/>
       <c r="D37" s="233">
         <f>'Acqusition-NF'!D82</f>
         <v>0</v>
@@ -11391,23 +11435,23 @@
         <v>0</v>
       </c>
       <c r="G37" s="119"/>
-      <c r="H37" s="582" t="s">
+      <c r="H37" s="445" t="s">
         <v>146</v>
       </c>
-      <c r="I37" s="583"/>
-      <c r="J37" s="583"/>
-      <c r="K37" s="583"/>
-      <c r="L37" s="582" t="s">
+      <c r="I37" s="446"/>
+      <c r="J37" s="446"/>
+      <c r="K37" s="446"/>
+      <c r="L37" s="445" t="s">
         <v>145</v>
       </c>
-      <c r="M37" s="584"/>
+      <c r="M37" s="447"/>
       <c r="S37" s="122"/>
     </row>
     <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="518" t="s">
+      <c r="B38" s="501" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="662"/>
+      <c r="C38" s="599"/>
       <c r="D38" s="233">
         <f>'Acqusition-NF'!D83</f>
         <v>0</v>
@@ -11418,18 +11462,18 @@
         <v>0</v>
       </c>
       <c r="G38" s="120"/>
-      <c r="H38" s="652"/>
-      <c r="I38" s="663"/>
-      <c r="J38" s="663"/>
-      <c r="K38" s="664"/>
-      <c r="L38" s="652"/>
-      <c r="M38" s="653"/>
+      <c r="H38" s="600"/>
+      <c r="I38" s="601"/>
+      <c r="J38" s="601"/>
+      <c r="K38" s="602"/>
+      <c r="L38" s="600"/>
+      <c r="M38" s="610"/>
     </row>
     <row r="39" spans="2:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="514" t="s">
+      <c r="B39" s="497" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="656"/>
+      <c r="C39" s="603"/>
       <c r="D39" s="237" t="e">
         <f>'Acqusition-NF'!D84</f>
         <v>#DIV/0!</v>
@@ -11440,18 +11484,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G39" s="119"/>
-      <c r="H39" s="639"/>
-      <c r="I39" s="643"/>
-      <c r="J39" s="643"/>
-      <c r="K39" s="644"/>
-      <c r="L39" s="639"/>
-      <c r="M39" s="640"/>
+      <c r="H39" s="591"/>
+      <c r="I39" s="592"/>
+      <c r="J39" s="592"/>
+      <c r="K39" s="593"/>
+      <c r="L39" s="591"/>
+      <c r="M39" s="607"/>
     </row>
     <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="514" t="s">
+      <c r="B40" s="497" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="656"/>
+      <c r="C40" s="603"/>
       <c r="D40" s="239" t="e">
         <f>'Acqusition-NF'!D85</f>
         <v>#DIV/0!</v>
@@ -11464,18 +11508,18 @@
       <c r="G40" s="107">
         <v>1</v>
       </c>
-      <c r="H40" s="639"/>
-      <c r="I40" s="643"/>
-      <c r="J40" s="643"/>
-      <c r="K40" s="644"/>
-      <c r="L40" s="639"/>
-      <c r="M40" s="640"/>
+      <c r="H40" s="591"/>
+      <c r="I40" s="592"/>
+      <c r="J40" s="592"/>
+      <c r="K40" s="593"/>
+      <c r="L40" s="591"/>
+      <c r="M40" s="607"/>
     </row>
     <row r="41" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="514" t="s">
+      <c r="B41" s="497" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="656"/>
+      <c r="C41" s="603"/>
       <c r="D41" s="237" t="e">
         <f>'Acqusition-NF'!D86</f>
         <v>#DIV/0!</v>
@@ -11488,18 +11532,18 @@
       <c r="G41" s="107">
         <v>2</v>
       </c>
-      <c r="H41" s="639"/>
-      <c r="I41" s="643"/>
-      <c r="J41" s="643"/>
-      <c r="K41" s="644"/>
-      <c r="L41" s="639"/>
-      <c r="M41" s="640"/>
+      <c r="H41" s="591"/>
+      <c r="I41" s="592"/>
+      <c r="J41" s="592"/>
+      <c r="K41" s="593"/>
+      <c r="L41" s="591"/>
+      <c r="M41" s="607"/>
     </row>
     <row r="42" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="514" t="s">
+      <c r="B42" s="497" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="656"/>
+      <c r="C42" s="603"/>
       <c r="D42" s="233">
         <f>'Acqusition-NF'!D87</f>
         <v>0</v>
@@ -11515,18 +11559,18 @@
       <c r="G42" s="115">
         <v>0.03</v>
       </c>
-      <c r="H42" s="639"/>
-      <c r="I42" s="643"/>
-      <c r="J42" s="643"/>
-      <c r="K42" s="644"/>
-      <c r="L42" s="639"/>
-      <c r="M42" s="640"/>
+      <c r="H42" s="591"/>
+      <c r="I42" s="592"/>
+      <c r="J42" s="592"/>
+      <c r="K42" s="593"/>
+      <c r="L42" s="591"/>
+      <c r="M42" s="607"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B43" s="514" t="s">
+      <c r="B43" s="497" t="s">
         <v>172</v>
       </c>
-      <c r="C43" s="656"/>
+      <c r="C43" s="603"/>
       <c r="D43" s="233">
         <f>'Acqusition-NF'!D88</f>
         <v>0</v>
@@ -11537,18 +11581,18 @@
         <v>0</v>
       </c>
       <c r="G43" s="107"/>
-      <c r="H43" s="639"/>
-      <c r="I43" s="643"/>
-      <c r="J43" s="643"/>
-      <c r="K43" s="644"/>
-      <c r="L43" s="639"/>
-      <c r="M43" s="640"/>
+      <c r="H43" s="591"/>
+      <c r="I43" s="592"/>
+      <c r="J43" s="592"/>
+      <c r="K43" s="593"/>
+      <c r="L43" s="591"/>
+      <c r="M43" s="607"/>
     </row>
     <row r="44" spans="2:19" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="512" t="s">
+      <c r="B44" s="495" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="513"/>
+      <c r="C44" s="496"/>
       <c r="D44" s="232" t="e">
         <f>'Acqusition-NF'!D89</f>
         <v>#DIV/0!</v>
@@ -11559,12 +11603,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G44" s="107"/>
-      <c r="H44" s="641"/>
-      <c r="I44" s="645"/>
-      <c r="J44" s="645"/>
-      <c r="K44" s="646"/>
-      <c r="L44" s="641"/>
-      <c r="M44" s="642"/>
+      <c r="H44" s="613"/>
+      <c r="I44" s="615"/>
+      <c r="J44" s="615"/>
+      <c r="K44" s="616"/>
+      <c r="L44" s="613"/>
+      <c r="M44" s="614"/>
       <c r="S44" s="106" t="s">
         <v>63</v>
       </c>
@@ -11580,33 +11624,59 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="104">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="J5:J10"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="E9:I10"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K22:L22"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="K18:L18"/>
@@ -11631,59 +11701,33 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="K23:L23"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="E9:I10"/>
-    <mergeCell ref="J5:J10"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
   </mergeCells>
   <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="42" priority="40" stopIfTrue="1" operator="between">
@@ -11893,55 +11937,55 @@
   <sheetData>
     <row r="1" spans="3:20" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="3:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="758" t="s">
+      <c r="C2" s="672" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="759"/>
-      <c r="E2" s="759"/>
-      <c r="F2" s="759"/>
-      <c r="G2" s="759"/>
-      <c r="H2" s="759"/>
-      <c r="I2" s="759"/>
-      <c r="J2" s="759"/>
-      <c r="K2" s="759"/>
-      <c r="L2" s="759"/>
-      <c r="M2" s="759"/>
-      <c r="N2" s="759"/>
-      <c r="O2" s="760"/>
+      <c r="D2" s="673"/>
+      <c r="E2" s="673"/>
+      <c r="F2" s="673"/>
+      <c r="G2" s="673"/>
+      <c r="H2" s="673"/>
+      <c r="I2" s="673"/>
+      <c r="J2" s="673"/>
+      <c r="K2" s="673"/>
+      <c r="L2" s="673"/>
+      <c r="M2" s="673"/>
+      <c r="N2" s="673"/>
+      <c r="O2" s="674"/>
     </row>
     <row r="3" spans="3:20" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="C3" s="761" t="s">
+      <c r="C3" s="675" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="762"/>
-      <c r="E3" s="762"/>
-      <c r="F3" s="762"/>
-      <c r="G3" s="762"/>
-      <c r="H3" s="762"/>
-      <c r="I3" s="762"/>
-      <c r="J3" s="762"/>
-      <c r="K3" s="762"/>
-      <c r="L3" s="762"/>
-      <c r="M3" s="762"/>
-      <c r="N3" s="762"/>
-      <c r="O3" s="763"/>
+      <c r="D3" s="676"/>
+      <c r="E3" s="676"/>
+      <c r="F3" s="676"/>
+      <c r="G3" s="676"/>
+      <c r="H3" s="676"/>
+      <c r="I3" s="676"/>
+      <c r="J3" s="676"/>
+      <c r="K3" s="676"/>
+      <c r="L3" s="676"/>
+      <c r="M3" s="676"/>
+      <c r="N3" s="676"/>
+      <c r="O3" s="677"/>
     </row>
     <row r="4" spans="3:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="764" t="s">
+      <c r="C4" s="681" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="765"/>
-      <c r="E4" s="765"/>
-      <c r="F4" s="765"/>
-      <c r="G4" s="765"/>
-      <c r="H4" s="765"/>
-      <c r="I4" s="765"/>
-      <c r="J4" s="765"/>
-      <c r="K4" s="765"/>
-      <c r="L4" s="765"/>
-      <c r="M4" s="765"/>
-      <c r="N4" s="765"/>
-      <c r="O4" s="766"/>
+      <c r="D4" s="682"/>
+      <c r="E4" s="682"/>
+      <c r="F4" s="682"/>
+      <c r="G4" s="682"/>
+      <c r="H4" s="682"/>
+      <c r="I4" s="682"/>
+      <c r="J4" s="682"/>
+      <c r="K4" s="682"/>
+      <c r="L4" s="682"/>
+      <c r="M4" s="682"/>
+      <c r="N4" s="682"/>
+      <c r="O4" s="683"/>
     </row>
     <row r="5" spans="3:20" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C5" s="32"/>
@@ -11959,85 +12003,85 @@
       <c r="O5" s="35"/>
     </row>
     <row r="6" spans="3:20" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="749" t="s">
+      <c r="C6" s="705" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="750"/>
-      <c r="E6" s="750"/>
-      <c r="F6" s="750"/>
-      <c r="G6" s="750"/>
-      <c r="H6" s="750"/>
-      <c r="I6" s="751"/>
-      <c r="J6" s="751"/>
-      <c r="K6" s="751"/>
-      <c r="L6" s="751"/>
-      <c r="M6" s="751"/>
-      <c r="N6" s="751"/>
-      <c r="O6" s="752"/>
-      <c r="R6" s="769" t="s">
+      <c r="D6" s="706"/>
+      <c r="E6" s="706"/>
+      <c r="F6" s="706"/>
+      <c r="G6" s="706"/>
+      <c r="H6" s="706"/>
+      <c r="I6" s="707"/>
+      <c r="J6" s="707"/>
+      <c r="K6" s="707"/>
+      <c r="L6" s="707"/>
+      <c r="M6" s="707"/>
+      <c r="N6" s="707"/>
+      <c r="O6" s="708"/>
+      <c r="R6" s="686" t="s">
         <v>187</v>
       </c>
-      <c r="S6" s="770"/>
-      <c r="T6" s="771"/>
+      <c r="S6" s="687"/>
+      <c r="T6" s="688"/>
     </row>
     <row r="7" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="753" t="s">
+      <c r="C7" s="709" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="754"/>
-      <c r="E7" s="755">
+      <c r="D7" s="710"/>
+      <c r="E7" s="711">
         <f>'Acqusition-NF'!C50</f>
         <v>0</v>
       </c>
-      <c r="F7" s="756"/>
-      <c r="G7" s="756"/>
-      <c r="H7" s="757"/>
+      <c r="F7" s="712"/>
+      <c r="G7" s="712"/>
+      <c r="H7" s="713"/>
       <c r="I7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="744">
+      <c r="J7" s="700">
         <f>'Acqusition-NF'!F49</f>
         <v>0</v>
       </c>
-      <c r="K7" s="745"/>
+      <c r="K7" s="701"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
       <c r="O7" s="29"/>
-      <c r="R7" s="772" t="s">
+      <c r="R7" s="689" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="773"/>
+      <c r="S7" s="690"/>
       <c r="T7" s="85"/>
     </row>
     <row r="8" spans="3:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="705" t="s">
+      <c r="C8" s="726" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="706"/>
-      <c r="E8" s="706"/>
-      <c r="F8" s="706"/>
-      <c r="G8" s="707"/>
-      <c r="H8" s="706"/>
-      <c r="I8" s="706"/>
-      <c r="J8" s="706"/>
-      <c r="K8" s="706"/>
-      <c r="L8" s="706"/>
-      <c r="M8" s="706"/>
-      <c r="N8" s="706"/>
-      <c r="O8" s="730"/>
-      <c r="R8" s="774" t="s">
+      <c r="D8" s="727"/>
+      <c r="E8" s="727"/>
+      <c r="F8" s="727"/>
+      <c r="G8" s="728"/>
+      <c r="H8" s="727"/>
+      <c r="I8" s="727"/>
+      <c r="J8" s="727"/>
+      <c r="K8" s="727"/>
+      <c r="L8" s="727"/>
+      <c r="M8" s="727"/>
+      <c r="N8" s="727"/>
+      <c r="O8" s="729"/>
+      <c r="R8" s="691" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="775"/>
+      <c r="S8" s="692"/>
       <c r="T8" s="87"/>
     </row>
     <row r="9" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="737" t="s">
+      <c r="C9" s="678" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="738"/>
-      <c r="E9" s="739"/>
+      <c r="D9" s="679"/>
+      <c r="E9" s="680"/>
       <c r="F9" s="383" t="s">
         <v>31</v>
       </c>
@@ -12068,10 +12112,10 @@
       <c r="O9" s="30">
         <v>0.03</v>
       </c>
-      <c r="R9" s="776" t="s">
+      <c r="R9" s="693" t="s">
         <v>53</v>
       </c>
-      <c r="S9" s="777"/>
+      <c r="S9" s="694"/>
       <c r="T9" s="88"/>
     </row>
     <row r="10" spans="3:20" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -12108,21 +12152,21 @@
       <c r="O10" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="R10" s="778" t="s">
+      <c r="R10" s="695" t="s">
         <v>48</v>
       </c>
-      <c r="S10" s="779"/>
+      <c r="S10" s="696"/>
       <c r="T10" s="342" t="e">
         <f>T8/T9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="3:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="718" t="s">
+      <c r="C11" s="714" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="719"/>
-      <c r="E11" s="720"/>
+      <c r="D11" s="715"/>
+      <c r="E11" s="716"/>
       <c r="F11" s="373">
         <f>'Year 1 Projection - NF'!I5</f>
         <v>0</v>
@@ -12163,18 +12207,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R11" s="782" t="s">
+      <c r="R11" s="697" t="s">
         <v>47</v>
       </c>
-      <c r="S11" s="783"/>
-      <c r="T11" s="784"/>
+      <c r="S11" s="698"/>
+      <c r="T11" s="699"/>
     </row>
     <row r="12" spans="3:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="734" t="s">
+      <c r="C12" s="733" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="735"/>
-      <c r="E12" s="736"/>
+      <c r="D12" s="734"/>
+      <c r="E12" s="735"/>
       <c r="F12" s="376">
         <f>'Year 1 Projection - NF'!I7</f>
         <v>0</v>
@@ -12198,11 +12242,11 @@
       </c>
     </row>
     <row r="13" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="741" t="s">
+      <c r="C13" s="737" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="742"/>
-      <c r="E13" s="743"/>
+      <c r="D13" s="738"/>
+      <c r="E13" s="739"/>
       <c r="F13" s="308" t="e">
         <f>F12/F11</f>
         <v>#DIV/0!</v>
@@ -12255,11 +12299,11 @@
       </c>
     </row>
     <row r="14" spans="3:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="734" t="s">
+      <c r="C14" s="733" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="735"/>
-      <c r="E14" s="736"/>
+      <c r="D14" s="734"/>
+      <c r="E14" s="735"/>
       <c r="F14" s="318">
         <f>F11-F12</f>
         <v>0</v>
@@ -12310,11 +12354,11 @@
       </c>
     </row>
     <row r="15" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="746" t="s">
+      <c r="C15" s="702" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="747"/>
-      <c r="E15" s="748"/>
+      <c r="D15" s="703"/>
+      <c r="E15" s="704"/>
       <c r="F15" s="317">
         <f>'Year 1 Projection - NF'!C14</f>
         <v>0</v>
@@ -12353,11 +12397,11 @@
       <c r="T15" s="315"/>
     </row>
     <row r="16" spans="3:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="740" t="s">
+      <c r="C16" s="736" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="732"/>
-      <c r="E16" s="733"/>
+      <c r="D16" s="731"/>
+      <c r="E16" s="732"/>
       <c r="F16" s="38">
         <f>'Year 1 Projection - NF'!F14</f>
         <v>0</v>
@@ -12408,11 +12452,11 @@
       </c>
     </row>
     <row r="17" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="672" t="s">
+      <c r="C17" s="770" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="673"/>
-      <c r="E17" s="674"/>
+      <c r="D17" s="771"/>
+      <c r="E17" s="772"/>
       <c r="F17" s="317" t="s">
         <v>31</v>
       </c>
@@ -12453,11 +12497,11 @@
       </c>
     </row>
     <row r="18" spans="3:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="721" t="s">
+      <c r="C18" s="717" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="722"/>
-      <c r="E18" s="723"/>
+      <c r="D18" s="718"/>
+      <c r="E18" s="719"/>
       <c r="F18" s="309">
         <f>'Year 1 Projection - NF'!F15</f>
         <v>0</v>
@@ -12508,11 +12552,11 @@
       </c>
     </row>
     <row r="19" spans="3:20" ht="13.9" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="724" t="s">
+      <c r="C19" s="720" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="725"/>
-      <c r="E19" s="726"/>
+      <c r="D19" s="721"/>
+      <c r="E19" s="722"/>
       <c r="F19" s="43">
         <f>'Year 1 Projection - NF'!F16</f>
         <v>0</v>
@@ -12563,11 +12607,11 @@
       </c>
     </row>
     <row r="20" spans="3:20" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="C20" s="731" t="s">
+      <c r="C20" s="730" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="732"/>
-      <c r="E20" s="733"/>
+      <c r="D20" s="731"/>
+      <c r="E20" s="732"/>
       <c r="F20" s="38">
         <f>'Year 1 Projection - NF'!F17</f>
         <v>0</v>
@@ -12591,11 +12635,11 @@
       </c>
     </row>
     <row r="21" spans="3:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="727" t="s">
+      <c r="C21" s="723" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="728"/>
-      <c r="E21" s="729"/>
+      <c r="D21" s="724"/>
+      <c r="E21" s="725"/>
       <c r="F21" s="384">
         <f>'Year 1 Projection - NF'!F18</f>
         <v>0</v>
@@ -12619,11 +12663,11 @@
       </c>
     </row>
     <row r="22" spans="3:20" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="702" t="s">
+      <c r="C22" s="751" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="703"/>
-      <c r="E22" s="704"/>
+      <c r="D22" s="752"/>
+      <c r="E22" s="753"/>
       <c r="F22" s="385">
         <f>SUM(F19:F21)</f>
         <v>0</v>
@@ -12664,43 +12708,43 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R22" s="789" t="s">
+      <c r="R22" s="669" t="s">
         <v>57</v>
       </c>
-      <c r="S22" s="790"/>
-      <c r="T22" s="791"/>
+      <c r="S22" s="670"/>
+      <c r="T22" s="671"/>
     </row>
     <row r="23" spans="3:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="705" t="s">
+      <c r="C23" s="726" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="706"/>
-      <c r="E23" s="706"/>
-      <c r="F23" s="707"/>
-      <c r="G23" s="707"/>
-      <c r="H23" s="707"/>
-      <c r="I23" s="707"/>
-      <c r="J23" s="707"/>
-      <c r="K23" s="707"/>
-      <c r="L23" s="707"/>
-      <c r="M23" s="707"/>
-      <c r="N23" s="707"/>
-      <c r="O23" s="708"/>
-      <c r="R23" s="767" t="s">
+      <c r="D23" s="727"/>
+      <c r="E23" s="727"/>
+      <c r="F23" s="728"/>
+      <c r="G23" s="728"/>
+      <c r="H23" s="728"/>
+      <c r="I23" s="728"/>
+      <c r="J23" s="728"/>
+      <c r="K23" s="728"/>
+      <c r="L23" s="728"/>
+      <c r="M23" s="728"/>
+      <c r="N23" s="728"/>
+      <c r="O23" s="787"/>
+      <c r="R23" s="684" t="s">
         <v>58</v>
       </c>
-      <c r="S23" s="768"/>
+      <c r="S23" s="685"/>
       <c r="T23" s="98">
         <f>T7</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="737" t="s">
+      <c r="C24" s="678" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="738"/>
-      <c r="E24" s="739"/>
+      <c r="D24" s="679"/>
+      <c r="E24" s="680"/>
       <c r="F24" s="16" t="s">
         <v>31</v>
       </c>
@@ -12731,21 +12775,21 @@
       <c r="O24" s="30">
         <v>0.02</v>
       </c>
-      <c r="R24" s="785" t="s">
+      <c r="R24" s="790" t="s">
         <v>61</v>
       </c>
-      <c r="S24" s="786"/>
+      <c r="S24" s="791"/>
       <c r="T24" s="99">
         <f>F43</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:20" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="C25" s="693" t="s">
+      <c r="C25" s="742" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="694"/>
-      <c r="E25" s="695"/>
+      <c r="D25" s="743"/>
+      <c r="E25" s="744"/>
       <c r="F25" s="311">
         <f>'Year 1 Projection - NF'!F22</f>
         <v>0</v>
@@ -12766,11 +12810,11 @@
       <c r="T25" s="351"/>
     </row>
     <row r="26" spans="3:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="696" t="s">
+      <c r="C26" s="745" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="697"/>
-      <c r="E26" s="712"/>
+      <c r="D26" s="746"/>
+      <c r="E26" s="757"/>
       <c r="F26" s="312">
         <f>'Year 1 Projection - NF'!F23</f>
         <v>0</v>
@@ -12811,21 +12855,21 @@
         <f>N26+O24*N26</f>
         <v>0</v>
       </c>
-      <c r="R26" s="785" t="s">
+      <c r="R26" s="790" t="s">
         <v>152</v>
       </c>
-      <c r="S26" s="786"/>
+      <c r="S26" s="791"/>
       <c r="T26" s="99" t="e">
         <f>T21</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="3:20" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="C27" s="696" t="s">
+      <c r="C27" s="745" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="697"/>
-      <c r="E27" s="712"/>
+      <c r="D27" s="746"/>
+      <c r="E27" s="757"/>
       <c r="F27" s="312">
         <f>'Year 1 Projection - NF'!F24</f>
         <v>0</v>
@@ -12866,21 +12910,21 @@
         <f>N27+N27*O24</f>
         <v>0</v>
       </c>
-      <c r="R27" s="787" t="s">
+      <c r="R27" s="667" t="s">
         <v>59</v>
       </c>
-      <c r="S27" s="788"/>
+      <c r="S27" s="668"/>
       <c r="T27" s="100" t="e">
         <f>(T25+T26)/T24</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C28" s="709" t="s">
+      <c r="C28" s="754" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="710"/>
-      <c r="E28" s="711"/>
+      <c r="D28" s="755"/>
+      <c r="E28" s="756"/>
       <c r="F28" s="312">
         <f>'Year 1 Projection - NF'!F25</f>
         <v>0</v>
@@ -12921,10 +12965,10 @@
         <f>N28+N28*O24</f>
         <v>0</v>
       </c>
-      <c r="R28" s="670" t="s">
+      <c r="R28" s="768" t="s">
         <v>60</v>
       </c>
-      <c r="S28" s="671"/>
+      <c r="S28" s="769"/>
       <c r="T28" s="341" t="e">
         <f>T27/T23</f>
         <v>#DIV/0!</v>
@@ -12981,11 +13025,11 @@
       </c>
     </row>
     <row r="30" spans="3:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="696" t="s">
+      <c r="C30" s="745" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="697"/>
-      <c r="E30" s="698"/>
+      <c r="D30" s="746"/>
+      <c r="E30" s="747"/>
       <c r="F30" s="312">
         <f>'Year 1 Projection - NF'!F27</f>
         <v>0</v>
@@ -13026,18 +13070,18 @@
         <f>N30+N30*O24</f>
         <v>0</v>
       </c>
-      <c r="R30" s="675" t="s">
+      <c r="R30" s="773" t="s">
         <v>190</v>
       </c>
-      <c r="S30" s="676"/>
-      <c r="T30" s="677"/>
+      <c r="S30" s="774"/>
+      <c r="T30" s="775"/>
     </row>
     <row r="31" spans="3:20" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="C31" s="696" t="s">
+      <c r="C31" s="745" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="697"/>
-      <c r="E31" s="712"/>
+      <c r="D31" s="746"/>
+      <c r="E31" s="757"/>
       <c r="F31" s="312">
         <f>'Year 1 Projection - NF'!F28</f>
         <v>0</v>
@@ -13078,21 +13122,21 @@
         <f>N31 + N31*O24</f>
         <v>0</v>
       </c>
-      <c r="R31" s="678" t="s">
+      <c r="R31" s="776" t="s">
         <v>2</v>
       </c>
-      <c r="S31" s="679"/>
+      <c r="S31" s="777"/>
       <c r="T31" s="350">
         <f>F42+G42+H42</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:20" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="C32" s="696" t="s">
+      <c r="C32" s="745" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="697"/>
-      <c r="E32" s="712"/>
+      <c r="D32" s="746"/>
+      <c r="E32" s="757"/>
       <c r="F32" s="312">
         <f>'Year 1 Projection - NF'!F29</f>
         <v>0</v>
@@ -13133,21 +13177,21 @@
         <f>N32 + N32*O24</f>
         <v>0</v>
       </c>
-      <c r="R32" s="683" t="s">
+      <c r="R32" s="779" t="s">
         <v>4</v>
       </c>
-      <c r="S32" s="684"/>
+      <c r="S32" s="780"/>
       <c r="T32" s="349">
         <f>T31+I42+J42</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="699" t="s">
+      <c r="C33" s="748" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="700"/>
-      <c r="E33" s="701"/>
+      <c r="D33" s="749"/>
+      <c r="E33" s="750"/>
       <c r="F33" s="314">
         <f>'Year 1 Projection - NF'!F30</f>
         <v>0</v>
@@ -13188,21 +13232,21 @@
         <f>N33 +N33*O24</f>
         <v>0</v>
       </c>
-      <c r="R33" s="685" t="s">
+      <c r="R33" s="781" t="s">
         <v>54</v>
       </c>
-      <c r="S33" s="686"/>
+      <c r="S33" s="782"/>
       <c r="T33" s="349">
         <f>T32+K42+L42</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C34" s="702" t="s">
+      <c r="C34" s="751" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="703"/>
-      <c r="E34" s="704"/>
+      <c r="D34" s="752"/>
+      <c r="E34" s="753"/>
       <c r="F34" s="9">
         <f>SUM(F25:F33)</f>
         <v>0</v>
@@ -13243,21 +13287,21 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R34" s="687" t="s">
+      <c r="R34" s="783" t="s">
         <v>46</v>
       </c>
-      <c r="S34" s="688"/>
+      <c r="S34" s="784"/>
       <c r="T34" s="348">
         <f>T33+M42+N42+O42</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C35" s="702" t="s">
+      <c r="C35" s="751" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="703"/>
-      <c r="E35" s="704"/>
+      <c r="D35" s="752"/>
+      <c r="E35" s="753"/>
       <c r="F35" s="9">
         <f>F22-F34</f>
         <v>0</v>
@@ -13300,11 +13344,11 @@
       </c>
     </row>
     <row r="36" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C36" s="715" t="s">
+      <c r="C36" s="760" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="716"/>
-      <c r="E36" s="682"/>
+      <c r="D36" s="761"/>
+      <c r="E36" s="762"/>
       <c r="F36" s="15">
         <f>'Year 1 Projection - NF'!F34</f>
         <v>0</v>
@@ -13345,17 +13389,17 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R36" s="780" t="s">
+      <c r="R36" s="788" t="s">
         <v>151</v>
       </c>
-      <c r="S36" s="781"/>
+      <c r="S36" s="789"/>
     </row>
     <row r="37" spans="3:20" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="C37" s="680" t="s">
+      <c r="C37" s="763" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="716"/>
-      <c r="E37" s="682"/>
+      <c r="D37" s="761"/>
+      <c r="E37" s="762"/>
       <c r="F37" s="13">
         <f>'Year 1 Projection - NF'!F35</f>
         <v>0</v>
@@ -13405,11 +13449,11 @@
       </c>
     </row>
     <row r="38" spans="3:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="680" t="s">
+      <c r="C38" s="763" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="717"/>
-      <c r="E38" s="717"/>
+      <c r="D38" s="764"/>
+      <c r="E38" s="764"/>
       <c r="F38" s="15">
         <f>'Year 1 Projection - NF'!M19</f>
         <v>0</v>
@@ -13432,11 +13476,11 @@
       </c>
     </row>
     <row r="39" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C39" s="713" t="s">
+      <c r="C39" s="758" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="714"/>
-      <c r="E39" s="714"/>
+      <c r="D39" s="759"/>
+      <c r="E39" s="759"/>
       <c r="F39" s="9">
         <f>SUM(F37-F38)</f>
         <v>0</v>
@@ -13542,10 +13586,10 @@
       </c>
     </row>
     <row r="41" spans="3:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C41" s="689" t="s">
+      <c r="C41" s="785" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="690"/>
+      <c r="D41" s="786"/>
       <c r="E41" s="320">
         <v>0.3</v>
       </c>
@@ -13595,11 +13639,11 @@
       <c r="S41" s="358"/>
     </row>
     <row r="42" spans="3:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C42" s="680" t="s">
+      <c r="C42" s="763" t="s">
         <v>161</v>
       </c>
-      <c r="D42" s="681"/>
-      <c r="E42" s="682"/>
+      <c r="D42" s="778"/>
+      <c r="E42" s="762"/>
       <c r="F42" s="12">
         <f>SUM(F39-F40-F41)</f>
         <v>0</v>
@@ -13650,11 +13694,11 @@
       </c>
     </row>
     <row r="43" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="667" t="s">
+      <c r="C43" s="765" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="668"/>
-      <c r="E43" s="669"/>
+      <c r="D43" s="766"/>
+      <c r="E43" s="767"/>
       <c r="F43" s="322">
         <f>'Acqusition-NF'!M74</f>
         <v>0</v>
@@ -13677,11 +13721,11 @@
       </c>
     </row>
     <row r="44" spans="3:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C44" s="691" t="s">
+      <c r="C44" s="740" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="692"/>
-      <c r="E44" s="692"/>
+      <c r="D44" s="741"/>
+      <c r="E44" s="741"/>
       <c r="F44" s="44" t="e">
         <f>SUM(F42/F43)</f>
         <v>#DIV/0!</v>
@@ -13843,6 +13887,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="R22:T22"/>
     <mergeCell ref="C2:O2"/>
@@ -13859,49 +13946,6 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C6:O6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C8:O8"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C23:O23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R24:S24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.4" right="0.4" top="0.25" bottom="0.25" header="0" footer="0"/>
@@ -13930,22 +13974,22 @@
   <sheetData>
     <row r="5" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="749" t="s">
+      <c r="B6" s="705" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="750"/>
-      <c r="D6" s="750"/>
-      <c r="E6" s="750"/>
-      <c r="F6" s="750"/>
-      <c r="G6" s="750"/>
-      <c r="H6" s="750"/>
-      <c r="I6" s="750"/>
-      <c r="J6" s="750"/>
-      <c r="K6" s="750"/>
-      <c r="L6" s="750"/>
-      <c r="M6" s="750"/>
-      <c r="N6" s="750"/>
-      <c r="O6" s="804"/>
+      <c r="C6" s="706"/>
+      <c r="D6" s="706"/>
+      <c r="E6" s="706"/>
+      <c r="F6" s="706"/>
+      <c r="G6" s="706"/>
+      <c r="H6" s="706"/>
+      <c r="I6" s="706"/>
+      <c r="J6" s="706"/>
+      <c r="K6" s="706"/>
+      <c r="L6" s="706"/>
+      <c r="M6" s="706"/>
+      <c r="N6" s="706"/>
+      <c r="O6" s="796"/>
     </row>
     <row r="7" spans="2:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="344" t="s">
@@ -13955,17 +13999,17 @@
         <f>'10 year Proforma'!F43</f>
         <v>0</v>
       </c>
-      <c r="D7" s="805"/>
-      <c r="E7" s="806"/>
-      <c r="F7" s="806"/>
-      <c r="G7" s="806"/>
-      <c r="H7" s="806"/>
-      <c r="I7" s="806"/>
-      <c r="J7" s="806"/>
-      <c r="K7" s="806"/>
-      <c r="L7" s="806"/>
-      <c r="M7" s="806"/>
-      <c r="N7" s="806"/>
+      <c r="D7" s="797"/>
+      <c r="E7" s="798"/>
+      <c r="F7" s="798"/>
+      <c r="G7" s="798"/>
+      <c r="H7" s="798"/>
+      <c r="I7" s="798"/>
+      <c r="J7" s="798"/>
+      <c r="K7" s="798"/>
+      <c r="L7" s="798"/>
+      <c r="M7" s="798"/>
+      <c r="N7" s="798"/>
       <c r="O7" s="321"/>
     </row>
     <row r="8" spans="2:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -14009,10 +14053,10 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="797" t="s">
+      <c r="B9" s="799" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="798"/>
+      <c r="C9" s="800"/>
       <c r="D9" s="300">
         <f>'10 year Proforma'!F42</f>
         <v>0</v>
@@ -14060,10 +14104,10 @@
       <c r="O9" s="297"/>
     </row>
     <row r="10" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="799" t="s">
+      <c r="B10" s="794" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="800"/>
+      <c r="C10" s="801"/>
       <c r="D10" s="302" t="e">
         <f>'10 year Proforma'!F44</f>
         <v>#DIV/0!</v>
@@ -14111,10 +14155,10 @@
       </c>
     </row>
     <row r="11" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="799" t="s">
+      <c r="B11" s="794" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="800"/>
+      <c r="C11" s="801"/>
       <c r="D11" s="304"/>
       <c r="E11" s="286"/>
       <c r="F11" s="286"/>
@@ -14132,10 +14176,10 @@
       <c r="O11" s="298"/>
     </row>
     <row r="12" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="799" t="s">
+      <c r="B12" s="794" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="800"/>
+      <c r="C12" s="801"/>
       <c r="D12" s="304"/>
       <c r="E12" s="286"/>
       <c r="F12" s="286"/>
@@ -14174,10 +14218,10 @@
       </c>
     </row>
     <row r="14" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="801" t="s">
+      <c r="B14" s="805" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="802"/>
+      <c r="C14" s="806"/>
       <c r="D14" s="287"/>
       <c r="E14" s="287"/>
       <c r="F14" s="287"/>
@@ -14196,22 +14240,22 @@
     </row>
     <row r="16" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="794" t="s">
+      <c r="B17" s="802" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="795"/>
-      <c r="D17" s="795"/>
-      <c r="E17" s="795"/>
-      <c r="F17" s="795"/>
-      <c r="G17" s="795"/>
-      <c r="H17" s="795"/>
-      <c r="I17" s="795"/>
-      <c r="J17" s="795"/>
-      <c r="K17" s="795"/>
-      <c r="L17" s="795"/>
-      <c r="M17" s="795"/>
-      <c r="N17" s="795"/>
-      <c r="O17" s="796"/>
+      <c r="C17" s="803"/>
+      <c r="D17" s="803"/>
+      <c r="E17" s="803"/>
+      <c r="F17" s="803"/>
+      <c r="G17" s="803"/>
+      <c r="H17" s="803"/>
+      <c r="I17" s="803"/>
+      <c r="J17" s="803"/>
+      <c r="K17" s="803"/>
+      <c r="L17" s="803"/>
+      <c r="M17" s="803"/>
+      <c r="N17" s="803"/>
+      <c r="O17" s="804"/>
     </row>
     <row r="18" spans="2:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="281"/>
@@ -14252,10 +14296,10 @@
       <c r="O18" s="316"/>
     </row>
     <row r="19" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="797" t="s">
+      <c r="B19" s="799" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="798"/>
+      <c r="C19" s="800"/>
       <c r="D19" s="300">
         <f>'10 year Proforma'!F41</f>
         <v>0</v>
@@ -14303,10 +14347,10 @@
       <c r="O19" s="297"/>
     </row>
     <row r="20" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="799" t="s">
+      <c r="B20" s="794" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="803"/>
+      <c r="C20" s="795"/>
       <c r="D20" s="327">
         <f>'10 year Proforma'!F41</f>
         <v>0</v>
@@ -14354,10 +14398,10 @@
       <c r="O20" s="298"/>
     </row>
     <row r="21" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="799" t="s">
+      <c r="B21" s="794" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="800"/>
+      <c r="C21" s="801"/>
       <c r="D21" s="330" t="e">
         <f>'10 year Proforma'!T20</f>
         <v>#DIV/0!</v>
@@ -14400,6 +14444,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B6:O6"/>
@@ -14408,11 +14457,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14440,21 +14484,21 @@
   <sheetData>
     <row r="1" spans="3:15" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" s="821" t="s">
+      <c r="C2" s="832" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="822"/>
-      <c r="E2" s="822"/>
-      <c r="F2" s="822"/>
-      <c r="G2" s="822"/>
-      <c r="H2" s="822"/>
-      <c r="I2" s="822"/>
-      <c r="J2" s="822"/>
-      <c r="K2" s="822"/>
-      <c r="L2" s="822"/>
-      <c r="M2" s="822"/>
-      <c r="N2" s="822"/>
-      <c r="O2" s="823"/>
+      <c r="D2" s="833"/>
+      <c r="E2" s="833"/>
+      <c r="F2" s="833"/>
+      <c r="G2" s="833"/>
+      <c r="H2" s="833"/>
+      <c r="I2" s="833"/>
+      <c r="J2" s="833"/>
+      <c r="K2" s="833"/>
+      <c r="L2" s="833"/>
+      <c r="M2" s="833"/>
+      <c r="N2" s="833"/>
+      <c r="O2" s="834"/>
     </row>
     <row r="3" spans="3:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="23"/>
@@ -14492,11 +14536,11 @@
       </c>
     </row>
     <row r="4" spans="3:15" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="810" t="s">
+      <c r="C4" s="826" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="811"/>
-      <c r="E4" s="811"/>
+      <c r="D4" s="827"/>
+      <c r="E4" s="827"/>
       <c r="F4" s="49"/>
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
@@ -14509,11 +14553,11 @@
       <c r="O4" s="48"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C5" s="816" t="s">
+      <c r="C5" s="820" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="817"/>
-      <c r="E5" s="817"/>
+      <c r="D5" s="821"/>
+      <c r="E5" s="821"/>
       <c r="F5" s="52">
         <f>'10 year Proforma'!F11</f>
         <v>0</v>
@@ -14556,11 +14600,11 @@
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C6" s="816" t="s">
+      <c r="C6" s="820" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="817"/>
-      <c r="E6" s="817"/>
+      <c r="D6" s="821"/>
+      <c r="E6" s="821"/>
       <c r="F6" s="55">
         <f>'10 year Proforma'!F12</f>
         <v>0</v>
@@ -14603,11 +14647,11 @@
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C7" s="816" t="s">
+      <c r="C7" s="820" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="817"/>
-      <c r="E7" s="817"/>
+      <c r="D7" s="821"/>
+      <c r="E7" s="821"/>
       <c r="F7" s="370">
         <f>'10 year Proforma'!F14</f>
         <v>0</v>
@@ -14650,11 +14694,11 @@
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C8" s="807" t="s">
+      <c r="C8" s="818" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="817"/>
-      <c r="E8" s="817"/>
+      <c r="D8" s="821"/>
+      <c r="E8" s="821"/>
       <c r="F8" s="55">
         <f>'10 year Proforma'!F16</f>
         <v>0</v>
@@ -14697,11 +14741,11 @@
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C9" s="807" t="s">
+      <c r="C9" s="818" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="817"/>
-      <c r="E9" s="817"/>
+      <c r="D9" s="821"/>
+      <c r="E9" s="821"/>
       <c r="F9" s="55">
         <f>'10 year Proforma'!F18</f>
         <v>0</v>
@@ -14744,11 +14788,11 @@
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C10" s="816" t="s">
+      <c r="C10" s="820" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="817"/>
-      <c r="E10" s="817"/>
+      <c r="D10" s="821"/>
+      <c r="E10" s="821"/>
       <c r="F10" s="52">
         <f>'10 year Proforma'!F19</f>
         <v>0</v>
@@ -14791,11 +14835,11 @@
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C11" s="816" t="s">
+      <c r="C11" s="820" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="817"/>
-      <c r="E11" s="817"/>
+      <c r="D11" s="821"/>
+      <c r="E11" s="821"/>
       <c r="F11" s="52">
         <f>'10 year Proforma'!F20</f>
         <v>0</v>
@@ -14838,11 +14882,11 @@
       </c>
     </row>
     <row r="12" spans="3:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="816" t="s">
+      <c r="C12" s="820" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="817"/>
-      <c r="E12" s="817"/>
+      <c r="D12" s="821"/>
+      <c r="E12" s="821"/>
       <c r="F12" s="58">
         <f>'10 year Proforma'!F21</f>
         <v>0</v>
@@ -14900,11 +14944,11 @@
       <c r="O13" s="51"/>
     </row>
     <row r="14" spans="3:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="818" t="s">
+      <c r="C14" s="813" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="819"/>
-      <c r="E14" s="820"/>
+      <c r="D14" s="814"/>
+      <c r="E14" s="815"/>
       <c r="F14" s="77">
         <f>'10 year Proforma'!F22</f>
         <v>0</v>
@@ -14947,11 +14991,11 @@
       </c>
     </row>
     <row r="15" spans="3:15" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="810" t="s">
+      <c r="C15" s="826" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="811"/>
-      <c r="E15" s="812"/>
+      <c r="D15" s="827"/>
+      <c r="E15" s="835"/>
       <c r="F15" s="59"/>
       <c r="G15" s="59"/>
       <c r="H15" s="59"/>
@@ -14964,11 +15008,11 @@
       <c r="O15" s="60"/>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C16" s="813" t="s">
+      <c r="C16" s="816" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="814"/>
-      <c r="E16" s="815"/>
+      <c r="D16" s="817"/>
+      <c r="E16" s="836"/>
       <c r="F16" s="62">
         <f>'10 year Proforma'!F25</f>
         <v>0</v>
@@ -15011,11 +15055,11 @@
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C17" s="807" t="s">
+      <c r="C17" s="818" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="808"/>
-      <c r="E17" s="809"/>
+      <c r="D17" s="819"/>
+      <c r="E17" s="831"/>
       <c r="F17" s="62">
         <f>'10 year Proforma'!F26</f>
         <v>0</v>
@@ -15058,11 +15102,11 @@
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C18" s="807" t="s">
+      <c r="C18" s="818" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="808"/>
-      <c r="E18" s="809"/>
+      <c r="D18" s="819"/>
+      <c r="E18" s="831"/>
       <c r="F18" s="62">
         <f>'10 year Proforma'!F27</f>
         <v>0</v>
@@ -15105,11 +15149,11 @@
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C19" s="807" t="s">
+      <c r="C19" s="818" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="808"/>
-      <c r="E19" s="809"/>
+      <c r="D19" s="819"/>
+      <c r="E19" s="831"/>
       <c r="F19" s="62">
         <f>'10 year Proforma'!F28</f>
         <v>0</v>
@@ -15152,11 +15196,11 @@
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C20" s="807" t="s">
+      <c r="C20" s="818" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="808"/>
-      <c r="E20" s="809"/>
+      <c r="D20" s="819"/>
+      <c r="E20" s="831"/>
       <c r="F20" s="62">
         <f>'10 year Proforma'!F29</f>
         <v>0</v>
@@ -15199,11 +15243,11 @@
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C21" s="807" t="s">
+      <c r="C21" s="818" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="808"/>
-      <c r="E21" s="809"/>
+      <c r="D21" s="819"/>
+      <c r="E21" s="831"/>
       <c r="F21" s="62">
         <f>'10 year Proforma'!F30</f>
         <v>0</v>
@@ -15246,11 +15290,11 @@
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C22" s="807" t="s">
+      <c r="C22" s="818" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="808"/>
-      <c r="E22" s="809"/>
+      <c r="D22" s="819"/>
+      <c r="E22" s="831"/>
       <c r="F22" s="62">
         <f>'10 year Proforma'!F31</f>
         <v>0</v>
@@ -15293,11 +15337,11 @@
       </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C23" s="807" t="s">
+      <c r="C23" s="818" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="808"/>
-      <c r="E23" s="809"/>
+      <c r="D23" s="819"/>
+      <c r="E23" s="831"/>
       <c r="F23" s="62">
         <f>'10 year Proforma'!F32</f>
         <v>0</v>
@@ -15340,11 +15384,11 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="807" t="s">
+      <c r="C24" s="818" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="808"/>
-      <c r="E24" s="809"/>
+      <c r="D24" s="819"/>
+      <c r="E24" s="831"/>
       <c r="F24" s="65">
         <f>'10 year Proforma'!F33</f>
         <v>0</v>
@@ -15402,11 +15446,11 @@
       <c r="O25" s="63"/>
     </row>
     <row r="26" spans="3:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="818" t="s">
+      <c r="C26" s="813" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="819"/>
-      <c r="E26" s="820"/>
+      <c r="D26" s="814"/>
+      <c r="E26" s="815"/>
       <c r="F26" s="71">
         <f>'10 year Proforma'!F34</f>
         <v>0</v>
@@ -15449,26 +15493,26 @@
       </c>
     </row>
     <row r="27" spans="3:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="834"/>
-      <c r="D27" s="835"/>
-      <c r="E27" s="836"/>
-      <c r="F27" s="827"/>
-      <c r="G27" s="828"/>
-      <c r="H27" s="828"/>
-      <c r="I27" s="828"/>
-      <c r="J27" s="829"/>
-      <c r="K27" s="827"/>
-      <c r="L27" s="828"/>
-      <c r="M27" s="828"/>
-      <c r="N27" s="828"/>
-      <c r="O27" s="829"/>
+      <c r="C27" s="823"/>
+      <c r="D27" s="824"/>
+      <c r="E27" s="825"/>
+      <c r="F27" s="807"/>
+      <c r="G27" s="808"/>
+      <c r="H27" s="808"/>
+      <c r="I27" s="808"/>
+      <c r="J27" s="809"/>
+      <c r="K27" s="807"/>
+      <c r="L27" s="808"/>
+      <c r="M27" s="808"/>
+      <c r="N27" s="808"/>
+      <c r="O27" s="809"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C28" s="816" t="s">
+      <c r="C28" s="820" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="817"/>
-      <c r="E28" s="833"/>
+      <c r="D28" s="821"/>
+      <c r="E28" s="822"/>
       <c r="F28" s="62">
         <f>'10 year Proforma'!F35</f>
         <v>0</v>
@@ -15511,11 +15555,11 @@
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C29" s="816" t="s">
+      <c r="C29" s="820" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="817"/>
-      <c r="E29" s="833"/>
+      <c r="D29" s="821"/>
+      <c r="E29" s="822"/>
       <c r="F29" s="53">
         <f>'10 year Proforma'!F36</f>
         <v>0</v>
@@ -15558,11 +15602,11 @@
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C30" s="816" t="s">
+      <c r="C30" s="820" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="817"/>
-      <c r="E30" s="833"/>
+      <c r="D30" s="821"/>
+      <c r="E30" s="822"/>
       <c r="F30" s="50">
         <f>'10 year Proforma'!F37</f>
         <v>0</v>
@@ -15605,11 +15649,11 @@
       </c>
     </row>
     <row r="31" spans="3:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="807" t="s">
+      <c r="C31" s="818" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="808"/>
-      <c r="E31" s="809"/>
+      <c r="D31" s="819"/>
+      <c r="E31" s="831"/>
       <c r="F31" s="68">
         <f>'10 year Proforma'!F38</f>
         <v>0</v>
@@ -15652,11 +15696,11 @@
       </c>
     </row>
     <row r="32" spans="3:15" ht="16.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C32" s="818" t="s">
+      <c r="C32" s="813" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="819"/>
-      <c r="E32" s="820"/>
+      <c r="D32" s="814"/>
+      <c r="E32" s="815"/>
       <c r="F32" s="377">
         <f>'10 year Proforma'!F39</f>
         <v>0</v>
@@ -15699,27 +15743,27 @@
       </c>
     </row>
     <row r="33" spans="3:15" ht="3.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="813" t="str">
+      <c r="C33" s="816" t="str">
         <f>'10 year Proforma'!C40:D40</f>
         <v xml:space="preserve">Asset Management </v>
       </c>
-      <c r="D33" s="814"/>
-      <c r="E33" s="814"/>
-      <c r="F33" s="830"/>
-      <c r="G33" s="831"/>
-      <c r="H33" s="831"/>
-      <c r="I33" s="831"/>
-      <c r="J33" s="831"/>
-      <c r="K33" s="830"/>
-      <c r="L33" s="831"/>
-      <c r="M33" s="831"/>
-      <c r="N33" s="831"/>
-      <c r="O33" s="832"/>
+      <c r="D33" s="817"/>
+      <c r="E33" s="817"/>
+      <c r="F33" s="810"/>
+      <c r="G33" s="811"/>
+      <c r="H33" s="811"/>
+      <c r="I33" s="811"/>
+      <c r="J33" s="811"/>
+      <c r="K33" s="810"/>
+      <c r="L33" s="811"/>
+      <c r="M33" s="811"/>
+      <c r="N33" s="811"/>
+      <c r="O33" s="812"/>
     </row>
     <row r="34" spans="3:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="807"/>
-      <c r="D34" s="808"/>
-      <c r="E34" s="808"/>
+      <c r="C34" s="818"/>
+      <c r="D34" s="819"/>
+      <c r="E34" s="819"/>
       <c r="F34" s="55">
         <f>'10 year Proforma'!F40</f>
         <v>0</v>
@@ -15762,10 +15806,10 @@
       </c>
     </row>
     <row r="35" spans="3:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="689" t="s">
+      <c r="C35" s="785" t="s">
         <v>178</v>
       </c>
-      <c r="D35" s="690"/>
+      <c r="D35" s="786"/>
       <c r="E35" s="391">
         <v>0.3</v>
       </c>
@@ -15811,11 +15855,11 @@
       </c>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C36" s="807" t="s">
+      <c r="C36" s="818" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="817"/>
-      <c r="E36" s="817"/>
+      <c r="D36" s="821"/>
+      <c r="E36" s="821"/>
       <c r="F36" s="52">
         <f>'10 year Proforma'!F42</f>
         <v>0</v>
@@ -15858,11 +15902,11 @@
       </c>
     </row>
     <row r="37" spans="3:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="667" t="s">
+      <c r="C37" s="765" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="668"/>
-      <c r="E37" s="668"/>
+      <c r="D37" s="766"/>
+      <c r="E37" s="766"/>
       <c r="F37" s="398">
         <f>'10 year Proforma'!F43</f>
         <v>0</v>
@@ -15905,11 +15949,11 @@
       </c>
     </row>
     <row r="38" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="824" t="s">
+      <c r="C38" s="828" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="825"/>
-      <c r="E38" s="826"/>
+      <c r="D38" s="829"/>
+      <c r="E38" s="830"/>
       <c r="F38" s="393" t="e">
         <f>'10 year Proforma'!F44</f>
         <v>#DIV/0!</v>
@@ -16144,16 +16188,17 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="K33:O33"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E34"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C2:O2"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C4:E4"/>
@@ -16169,18 +16214,17 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C2:O2"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="K33:O33"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E34"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C29:E29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -16560,4 +16604,49 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A440EE4-E0AE-4073-80F4-2C74DBFC819F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.19921875" style="104" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="104" customWidth="1"/>
+    <col min="3" max="3" width="80.53125" style="104" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="104"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.6">
+      <c r="A1" s="838" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="838"/>
+      <c r="C1" s="838"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="104" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="104" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/src/theme/MultiFamilyPortal.AdminTheme/Documents/underwriting-v2.xlsx
+++ b/src/theme/MultiFamilyPortal.AdminTheme/Documents/underwriting-v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Personal\MultiFamilyPortal\src\theme\MultiFamilyPortal.AdminTheme\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7BFD97-3AFD-4996-B9E9-D63BEA7DF3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEDBB90-FFA2-4525-AB3A-30CA380C253C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="886" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="886" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Disclaimer" sheetId="8" r:id="rId1"/>
@@ -1970,6 +1970,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -2393,6 +2394,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3947,7 +3949,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="91" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="839">
+  <cellXfs count="837">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5032,6 +5034,24 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="171" fontId="28" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="42" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="42" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="42" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="42" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5041,42 +5061,117 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="42" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="42" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="42" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="42" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="7" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="7" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="51" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5087,35 +5182,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="57" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5125,57 +5191,97 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="80" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="7" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="7" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="73" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5184,68 +5290,36 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="73" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1"/>
@@ -5257,6 +5331,12 @@
     <xf numFmtId="6" fontId="14" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5273,8 +5353,77 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="80" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5300,233 +5449,311 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="62" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="59" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="82" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="83" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="12" borderId="84" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="12" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="86" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="73" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="73" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="14" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5543,246 +5770,271 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="73" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="73" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="87" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="81" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="62" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="59" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="82" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="83" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="12" borderId="84" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="12" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="86" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5817,15 +6069,6 @@
     <xf numFmtId="0" fontId="32" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5883,12 +6126,6 @@
     <xf numFmtId="0" fontId="31" fillId="13" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5910,292 +6147,31 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="87" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="81" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6204,23 +6180,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6231,23 +6234,41 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6261,44 +6282,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -7795,26 +7789,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:K36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.8">
-      <c r="A1" s="425" t="s">
+      <c r="A1" s="435" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="425"/>
-      <c r="C1" s="425"/>
-      <c r="D1" s="425"/>
-      <c r="E1" s="425"/>
-      <c r="F1" s="425"/>
-      <c r="G1" s="425"/>
-      <c r="H1" s="425"/>
-      <c r="I1" s="425"/>
-      <c r="J1" s="425"/>
-      <c r="K1" s="425"/>
+      <c r="B1" s="435"/>
+      <c r="C1" s="435"/>
+      <c r="D1" s="435"/>
+      <c r="E1" s="435"/>
+      <c r="F1" s="435"/>
+      <c r="G1" s="435"/>
+      <c r="H1" s="435"/>
+      <c r="I1" s="435"/>
+      <c r="J1" s="435"/>
+      <c r="K1" s="435"/>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="413" t="s">
@@ -7831,17 +7825,17 @@
       <c r="J3" s="414"/>
     </row>
     <row r="4" spans="1:11" ht="52.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="426"/>
-      <c r="B4" s="426"/>
-      <c r="C4" s="426"/>
-      <c r="D4" s="426"/>
-      <c r="E4" s="426"/>
-      <c r="F4" s="426"/>
-      <c r="G4" s="426"/>
-      <c r="H4" s="426"/>
-      <c r="I4" s="426"/>
-      <c r="J4" s="426"/>
-      <c r="K4" s="426"/>
+      <c r="A4" s="436"/>
+      <c r="B4" s="436"/>
+      <c r="C4" s="436"/>
+      <c r="D4" s="436"/>
+      <c r="E4" s="436"/>
+      <c r="F4" s="436"/>
+      <c r="G4" s="436"/>
+      <c r="H4" s="436"/>
+      <c r="I4" s="436"/>
+      <c r="J4" s="436"/>
+      <c r="K4" s="436"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="413" t="s">
@@ -7858,25 +7852,25 @@
       <c r="J5" s="414"/>
     </row>
     <row r="6" spans="1:11" ht="76.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="424"/>
-      <c r="B6" s="424"/>
-      <c r="C6" s="424"/>
-      <c r="D6" s="424"/>
-      <c r="E6" s="424"/>
-      <c r="F6" s="424"/>
-      <c r="G6" s="424"/>
-      <c r="H6" s="424"/>
-      <c r="I6" s="424"/>
-      <c r="J6" s="424"/>
-      <c r="K6" s="424"/>
+      <c r="A6" s="434"/>
+      <c r="B6" s="434"/>
+      <c r="C6" s="434"/>
+      <c r="D6" s="434"/>
+      <c r="E6" s="434"/>
+      <c r="F6" s="434"/>
+      <c r="G6" s="434"/>
+      <c r="H6" s="434"/>
+      <c r="I6" s="434"/>
+      <c r="J6" s="434"/>
+      <c r="K6" s="434"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A7" s="427" t="s">
+      <c r="A7" s="431" t="s">
         <v>216</v>
       </c>
-      <c r="B7" s="427"/>
-      <c r="C7" s="428"/>
-      <c r="D7" s="428"/>
+      <c r="B7" s="431"/>
+      <c r="C7" s="437"/>
+      <c r="D7" s="437"/>
       <c r="E7" s="414"/>
       <c r="F7" s="414"/>
       <c r="G7" s="414"/>
@@ -7900,44 +7894,44 @@
       <c r="J8" s="414"/>
     </row>
     <row r="9" spans="1:11" ht="61.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="424"/>
-      <c r="B9" s="424"/>
-      <c r="C9" s="424"/>
-      <c r="D9" s="424"/>
-      <c r="E9" s="424"/>
-      <c r="F9" s="424"/>
-      <c r="G9" s="424"/>
-      <c r="H9" s="424"/>
-      <c r="I9" s="424"/>
-      <c r="J9" s="424"/>
-      <c r="K9" s="424"/>
+      <c r="A9" s="434"/>
+      <c r="B9" s="434"/>
+      <c r="C9" s="434"/>
+      <c r="D9" s="434"/>
+      <c r="E9" s="434"/>
+      <c r="F9" s="434"/>
+      <c r="G9" s="434"/>
+      <c r="H9" s="434"/>
+      <c r="I9" s="434"/>
+      <c r="J9" s="434"/>
+      <c r="K9" s="434"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A10" s="427" t="s">
+      <c r="A10" s="431" t="s">
         <v>218</v>
       </c>
-      <c r="B10" s="427"/>
-      <c r="C10" s="427"/>
-      <c r="D10" s="427"/>
-      <c r="E10" s="427"/>
-      <c r="F10" s="427"/>
-      <c r="G10" s="429"/>
-      <c r="H10" s="429"/>
-      <c r="I10" s="429"/>
-      <c r="J10" s="429"/>
-      <c r="K10" s="429"/>
+      <c r="B10" s="431"/>
+      <c r="C10" s="431"/>
+      <c r="D10" s="431"/>
+      <c r="E10" s="431"/>
+      <c r="F10" s="431"/>
+      <c r="G10" s="432"/>
+      <c r="H10" s="432"/>
+      <c r="I10" s="432"/>
+      <c r="J10" s="432"/>
+      <c r="K10" s="432"/>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A11" s="427" t="s">
+      <c r="A11" s="431" t="s">
         <v>219</v>
       </c>
-      <c r="B11" s="427"/>
-      <c r="C11" s="427"/>
-      <c r="D11" s="430">
-        <v>0</v>
-      </c>
-      <c r="E11" s="430"/>
-      <c r="F11" s="430"/>
+      <c r="B11" s="431"/>
+      <c r="C11" s="431"/>
+      <c r="D11" s="433">
+        <v>0</v>
+      </c>
+      <c r="E11" s="433"/>
+      <c r="F11" s="433"/>
       <c r="G11" s="415"/>
       <c r="H11" s="415"/>
       <c r="I11" s="415"/>
@@ -7945,34 +7939,34 @@
       <c r="K11" s="415"/>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A12" s="427" t="s">
+      <c r="A12" s="431" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="427"/>
-      <c r="C12" s="427"/>
-      <c r="D12" s="429"/>
-      <c r="E12" s="429"/>
-      <c r="F12" s="429"/>
-      <c r="G12" s="429"/>
-      <c r="H12" s="429"/>
-      <c r="I12" s="429"/>
-      <c r="J12" s="429"/>
-      <c r="K12" s="429"/>
+      <c r="B12" s="431"/>
+      <c r="C12" s="431"/>
+      <c r="D12" s="432"/>
+      <c r="E12" s="432"/>
+      <c r="F12" s="432"/>
+      <c r="G12" s="432"/>
+      <c r="H12" s="432"/>
+      <c r="I12" s="432"/>
+      <c r="J12" s="432"/>
+      <c r="K12" s="432"/>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A13" s="427" t="s">
+      <c r="A13" s="431" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="427"/>
-      <c r="C13" s="427"/>
-      <c r="D13" s="429"/>
-      <c r="E13" s="429"/>
-      <c r="F13" s="429"/>
-      <c r="G13" s="429"/>
-      <c r="H13" s="429"/>
-      <c r="I13" s="429"/>
-      <c r="J13" s="429"/>
-      <c r="K13" s="429"/>
+      <c r="B13" s="431"/>
+      <c r="C13" s="431"/>
+      <c r="D13" s="432"/>
+      <c r="E13" s="432"/>
+      <c r="F13" s="432"/>
+      <c r="G13" s="432"/>
+      <c r="H13" s="432"/>
+      <c r="I13" s="432"/>
+      <c r="J13" s="432"/>
+      <c r="K13" s="432"/>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="414"/>
@@ -7992,128 +7986,128 @@
       </c>
       <c r="B15" s="414"/>
       <c r="C15" s="414"/>
-      <c r="D15" s="429"/>
-      <c r="E15" s="429"/>
-      <c r="F15" s="429"/>
-      <c r="G15" s="429"/>
-      <c r="H15" s="429"/>
-      <c r="I15" s="429"/>
-      <c r="J15" s="429"/>
-      <c r="K15" s="429"/>
+      <c r="D15" s="432"/>
+      <c r="E15" s="432"/>
+      <c r="F15" s="432"/>
+      <c r="G15" s="432"/>
+      <c r="H15" s="432"/>
+      <c r="I15" s="432"/>
+      <c r="J15" s="432"/>
+      <c r="K15" s="432"/>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A16" s="431" t="s">
+      <c r="A16" s="426" t="s">
         <v>223</v>
       </c>
-      <c r="B16" s="431"/>
-      <c r="C16" s="431"/>
-      <c r="D16" s="431"/>
+      <c r="B16" s="426"/>
+      <c r="C16" s="426"/>
+      <c r="D16" s="426"/>
       <c r="E16" s="416" t="s">
         <v>224</v>
       </c>
       <c r="F16" s="416" t="s">
         <v>225</v>
       </c>
-      <c r="G16" s="431" t="s">
+      <c r="G16" s="426" t="s">
         <v>226</v>
       </c>
-      <c r="H16" s="431"/>
-      <c r="I16" s="431" t="s">
+      <c r="H16" s="426"/>
+      <c r="I16" s="426" t="s">
         <v>227</v>
       </c>
-      <c r="J16" s="431"/>
-      <c r="K16" s="431"/>
+      <c r="J16" s="426"/>
+      <c r="K16" s="426"/>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A17" s="431"/>
-      <c r="B17" s="431"/>
-      <c r="C17" s="431"/>
-      <c r="D17" s="431"/>
+      <c r="A17" s="426"/>
+      <c r="B17" s="426"/>
+      <c r="C17" s="426"/>
+      <c r="D17" s="426"/>
       <c r="E17" s="414"/>
       <c r="F17" s="414"/>
-      <c r="G17" s="432"/>
-      <c r="H17" s="432"/>
-      <c r="I17" s="433"/>
-      <c r="J17" s="433"/>
-      <c r="K17" s="433"/>
+      <c r="G17" s="427"/>
+      <c r="H17" s="427"/>
+      <c r="I17" s="428"/>
+      <c r="J17" s="428"/>
+      <c r="K17" s="428"/>
     </row>
     <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A18" s="431"/>
-      <c r="B18" s="431"/>
-      <c r="C18" s="431"/>
-      <c r="D18" s="431"/>
+      <c r="A18" s="426"/>
+      <c r="B18" s="426"/>
+      <c r="C18" s="426"/>
+      <c r="D18" s="426"/>
       <c r="E18" s="414"/>
       <c r="F18" s="414"/>
-      <c r="G18" s="432"/>
-      <c r="H18" s="432"/>
-      <c r="I18" s="433"/>
-      <c r="J18" s="433"/>
-      <c r="K18" s="433"/>
+      <c r="G18" s="427"/>
+      <c r="H18" s="427"/>
+      <c r="I18" s="428"/>
+      <c r="J18" s="428"/>
+      <c r="K18" s="428"/>
     </row>
     <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A19" s="431"/>
-      <c r="B19" s="431"/>
-      <c r="C19" s="431"/>
-      <c r="D19" s="431"/>
+      <c r="A19" s="426"/>
+      <c r="B19" s="426"/>
+      <c r="C19" s="426"/>
+      <c r="D19" s="426"/>
       <c r="E19" s="414"/>
       <c r="F19" s="414"/>
-      <c r="G19" s="432"/>
-      <c r="H19" s="432"/>
-      <c r="I19" s="433"/>
-      <c r="J19" s="433"/>
-      <c r="K19" s="433"/>
+      <c r="G19" s="427"/>
+      <c r="H19" s="427"/>
+      <c r="I19" s="428"/>
+      <c r="J19" s="428"/>
+      <c r="K19" s="428"/>
     </row>
     <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A20" s="431"/>
-      <c r="B20" s="431"/>
-      <c r="C20" s="431"/>
-      <c r="D20" s="431"/>
+      <c r="A20" s="426"/>
+      <c r="B20" s="426"/>
+      <c r="C20" s="426"/>
+      <c r="D20" s="426"/>
       <c r="E20" s="414"/>
       <c r="F20" s="414"/>
-      <c r="G20" s="432"/>
-      <c r="H20" s="432"/>
-      <c r="I20" s="433"/>
-      <c r="J20" s="433"/>
-      <c r="K20" s="433"/>
+      <c r="G20" s="427"/>
+      <c r="H20" s="427"/>
+      <c r="I20" s="428"/>
+      <c r="J20" s="428"/>
+      <c r="K20" s="428"/>
     </row>
     <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A21" s="431"/>
-      <c r="B21" s="431"/>
-      <c r="C21" s="431"/>
-      <c r="D21" s="431"/>
+      <c r="A21" s="426"/>
+      <c r="B21" s="426"/>
+      <c r="C21" s="426"/>
+      <c r="D21" s="426"/>
       <c r="E21" s="414"/>
       <c r="F21" s="414"/>
-      <c r="G21" s="432"/>
-      <c r="H21" s="432"/>
-      <c r="I21" s="433"/>
-      <c r="J21" s="433"/>
-      <c r="K21" s="433"/>
+      <c r="G21" s="427"/>
+      <c r="H21" s="427"/>
+      <c r="I21" s="428"/>
+      <c r="J21" s="428"/>
+      <c r="K21" s="428"/>
     </row>
     <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A22" s="431"/>
-      <c r="B22" s="431"/>
-      <c r="C22" s="431"/>
-      <c r="D22" s="431"/>
+      <c r="A22" s="426"/>
+      <c r="B22" s="426"/>
+      <c r="C22" s="426"/>
+      <c r="D22" s="426"/>
       <c r="E22" s="414"/>
       <c r="F22" s="414"/>
-      <c r="G22" s="432"/>
-      <c r="H22" s="432"/>
-      <c r="I22" s="433"/>
-      <c r="J22" s="433"/>
-      <c r="K22" s="433"/>
+      <c r="G22" s="427"/>
+      <c r="H22" s="427"/>
+      <c r="I22" s="428"/>
+      <c r="J22" s="428"/>
+      <c r="K22" s="428"/>
     </row>
     <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A23" s="431"/>
-      <c r="B23" s="431"/>
-      <c r="C23" s="431"/>
-      <c r="D23" s="431"/>
-      <c r="E23" s="431"/>
-      <c r="F23" s="431"/>
-      <c r="G23" s="431"/>
-      <c r="H23" s="431"/>
-      <c r="I23" s="431"/>
-      <c r="J23" s="431"/>
-      <c r="K23" s="431"/>
+      <c r="A23" s="426"/>
+      <c r="B23" s="426"/>
+      <c r="C23" s="426"/>
+      <c r="D23" s="426"/>
+      <c r="E23" s="426"/>
+      <c r="F23" s="426"/>
+      <c r="G23" s="426"/>
+      <c r="H23" s="426"/>
+      <c r="I23" s="426"/>
+      <c r="J23" s="426"/>
+      <c r="K23" s="426"/>
     </row>
     <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="413" t="s">
@@ -8121,11 +8115,11 @@
       </c>
       <c r="B24" s="414"/>
       <c r="C24" s="414"/>
-      <c r="D24" s="435">
-        <v>0</v>
-      </c>
-      <c r="E24" s="435"/>
-      <c r="F24" s="435"/>
+      <c r="D24" s="429">
+        <v>0</v>
+      </c>
+      <c r="E24" s="429"/>
+      <c r="F24" s="429"/>
       <c r="G24" s="417"/>
       <c r="H24" s="417"/>
       <c r="I24" s="417"/>
@@ -8138,11 +8132,11 @@
       </c>
       <c r="B25" s="414"/>
       <c r="C25" s="414"/>
-      <c r="D25" s="434">
-        <v>0</v>
-      </c>
-      <c r="E25" s="434"/>
-      <c r="F25" s="434"/>
+      <c r="D25" s="425">
+        <v>0</v>
+      </c>
+      <c r="E25" s="425"/>
+      <c r="F25" s="425"/>
       <c r="G25" s="414"/>
       <c r="H25" s="414"/>
       <c r="I25" s="414"/>
@@ -8155,11 +8149,11 @@
       </c>
       <c r="B26" s="414"/>
       <c r="C26" s="414"/>
-      <c r="D26" s="436">
-        <v>0</v>
-      </c>
-      <c r="E26" s="436"/>
-      <c r="F26" s="436"/>
+      <c r="D26" s="430">
+        <v>0</v>
+      </c>
+      <c r="E26" s="430"/>
+      <c r="F26" s="430"/>
       <c r="G26" s="414"/>
       <c r="H26" s="414"/>
       <c r="I26" s="414"/>
@@ -8172,11 +8166,11 @@
       </c>
       <c r="B27" s="414"/>
       <c r="C27" s="414"/>
-      <c r="D27" s="436">
-        <v>0</v>
-      </c>
-      <c r="E27" s="436"/>
-      <c r="F27" s="436"/>
+      <c r="D27" s="430">
+        <v>0</v>
+      </c>
+      <c r="E27" s="430"/>
+      <c r="F27" s="430"/>
       <c r="G27" s="418"/>
       <c r="H27" s="418"/>
       <c r="I27" s="418"/>
@@ -8189,11 +8183,11 @@
       </c>
       <c r="B28" s="414"/>
       <c r="C28" s="414"/>
-      <c r="D28" s="434">
-        <v>0</v>
-      </c>
-      <c r="E28" s="434"/>
-      <c r="F28" s="434"/>
+      <c r="D28" s="425">
+        <v>0</v>
+      </c>
+      <c r="E28" s="425"/>
+      <c r="F28" s="425"/>
       <c r="G28" s="419"/>
       <c r="H28" s="419"/>
       <c r="I28" s="419"/>
@@ -8206,11 +8200,11 @@
       </c>
       <c r="B29" s="414"/>
       <c r="C29" s="414"/>
-      <c r="D29" s="434">
-        <v>0</v>
-      </c>
-      <c r="E29" s="434"/>
-      <c r="F29" s="434"/>
+      <c r="D29" s="425">
+        <v>0</v>
+      </c>
+      <c r="E29" s="425"/>
+      <c r="F29" s="425"/>
       <c r="G29" s="419"/>
       <c r="H29" s="419"/>
       <c r="I29" s="419"/>
@@ -8223,11 +8217,11 @@
       </c>
       <c r="B30" s="414"/>
       <c r="C30" s="414"/>
-      <c r="D30" s="434">
-        <v>0</v>
-      </c>
-      <c r="E30" s="434"/>
-      <c r="F30" s="434"/>
+      <c r="D30" s="425">
+        <v>0</v>
+      </c>
+      <c r="E30" s="425"/>
+      <c r="F30" s="425"/>
       <c r="G30" s="419"/>
       <c r="H30" s="419"/>
       <c r="I30" s="419"/>
@@ -8238,9 +8232,9 @@
       <c r="A31" s="414"/>
       <c r="B31" s="414"/>
       <c r="C31" s="414"/>
-      <c r="D31" s="414"/>
-      <c r="E31" s="414"/>
-      <c r="F31" s="414"/>
+      <c r="D31" s="424"/>
+      <c r="E31" s="424"/>
+      <c r="F31" s="424"/>
       <c r="G31" s="414"/>
       <c r="H31" s="414"/>
       <c r="I31" s="414"/>
@@ -8250,31 +8244,31 @@
       <c r="A32" s="413" t="s">
         <v>235</v>
       </c>
-      <c r="D32" s="438">
-        <v>0</v>
-      </c>
-      <c r="E32" s="438"/>
-      <c r="F32" s="438"/>
+      <c r="D32" s="429">
+        <v>0</v>
+      </c>
+      <c r="E32" s="429"/>
+      <c r="F32" s="429"/>
     </row>
     <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="413" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="439">
-        <v>0</v>
-      </c>
-      <c r="E33" s="439"/>
-      <c r="F33" s="439"/>
+      <c r="D33" s="428">
+        <v>0</v>
+      </c>
+      <c r="E33" s="428"/>
+      <c r="F33" s="428"/>
     </row>
     <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="413" t="s">
         <v>237</v>
       </c>
-      <c r="D34" s="438">
-        <v>0</v>
-      </c>
-      <c r="E34" s="438"/>
-      <c r="F34" s="438"/>
+      <c r="D34" s="429">
+        <v>0</v>
+      </c>
+      <c r="E34" s="429"/>
+      <c r="F34" s="429"/>
     </row>
     <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="413" t="s">
@@ -8282,17 +8276,17 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="95.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="437"/>
-      <c r="B36" s="437"/>
-      <c r="C36" s="437"/>
-      <c r="D36" s="437"/>
-      <c r="E36" s="437"/>
-      <c r="F36" s="437"/>
-      <c r="G36" s="437"/>
-      <c r="H36" s="437"/>
-      <c r="I36" s="437"/>
-      <c r="J36" s="437"/>
-      <c r="K36" s="437"/>
+      <c r="A36" s="434"/>
+      <c r="B36" s="434"/>
+      <c r="C36" s="434"/>
+      <c r="D36" s="434"/>
+      <c r="E36" s="434"/>
+      <c r="F36" s="434"/>
+      <c r="G36" s="434"/>
+      <c r="H36" s="434"/>
+      <c r="I36" s="434"/>
+      <c r="J36" s="434"/>
+      <c r="K36" s="434"/>
     </row>
     <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="413" t="s">
@@ -8305,27 +8299,50 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="53.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="437"/>
-      <c r="B40" s="437"/>
-      <c r="C40" s="437"/>
-      <c r="D40" s="437"/>
-      <c r="E40" s="437"/>
-      <c r="F40" s="437"/>
-      <c r="G40" s="437"/>
-      <c r="H40" s="437"/>
-      <c r="I40" s="437"/>
-      <c r="J40" s="437"/>
-      <c r="K40" s="437"/>
+      <c r="A40" s="434"/>
+      <c r="B40" s="434"/>
+      <c r="C40" s="434"/>
+      <c r="D40" s="434"/>
+      <c r="E40" s="434"/>
+      <c r="F40" s="434"/>
+      <c r="G40" s="434"/>
+      <c r="H40" s="434"/>
+      <c r="I40" s="434"/>
+      <c r="J40" s="434"/>
+      <c r="K40" s="434"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:K20"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="G21:H21"/>
@@ -8338,36 +8355,13 @@
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A36:K36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8408,147 +8402,147 @@
   <sheetData>
     <row r="1" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="549" t="s">
+      <c r="B2" s="448" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="550"/>
-      <c r="D2" s="550"/>
-      <c r="E2" s="550"/>
-      <c r="F2" s="550"/>
-      <c r="G2" s="550"/>
-      <c r="H2" s="550"/>
-      <c r="I2" s="550"/>
-      <c r="J2" s="550"/>
-      <c r="K2" s="550"/>
-      <c r="L2" s="550"/>
-      <c r="M2" s="550"/>
-      <c r="N2" s="550"/>
-      <c r="O2" s="551"/>
+      <c r="C2" s="449"/>
+      <c r="D2" s="449"/>
+      <c r="E2" s="449"/>
+      <c r="F2" s="449"/>
+      <c r="G2" s="449"/>
+      <c r="H2" s="449"/>
+      <c r="I2" s="449"/>
+      <c r="J2" s="449"/>
+      <c r="K2" s="449"/>
+      <c r="L2" s="449"/>
+      <c r="M2" s="449"/>
+      <c r="N2" s="449"/>
+      <c r="O2" s="450"/>
     </row>
     <row r="3" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="402"/>
       <c r="C3" s="403"/>
       <c r="D3" s="403"/>
       <c r="E3" s="403"/>
-      <c r="F3" s="552"/>
-      <c r="G3" s="552"/>
-      <c r="H3" s="552"/>
-      <c r="I3" s="552"/>
-      <c r="J3" s="552"/>
-      <c r="K3" s="552"/>
-      <c r="L3" s="552"/>
-      <c r="M3" s="552"/>
-      <c r="N3" s="552"/>
-      <c r="O3" s="553"/>
+      <c r="F3" s="451"/>
+      <c r="G3" s="451"/>
+      <c r="H3" s="451"/>
+      <c r="I3" s="451"/>
+      <c r="J3" s="451"/>
+      <c r="K3" s="451"/>
+      <c r="L3" s="451"/>
+      <c r="M3" s="451"/>
+      <c r="N3" s="451"/>
+      <c r="O3" s="452"/>
     </row>
     <row r="4" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B4" s="560" t="s">
+      <c r="B4" s="459" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="561"/>
-      <c r="D4" s="561"/>
-      <c r="E4" s="561"/>
-      <c r="F4" s="561"/>
-      <c r="G4" s="561"/>
-      <c r="H4" s="561"/>
-      <c r="I4" s="561"/>
-      <c r="J4" s="561"/>
-      <c r="K4" s="561"/>
-      <c r="L4" s="561"/>
-      <c r="M4" s="561"/>
-      <c r="N4" s="561"/>
-      <c r="O4" s="562"/>
+      <c r="C4" s="460"/>
+      <c r="D4" s="460"/>
+      <c r="E4" s="460"/>
+      <c r="F4" s="460"/>
+      <c r="G4" s="460"/>
+      <c r="H4" s="460"/>
+      <c r="I4" s="460"/>
+      <c r="J4" s="460"/>
+      <c r="K4" s="460"/>
+      <c r="L4" s="460"/>
+      <c r="M4" s="460"/>
+      <c r="N4" s="460"/>
+      <c r="O4" s="461"/>
     </row>
     <row r="5" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B5" s="557" t="s">
+      <c r="B5" s="456" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="558"/>
-      <c r="D5" s="558"/>
-      <c r="E5" s="558"/>
-      <c r="F5" s="558"/>
-      <c r="G5" s="558"/>
-      <c r="H5" s="558"/>
-      <c r="I5" s="558"/>
-      <c r="J5" s="558"/>
-      <c r="K5" s="558"/>
-      <c r="L5" s="558"/>
-      <c r="M5" s="558"/>
-      <c r="N5" s="558"/>
-      <c r="O5" s="559"/>
+      <c r="C5" s="457"/>
+      <c r="D5" s="457"/>
+      <c r="E5" s="457"/>
+      <c r="F5" s="457"/>
+      <c r="G5" s="457"/>
+      <c r="H5" s="457"/>
+      <c r="I5" s="457"/>
+      <c r="J5" s="457"/>
+      <c r="K5" s="457"/>
+      <c r="L5" s="457"/>
+      <c r="M5" s="457"/>
+      <c r="N5" s="457"/>
+      <c r="O5" s="458"/>
     </row>
     <row r="6" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B6" s="557" t="s">
+      <c r="B6" s="456" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="558"/>
-      <c r="D6" s="558"/>
-      <c r="E6" s="558"/>
-      <c r="F6" s="558"/>
-      <c r="G6" s="558"/>
-      <c r="H6" s="558"/>
-      <c r="I6" s="558"/>
-      <c r="J6" s="558"/>
-      <c r="K6" s="558"/>
-      <c r="L6" s="558"/>
-      <c r="M6" s="558"/>
-      <c r="N6" s="558"/>
-      <c r="O6" s="559"/>
+      <c r="C6" s="457"/>
+      <c r="D6" s="457"/>
+      <c r="E6" s="457"/>
+      <c r="F6" s="457"/>
+      <c r="G6" s="457"/>
+      <c r="H6" s="457"/>
+      <c r="I6" s="457"/>
+      <c r="J6" s="457"/>
+      <c r="K6" s="457"/>
+      <c r="L6" s="457"/>
+      <c r="M6" s="457"/>
+      <c r="N6" s="457"/>
+      <c r="O6" s="458"/>
     </row>
     <row r="7" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="453" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="555"/>
-      <c r="D7" s="555"/>
-      <c r="E7" s="555"/>
-      <c r="F7" s="555"/>
-      <c r="G7" s="555"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="555"/>
-      <c r="J7" s="555"/>
-      <c r="K7" s="555"/>
-      <c r="L7" s="555"/>
-      <c r="M7" s="555"/>
-      <c r="N7" s="555"/>
-      <c r="O7" s="556"/>
+      <c r="C7" s="454"/>
+      <c r="D7" s="454"/>
+      <c r="E7" s="454"/>
+      <c r="F7" s="454"/>
+      <c r="G7" s="454"/>
+      <c r="H7" s="454"/>
+      <c r="I7" s="454"/>
+      <c r="J7" s="454"/>
+      <c r="K7" s="454"/>
+      <c r="L7" s="454"/>
+      <c r="M7" s="454"/>
+      <c r="N7" s="454"/>
+      <c r="O7" s="455"/>
     </row>
     <row r="9" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="563" t="s">
+      <c r="B10" s="462" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="564"/>
-      <c r="D10" s="564"/>
-      <c r="E10" s="564"/>
-      <c r="F10" s="564"/>
-      <c r="G10" s="564"/>
-      <c r="H10" s="564"/>
-      <c r="I10" s="565"/>
+      <c r="C10" s="463"/>
+      <c r="D10" s="463"/>
+      <c r="E10" s="463"/>
+      <c r="F10" s="463"/>
+      <c r="G10" s="463"/>
+      <c r="H10" s="463"/>
+      <c r="I10" s="464"/>
     </row>
     <row r="11" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="566"/>
-      <c r="C11" s="567"/>
-      <c r="D11" s="567"/>
-      <c r="E11" s="567"/>
-      <c r="F11" s="567"/>
-      <c r="G11" s="567"/>
-      <c r="H11" s="567"/>
-      <c r="I11" s="568"/>
+      <c r="B11" s="465"/>
+      <c r="C11" s="466"/>
+      <c r="D11" s="466"/>
+      <c r="E11" s="466"/>
+      <c r="F11" s="466"/>
+      <c r="G11" s="466"/>
+      <c r="H11" s="466"/>
+      <c r="I11" s="467"/>
     </row>
     <row r="12" spans="2:15" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="574" t="s">
+      <c r="B12" s="481" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="575"/>
-      <c r="D12" s="454" t="s">
+      <c r="C12" s="482"/>
+      <c r="D12" s="478" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="455"/>
-      <c r="F12" s="455"/>
-      <c r="G12" s="455"/>
-      <c r="H12" s="455"/>
-      <c r="I12" s="456"/>
+      <c r="E12" s="479"/>
+      <c r="F12" s="479"/>
+      <c r="G12" s="479"/>
+      <c r="H12" s="479"/>
+      <c r="I12" s="480"/>
       <c r="J12" s="401"/>
       <c r="K12" s="401"/>
       <c r="L12" s="401"/>
@@ -8557,224 +8551,224 @@
       <c r="O12" s="401"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="576" t="s">
+      <c r="B13" s="483" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="577"/>
-      <c r="D13" s="580" t="s">
+      <c r="C13" s="484"/>
+      <c r="D13" s="487" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="581"/>
-      <c r="F13" s="581"/>
-      <c r="G13" s="581"/>
-      <c r="H13" s="581"/>
-      <c r="I13" s="582"/>
+      <c r="E13" s="488"/>
+      <c r="F13" s="488"/>
+      <c r="G13" s="488"/>
+      <c r="H13" s="488"/>
+      <c r="I13" s="489"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="521" t="s">
+      <c r="B14" s="443" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="522"/>
-      <c r="D14" s="525" t="s">
+      <c r="C14" s="444"/>
+      <c r="D14" s="438" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="526"/>
-      <c r="F14" s="526"/>
-      <c r="G14" s="526"/>
-      <c r="H14" s="526"/>
-      <c r="I14" s="527"/>
+      <c r="E14" s="439"/>
+      <c r="F14" s="439"/>
+      <c r="G14" s="439"/>
+      <c r="H14" s="439"/>
+      <c r="I14" s="440"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="521" t="s">
+      <c r="B15" s="443" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="522"/>
-      <c r="D15" s="525" t="s">
+      <c r="C15" s="444"/>
+      <c r="D15" s="438" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="526"/>
-      <c r="F15" s="526"/>
-      <c r="G15" s="526"/>
-      <c r="H15" s="526"/>
-      <c r="I15" s="527"/>
+      <c r="E15" s="439"/>
+      <c r="F15" s="439"/>
+      <c r="G15" s="439"/>
+      <c r="H15" s="439"/>
+      <c r="I15" s="440"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="521" t="s">
+      <c r="B16" s="443" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="522"/>
-      <c r="D16" s="525" t="s">
+      <c r="C16" s="444"/>
+      <c r="D16" s="438" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="526"/>
-      <c r="F16" s="526"/>
-      <c r="G16" s="526"/>
-      <c r="H16" s="526"/>
-      <c r="I16" s="527"/>
+      <c r="E16" s="439"/>
+      <c r="F16" s="439"/>
+      <c r="G16" s="439"/>
+      <c r="H16" s="439"/>
+      <c r="I16" s="440"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B17" s="521" t="s">
+      <c r="B17" s="443" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="522"/>
-      <c r="D17" s="525" t="s">
+      <c r="C17" s="444"/>
+      <c r="D17" s="438" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="526"/>
-      <c r="F17" s="526"/>
-      <c r="G17" s="526"/>
-      <c r="H17" s="526"/>
-      <c r="I17" s="527"/>
+      <c r="E17" s="439"/>
+      <c r="F17" s="439"/>
+      <c r="G17" s="439"/>
+      <c r="H17" s="439"/>
+      <c r="I17" s="440"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B18" s="521" t="s">
+      <c r="B18" s="443" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="522"/>
-      <c r="D18" s="525" t="s">
+      <c r="C18" s="444"/>
+      <c r="D18" s="438" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="526"/>
-      <c r="F18" s="526"/>
-      <c r="G18" s="526"/>
-      <c r="H18" s="526"/>
-      <c r="I18" s="527"/>
+      <c r="E18" s="439"/>
+      <c r="F18" s="439"/>
+      <c r="G18" s="439"/>
+      <c r="H18" s="439"/>
+      <c r="I18" s="440"/>
     </row>
     <row r="19" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="583" t="s">
+      <c r="B19" s="441" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="584"/>
-      <c r="D19" s="518" t="s">
+      <c r="C19" s="442"/>
+      <c r="D19" s="503" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="519"/>
-      <c r="F19" s="519"/>
-      <c r="G19" s="519"/>
-      <c r="H19" s="519"/>
-      <c r="I19" s="520"/>
+      <c r="E19" s="504"/>
+      <c r="F19" s="504"/>
+      <c r="G19" s="504"/>
+      <c r="H19" s="504"/>
+      <c r="I19" s="505"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B20" s="521" t="s">
+      <c r="B20" s="443" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="522"/>
-      <c r="D20" s="525" t="s">
+      <c r="C20" s="444"/>
+      <c r="D20" s="438" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="526"/>
-      <c r="F20" s="526"/>
-      <c r="G20" s="526"/>
-      <c r="H20" s="526"/>
-      <c r="I20" s="527"/>
+      <c r="E20" s="439"/>
+      <c r="F20" s="439"/>
+      <c r="G20" s="439"/>
+      <c r="H20" s="439"/>
+      <c r="I20" s="440"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B21" s="523" t="s">
+      <c r="B21" s="506" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="524"/>
-      <c r="D21" s="525" t="s">
+      <c r="C21" s="507"/>
+      <c r="D21" s="438" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="526"/>
-      <c r="F21" s="526"/>
-      <c r="G21" s="526"/>
-      <c r="H21" s="526"/>
-      <c r="I21" s="527"/>
+      <c r="E21" s="439"/>
+      <c r="F21" s="439"/>
+      <c r="G21" s="439"/>
+      <c r="H21" s="439"/>
+      <c r="I21" s="440"/>
     </row>
     <row r="22" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="578" t="s">
+      <c r="B22" s="485" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="579"/>
-      <c r="D22" s="585" t="s">
+      <c r="C22" s="486"/>
+      <c r="D22" s="445" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="586"/>
-      <c r="F22" s="586"/>
-      <c r="G22" s="586"/>
-      <c r="H22" s="586"/>
-      <c r="I22" s="587"/>
+      <c r="E22" s="446"/>
+      <c r="F22" s="446"/>
+      <c r="G22" s="446"/>
+      <c r="H22" s="446"/>
+      <c r="I22" s="447"/>
     </row>
     <row r="24" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="2:15" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="588" t="s">
+      <c r="B25" s="522" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="589"/>
-      <c r="D25" s="590"/>
+      <c r="C25" s="523"/>
+      <c r="D25" s="524"/>
     </row>
     <row r="26" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="162"/>
-      <c r="C26" s="547" t="s">
+      <c r="C26" s="520" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="548"/>
+      <c r="D26" s="521"/>
     </row>
     <row r="27" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="160"/>
-      <c r="C27" s="547" t="s">
+      <c r="C27" s="520" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="548"/>
+      <c r="D27" s="521"/>
     </row>
     <row r="28" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="152"/>
-      <c r="C28" s="547" t="s">
+      <c r="C28" s="520" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="548"/>
+      <c r="D28" s="521"/>
     </row>
     <row r="30" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="2:15" ht="19.899999999999999" x14ac:dyDescent="0.5">
-      <c r="B31" s="571" t="s">
+      <c r="B31" s="472" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="572"/>
-      <c r="D31" s="572"/>
-      <c r="E31" s="572"/>
-      <c r="F31" s="572"/>
-      <c r="G31" s="572"/>
-      <c r="H31" s="572"/>
-      <c r="I31" s="572"/>
-      <c r="J31" s="572"/>
-      <c r="K31" s="572"/>
-      <c r="L31" s="572"/>
-      <c r="M31" s="572"/>
-      <c r="N31" s="572"/>
-      <c r="O31" s="573"/>
+      <c r="C31" s="473"/>
+      <c r="D31" s="473"/>
+      <c r="E31" s="473"/>
+      <c r="F31" s="473"/>
+      <c r="G31" s="473"/>
+      <c r="H31" s="473"/>
+      <c r="I31" s="473"/>
+      <c r="J31" s="473"/>
+      <c r="K31" s="473"/>
+      <c r="L31" s="473"/>
+      <c r="M31" s="473"/>
+      <c r="N31" s="473"/>
+      <c r="O31" s="474"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B32" s="442"/>
-      <c r="C32" s="443"/>
-      <c r="D32" s="443"/>
-      <c r="E32" s="443"/>
-      <c r="F32" s="443"/>
-      <c r="G32" s="443"/>
-      <c r="H32" s="443"/>
-      <c r="I32" s="443"/>
-      <c r="J32" s="443"/>
-      <c r="K32" s="443"/>
-      <c r="L32" s="443"/>
-      <c r="M32" s="443"/>
-      <c r="N32" s="443"/>
-      <c r="O32" s="444"/>
+      <c r="B32" s="475"/>
+      <c r="C32" s="476"/>
+      <c r="D32" s="476"/>
+      <c r="E32" s="476"/>
+      <c r="F32" s="476"/>
+      <c r="G32" s="476"/>
+      <c r="H32" s="476"/>
+      <c r="I32" s="476"/>
+      <c r="J32" s="476"/>
+      <c r="K32" s="476"/>
+      <c r="L32" s="476"/>
+      <c r="M32" s="476"/>
+      <c r="N32" s="476"/>
+      <c r="O32" s="477"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B33" s="442"/>
-      <c r="C33" s="443"/>
-      <c r="D33" s="443"/>
-      <c r="E33" s="443"/>
-      <c r="F33" s="443"/>
-      <c r="G33" s="443"/>
-      <c r="H33" s="443"/>
-      <c r="I33" s="443"/>
-      <c r="J33" s="443"/>
-      <c r="K33" s="443"/>
-      <c r="L33" s="443"/>
-      <c r="M33" s="443"/>
-      <c r="N33" s="443"/>
-      <c r="O33" s="444"/>
+      <c r="B33" s="475"/>
+      <c r="C33" s="476"/>
+      <c r="D33" s="476"/>
+      <c r="E33" s="476"/>
+      <c r="F33" s="476"/>
+      <c r="G33" s="476"/>
+      <c r="H33" s="476"/>
+      <c r="I33" s="476"/>
+      <c r="J33" s="476"/>
+      <c r="K33" s="476"/>
+      <c r="L33" s="476"/>
+      <c r="M33" s="476"/>
+      <c r="N33" s="476"/>
+      <c r="O33" s="477"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B34" s="404"/>
@@ -8841,85 +8835,85 @@
       <c r="O37" s="406"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B38" s="442"/>
-      <c r="C38" s="443"/>
-      <c r="D38" s="443"/>
-      <c r="E38" s="443"/>
-      <c r="F38" s="443"/>
-      <c r="G38" s="443"/>
-      <c r="H38" s="443"/>
-      <c r="I38" s="443"/>
-      <c r="J38" s="443"/>
-      <c r="K38" s="443"/>
-      <c r="L38" s="443"/>
-      <c r="M38" s="443"/>
-      <c r="N38" s="443"/>
-      <c r="O38" s="444"/>
+      <c r="B38" s="475"/>
+      <c r="C38" s="476"/>
+      <c r="D38" s="476"/>
+      <c r="E38" s="476"/>
+      <c r="F38" s="476"/>
+      <c r="G38" s="476"/>
+      <c r="H38" s="476"/>
+      <c r="I38" s="476"/>
+      <c r="J38" s="476"/>
+      <c r="K38" s="476"/>
+      <c r="L38" s="476"/>
+      <c r="M38" s="476"/>
+      <c r="N38" s="476"/>
+      <c r="O38" s="477"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B39" s="442"/>
-      <c r="C39" s="443"/>
-      <c r="D39" s="443"/>
-      <c r="E39" s="443"/>
-      <c r="F39" s="443"/>
-      <c r="G39" s="443"/>
-      <c r="H39" s="443"/>
-      <c r="I39" s="443"/>
-      <c r="J39" s="443"/>
-      <c r="K39" s="443"/>
-      <c r="L39" s="443"/>
-      <c r="M39" s="443"/>
-      <c r="N39" s="443"/>
-      <c r="O39" s="444"/>
+      <c r="B39" s="475"/>
+      <c r="C39" s="476"/>
+      <c r="D39" s="476"/>
+      <c r="E39" s="476"/>
+      <c r="F39" s="476"/>
+      <c r="G39" s="476"/>
+      <c r="H39" s="476"/>
+      <c r="I39" s="476"/>
+      <c r="J39" s="476"/>
+      <c r="K39" s="476"/>
+      <c r="L39" s="476"/>
+      <c r="M39" s="476"/>
+      <c r="N39" s="476"/>
+      <c r="O39" s="477"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B40" s="442"/>
-      <c r="C40" s="443"/>
-      <c r="D40" s="443"/>
-      <c r="E40" s="443"/>
-      <c r="F40" s="443"/>
-      <c r="G40" s="443"/>
-      <c r="H40" s="443"/>
-      <c r="I40" s="443"/>
-      <c r="J40" s="443"/>
-      <c r="K40" s="443"/>
-      <c r="L40" s="443"/>
-      <c r="M40" s="443"/>
-      <c r="N40" s="443"/>
-      <c r="O40" s="444"/>
+      <c r="B40" s="475"/>
+      <c r="C40" s="476"/>
+      <c r="D40" s="476"/>
+      <c r="E40" s="476"/>
+      <c r="F40" s="476"/>
+      <c r="G40" s="476"/>
+      <c r="H40" s="476"/>
+      <c r="I40" s="476"/>
+      <c r="J40" s="476"/>
+      <c r="K40" s="476"/>
+      <c r="L40" s="476"/>
+      <c r="M40" s="476"/>
+      <c r="N40" s="476"/>
+      <c r="O40" s="477"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B41" s="442"/>
-      <c r="C41" s="443"/>
-      <c r="D41" s="443"/>
-      <c r="E41" s="443"/>
-      <c r="F41" s="443"/>
-      <c r="G41" s="443"/>
-      <c r="H41" s="443"/>
-      <c r="I41" s="443"/>
-      <c r="J41" s="443"/>
-      <c r="K41" s="443"/>
-      <c r="L41" s="443"/>
-      <c r="M41" s="443"/>
-      <c r="N41" s="443"/>
-      <c r="O41" s="444"/>
+      <c r="B41" s="475"/>
+      <c r="C41" s="476"/>
+      <c r="D41" s="476"/>
+      <c r="E41" s="476"/>
+      <c r="F41" s="476"/>
+      <c r="G41" s="476"/>
+      <c r="H41" s="476"/>
+      <c r="I41" s="476"/>
+      <c r="J41" s="476"/>
+      <c r="K41" s="476"/>
+      <c r="L41" s="476"/>
+      <c r="M41" s="476"/>
+      <c r="N41" s="476"/>
+      <c r="O41" s="477"/>
     </row>
     <row r="46" spans="2:21" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="2:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="528" t="s">
+      <c r="B47" s="508" t="s">
         <v>208</v>
       </c>
-      <c r="C47" s="529"/>
-      <c r="D47" s="529"/>
-      <c r="E47" s="529"/>
-      <c r="F47" s="529"/>
-      <c r="G47" s="529"/>
-      <c r="H47" s="529"/>
-      <c r="I47" s="529"/>
-      <c r="J47" s="529"/>
-      <c r="K47" s="529"/>
-      <c r="L47" s="529"/>
-      <c r="M47" s="530"/>
+      <c r="C47" s="509"/>
+      <c r="D47" s="509"/>
+      <c r="E47" s="509"/>
+      <c r="F47" s="509"/>
+      <c r="G47" s="509"/>
+      <c r="H47" s="509"/>
+      <c r="I47" s="509"/>
+      <c r="J47" s="509"/>
+      <c r="K47" s="509"/>
+      <c r="L47" s="509"/>
+      <c r="M47" s="510"/>
       <c r="U47" s="231"/>
     </row>
     <row r="48" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8938,11 +8932,11 @@
       <c r="U48" s="105"/>
     </row>
     <row r="49" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="454" t="s">
+      <c r="B49" s="478" t="s">
         <v>143</v>
       </c>
-      <c r="C49" s="455"/>
-      <c r="D49" s="456"/>
+      <c r="C49" s="479"/>
+      <c r="D49" s="480"/>
       <c r="E49" s="181" t="s">
         <v>142</v>
       </c>
@@ -8958,34 +8952,34 @@
       <c r="B50" s="224" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="476"/>
-      <c r="D50" s="477"/>
+      <c r="C50" s="543"/>
+      <c r="D50" s="544"/>
       <c r="E50" s="223"/>
       <c r="F50" s="222"/>
       <c r="G50" s="222"/>
       <c r="H50" s="222"/>
       <c r="I50" s="221"/>
       <c r="J50" s="113"/>
-      <c r="K50" s="454" t="s">
+      <c r="K50" s="478" t="s">
         <v>139</v>
       </c>
-      <c r="L50" s="455"/>
-      <c r="M50" s="456"/>
+      <c r="L50" s="479"/>
+      <c r="M50" s="480"/>
       <c r="U50" s="105"/>
     </row>
     <row r="51" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="469" t="s">
+      <c r="B51" s="470" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="531"/>
+      <c r="C51" s="511"/>
       <c r="D51" s="220"/>
-      <c r="E51" s="510" t="s">
+      <c r="E51" s="563" t="s">
         <v>136</v>
       </c>
-      <c r="F51" s="511"/>
-      <c r="G51" s="511"/>
-      <c r="H51" s="512"/>
-      <c r="I51" s="569" t="s">
+      <c r="F51" s="564"/>
+      <c r="G51" s="564"/>
+      <c r="H51" s="565"/>
+      <c r="I51" s="468" t="s">
         <v>135</v>
       </c>
       <c r="J51" s="113"/>
@@ -8997,16 +8991,16 @@
       <c r="U51" s="211"/>
     </row>
     <row r="52" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="469" t="s">
+      <c r="B52" s="470" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="490"/>
+      <c r="C52" s="471"/>
       <c r="D52" s="217"/>
-      <c r="E52" s="513"/>
-      <c r="F52" s="514"/>
-      <c r="G52" s="514"/>
-      <c r="H52" s="515"/>
-      <c r="I52" s="570"/>
+      <c r="E52" s="566"/>
+      <c r="F52" s="567"/>
+      <c r="G52" s="567"/>
+      <c r="H52" s="568"/>
+      <c r="I52" s="469"/>
       <c r="J52" s="113"/>
       <c r="K52" s="216" t="s">
         <v>132</v>
@@ -9019,22 +9013,22 @@
       <c r="U52" s="211"/>
     </row>
     <row r="53" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="469" t="s">
+      <c r="B53" s="470" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="490"/>
+      <c r="C53" s="471"/>
       <c r="D53" s="210" t="e">
         <f>D52/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E53" s="516" t="s">
+      <c r="E53" s="569" t="s">
         <v>129</v>
       </c>
-      <c r="F53" s="517"/>
-      <c r="G53" s="545">
-        <v>0</v>
-      </c>
-      <c r="H53" s="546"/>
+      <c r="F53" s="570"/>
+      <c r="G53" s="518">
+        <v>0</v>
+      </c>
+      <c r="H53" s="519"/>
       <c r="I53" s="209" t="e">
         <f>G53/G55</f>
         <v>#DIV/0!</v>
@@ -9050,19 +9044,19 @@
       </c>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B54" s="469" t="s">
+      <c r="B54" s="470" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="490"/>
+      <c r="C54" s="471"/>
       <c r="D54" s="206"/>
-      <c r="E54" s="452" t="s">
+      <c r="E54" s="580" t="s">
         <v>126</v>
       </c>
-      <c r="F54" s="453"/>
-      <c r="G54" s="486">
-        <v>0</v>
-      </c>
-      <c r="H54" s="487"/>
+      <c r="F54" s="581"/>
+      <c r="G54" s="553">
+        <v>0</v>
+      </c>
+      <c r="H54" s="554"/>
       <c r="I54" s="205" t="e">
         <f>G54/G55</f>
         <v>#DIV/0!</v>
@@ -9073,22 +9067,22 @@
       <c r="M54" s="185"/>
     </row>
     <row r="55" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="543" t="s">
+      <c r="B55" s="516" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="544"/>
+      <c r="C55" s="517"/>
       <c r="D55" s="203" t="e">
         <f>D52/D54</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E55" s="491" t="s">
+      <c r="E55" s="559" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="492"/>
-      <c r="G55" s="493">
-        <v>0</v>
-      </c>
-      <c r="H55" s="494"/>
+      <c r="F55" s="560"/>
+      <c r="G55" s="561">
+        <v>0</v>
+      </c>
+      <c r="H55" s="562"/>
       <c r="I55" s="202" t="s">
         <v>31</v>
       </c>
@@ -9125,45 +9119,45 @@
       <c r="F57" s="182" t="s">
         <v>98</v>
       </c>
-      <c r="G57" s="455" t="s">
+      <c r="G57" s="479" t="s">
         <v>97</v>
       </c>
-      <c r="H57" s="456"/>
+      <c r="H57" s="480"/>
       <c r="I57" s="181" t="s">
         <v>121</v>
       </c>
       <c r="J57" s="107"/>
-      <c r="K57" s="454" t="s">
+      <c r="K57" s="478" t="s">
         <v>120</v>
       </c>
-      <c r="L57" s="455"/>
-      <c r="M57" s="456"/>
+      <c r="L57" s="479"/>
+      <c r="M57" s="480"/>
     </row>
     <row r="58" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="509" t="s">
+      <c r="B58" s="496" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="538"/>
+      <c r="C58" s="497"/>
       <c r="D58" s="180"/>
       <c r="E58" s="179" t="e">
         <f>D58/D51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F58" s="178"/>
-      <c r="G58" s="539" t="e">
+      <c r="G58" s="498" t="e">
         <f>F58/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="540"/>
+      <c r="H58" s="499"/>
       <c r="I58" s="177" t="e">
         <f>D58/D58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J58" s="141"/>
-      <c r="K58" s="536" t="s">
+      <c r="K58" s="494" t="s">
         <v>116</v>
       </c>
-      <c r="L58" s="537"/>
+      <c r="L58" s="495"/>
       <c r="M58" s="175">
         <f>D52</f>
         <v>0</v>
@@ -9183,11 +9177,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F59" s="155"/>
-      <c r="G59" s="474" t="e">
+      <c r="G59" s="512" t="e">
         <f>F59/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H59" s="475"/>
+      <c r="H59" s="513"/>
       <c r="I59" s="153" t="e">
         <f>D59/D58</f>
         <v>#DIV/0!</v>
@@ -9202,40 +9196,40 @@
       </c>
     </row>
     <row r="60" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="471" t="s">
+      <c r="B60" s="501" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="542"/>
+      <c r="C60" s="502"/>
       <c r="D60" s="151"/>
       <c r="E60" s="156" t="e">
         <f>D60/D51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F60" s="149"/>
-      <c r="G60" s="474" t="e">
+      <c r="G60" s="512" t="e">
         <f>F60/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="475"/>
+      <c r="H60" s="513"/>
       <c r="I60" s="153" t="e">
         <f>D60/D58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J60" s="141"/>
-      <c r="K60" s="461" t="s">
+      <c r="K60" s="584" t="s">
         <v>110</v>
       </c>
-      <c r="L60" s="462"/>
+      <c r="L60" s="585"/>
       <c r="M60" s="168">
         <f>M58*M59</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:21" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="532" t="s">
+      <c r="B61" s="514" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="533"/>
+      <c r="C61" s="515"/>
       <c r="D61" s="193">
         <f>D58-D59-D60</f>
         <v>0</v>
@@ -9248,20 +9242,20 @@
         <f>F58-F59-F60</f>
         <v>0</v>
       </c>
-      <c r="G61" s="478" t="e">
+      <c r="G61" s="545" t="e">
         <f>F61/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="479"/>
+      <c r="H61" s="546"/>
       <c r="I61" s="153" t="e">
         <f>D61/D58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J61" s="141"/>
-      <c r="K61" s="465" t="s">
+      <c r="K61" s="492" t="s">
         <v>75</v>
       </c>
-      <c r="L61" s="473"/>
+      <c r="L61" s="493"/>
       <c r="M61" s="168">
         <f>M58-M60</f>
         <v>0</v>
@@ -9278,49 +9272,49 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F62" s="155"/>
-      <c r="G62" s="474" t="e">
+      <c r="G62" s="512" t="e">
         <f>F62/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="475"/>
+      <c r="H62" s="513"/>
       <c r="I62" s="153" t="e">
         <f>D62/D58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J62" s="141"/>
-      <c r="K62" s="465" t="s">
+      <c r="K62" s="492" t="s">
         <v>74</v>
       </c>
-      <c r="L62" s="473"/>
+      <c r="L62" s="493"/>
       <c r="M62" s="136">
         <v>0.04</v>
       </c>
     </row>
     <row r="63" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="471" t="s">
+      <c r="B63" s="501" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="472"/>
+      <c r="C63" s="542"/>
       <c r="D63" s="151"/>
       <c r="E63" s="150" t="e">
         <f>D63/D51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F63" s="149"/>
-      <c r="G63" s="488" t="e">
+      <c r="G63" s="555" t="e">
         <f>F63/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="489"/>
+      <c r="H63" s="556"/>
       <c r="I63" s="147" t="e">
         <f>D63/D58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J63" s="141"/>
-      <c r="K63" s="534" t="s">
+      <c r="K63" s="490" t="s">
         <v>104</v>
       </c>
-      <c r="L63" s="535"/>
+      <c r="L63" s="491"/>
       <c r="M63" s="131">
         <v>250</v>
       </c>
@@ -9342,11 +9336,11 @@
         <f>F61+F62+F63</f>
         <v>0</v>
       </c>
-      <c r="G64" s="463" t="e">
+      <c r="G64" s="557" t="e">
         <f>F64/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="464"/>
+      <c r="H64" s="558"/>
       <c r="I64" s="142" t="e">
         <f>D64/D58</f>
         <v>#DIV/0!</v>
@@ -9367,8 +9361,8 @@
       <c r="D65" s="188"/>
       <c r="E65" s="187"/>
       <c r="F65" s="186"/>
-      <c r="G65" s="541"/>
-      <c r="H65" s="541"/>
+      <c r="G65" s="500"/>
+      <c r="H65" s="500"/>
       <c r="I65" s="113"/>
       <c r="J65" s="113"/>
       <c r="K65" s="113"/>
@@ -9389,38 +9383,38 @@
       <c r="F66" s="182" t="s">
         <v>98</v>
       </c>
-      <c r="G66" s="455" t="s">
+      <c r="G66" s="479" t="s">
         <v>97</v>
       </c>
-      <c r="H66" s="456"/>
+      <c r="H66" s="480"/>
       <c r="I66" s="181" t="s">
         <v>96</v>
       </c>
       <c r="J66" s="107"/>
-      <c r="K66" s="454" t="s">
+      <c r="K66" s="478" t="s">
         <v>95</v>
       </c>
-      <c r="L66" s="455"/>
-      <c r="M66" s="456"/>
+      <c r="L66" s="479"/>
+      <c r="M66" s="480"/>
       <c r="N66" s="105"/>
       <c r="O66" s="105"/>
     </row>
     <row r="67" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="509" t="s">
+      <c r="B67" s="496" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="466"/>
+      <c r="C67" s="541"/>
       <c r="D67" s="180"/>
       <c r="E67" s="179" t="e">
         <f>D67/D51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F67" s="178"/>
-      <c r="G67" s="499" t="e">
+      <c r="G67" s="529" t="e">
         <f>F67/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H67" s="500"/>
+      <c r="H67" s="530"/>
       <c r="I67" s="177" t="e">
         <f>D67/D58</f>
         <v>#DIV/0!</v>
@@ -9438,21 +9432,21 @@
       </c>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B68" s="465" t="s">
+      <c r="B68" s="492" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="504"/>
+      <c r="C68" s="536"/>
       <c r="D68" s="157"/>
       <c r="E68" s="156" t="e">
         <f>D68/D51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F68" s="155"/>
-      <c r="G68" s="459" t="e">
+      <c r="G68" s="531" t="e">
         <f>F68/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H68" s="460"/>
+      <c r="H68" s="532"/>
       <c r="I68" s="153" t="e">
         <f>D68/D58</f>
         <v>#DIV/0!</v>
@@ -9477,11 +9471,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F69" s="155"/>
-      <c r="G69" s="459" t="e">
+      <c r="G69" s="531" t="e">
         <f>F69/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H69" s="460"/>
+      <c r="H69" s="532"/>
       <c r="I69" s="153" t="e">
         <f>D69/D58</f>
         <v>#DIV/0!</v>
@@ -9497,21 +9491,21 @@
       </c>
     </row>
     <row r="70" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="465" t="s">
+      <c r="B70" s="492" t="s">
         <v>87</v>
       </c>
-      <c r="C70" s="503"/>
+      <c r="C70" s="535"/>
       <c r="D70" s="157"/>
       <c r="E70" s="170" t="e">
         <f>D70/D51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F70" s="155"/>
-      <c r="G70" s="459" t="e">
+      <c r="G70" s="531" t="e">
         <f>F70/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H70" s="460"/>
+      <c r="H70" s="532"/>
       <c r="I70" s="153" t="e">
         <f>D70/D58</f>
         <v>#DIV/0!</v>
@@ -9542,41 +9536,41 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F71" s="155"/>
-      <c r="G71" s="459" t="e">
+      <c r="G71" s="531" t="e">
         <f>F71/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H71" s="460"/>
+      <c r="H71" s="532"/>
       <c r="I71" s="153" t="e">
         <f>D71/D58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J71" s="141"/>
-      <c r="K71" s="457" t="s">
+      <c r="K71" s="582" t="s">
         <v>84</v>
       </c>
-      <c r="L71" s="458"/>
+      <c r="L71" s="583"/>
       <c r="M71" s="412">
         <f>M83+M84+M85+M86+M87+M88+M89+M90</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B72" s="465" t="s">
+      <c r="B72" s="492" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="466"/>
+      <c r="C72" s="541"/>
       <c r="D72" s="157"/>
       <c r="E72" s="156" t="e">
         <f>D72/D51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F72" s="155"/>
-      <c r="G72" s="459" t="e">
+      <c r="G72" s="531" t="e">
         <f>F72/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H72" s="460"/>
+      <c r="H72" s="532"/>
       <c r="I72" s="153" t="e">
         <f>D72/D58</f>
         <v>#DIV/0!</v>
@@ -9592,21 +9586,21 @@
       </c>
     </row>
     <row r="73" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="465" t="s">
+      <c r="B73" s="492" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="504"/>
+      <c r="C73" s="536"/>
       <c r="D73" s="157"/>
       <c r="E73" s="156" t="e">
         <f>D73/D51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F73" s="155"/>
-      <c r="G73" s="459" t="e">
+      <c r="G73" s="531" t="e">
         <f>F73/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H73" s="460"/>
+      <c r="H73" s="532"/>
       <c r="I73" s="153" t="e">
         <f>D73/D58</f>
         <v>#DIV/0!</v>
@@ -9617,21 +9611,21 @@
       <c r="M73" s="161"/>
     </row>
     <row r="74" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="465" t="s">
+      <c r="B74" s="492" t="s">
         <v>79</v>
       </c>
-      <c r="C74" s="504"/>
+      <c r="C74" s="536"/>
       <c r="D74" s="157"/>
       <c r="E74" s="156" t="e">
         <f>D74/D51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F74" s="155"/>
-      <c r="G74" s="459" t="e">
+      <c r="G74" s="531" t="e">
         <f>F74/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H74" s="460"/>
+      <c r="H74" s="532"/>
       <c r="I74" s="153" t="e">
         <f>D74/D58</f>
         <v>#DIV/0!</v>
@@ -9647,21 +9641,21 @@
       </c>
     </row>
     <row r="75" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="471" t="s">
+      <c r="B75" s="501" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="472"/>
+      <c r="C75" s="542"/>
       <c r="D75" s="151"/>
       <c r="E75" s="150" t="e">
         <f>D75/D51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F75" s="149"/>
-      <c r="G75" s="505" t="e">
+      <c r="G75" s="537" t="e">
         <f>F75/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H75" s="506"/>
+      <c r="H75" s="538"/>
       <c r="I75" s="147" t="e">
         <f>D75/D58</f>
         <v>#DIV/0!</v>
@@ -9689,34 +9683,34 @@
         <f>SUM(F67:F75)</f>
         <v>0</v>
       </c>
-      <c r="G76" s="463" t="e">
+      <c r="G76" s="557" t="e">
         <f>F76/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H76" s="464"/>
+      <c r="H76" s="558"/>
       <c r="I76" s="142" t="e">
         <f>D76/D58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J76" s="141"/>
-      <c r="K76" s="454" t="s">
+      <c r="K76" s="478" t="s">
         <v>76</v>
       </c>
-      <c r="L76" s="455"/>
-      <c r="M76" s="456"/>
+      <c r="L76" s="479"/>
+      <c r="M76" s="480"/>
       <c r="S76" s="122"/>
     </row>
     <row r="77" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="480" t="s">
+      <c r="B77" s="547" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="481"/>
-      <c r="D77" s="484">
+      <c r="C77" s="548"/>
+      <c r="D77" s="551">
         <f>D64-D76</f>
         <v>0</v>
       </c>
       <c r="E77" s="140"/>
-      <c r="F77" s="484">
+      <c r="F77" s="551">
         <f>F64-F76</f>
         <v>0</v>
       </c>
@@ -9732,11 +9726,11 @@
       <c r="S77" s="122"/>
     </row>
     <row r="78" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="482"/>
-      <c r="C78" s="483"/>
-      <c r="D78" s="485"/>
+      <c r="B78" s="549"/>
+      <c r="C78" s="550"/>
+      <c r="D78" s="552"/>
       <c r="E78" s="113"/>
-      <c r="F78" s="485"/>
+      <c r="F78" s="552"/>
       <c r="G78" s="120"/>
       <c r="H78" s="120"/>
       <c r="I78" s="120"/>
@@ -9749,10 +9743,10 @@
       <c r="S78" s="122"/>
     </row>
     <row r="79" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="507" t="s">
+      <c r="B79" s="539" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="508"/>
+      <c r="C79" s="540"/>
       <c r="D79" s="134">
         <f>D51*E79</f>
         <v>0</v>
@@ -9768,10 +9762,10 @@
       <c r="H79" s="120"/>
       <c r="I79" s="120"/>
       <c r="J79" s="120"/>
-      <c r="K79" s="469" t="s">
+      <c r="K79" s="470" t="s">
         <v>72</v>
       </c>
-      <c r="L79" s="470"/>
+      <c r="L79" s="588"/>
       <c r="M79" s="131">
         <v>250</v>
       </c>
@@ -9806,10 +9800,10 @@
       <c r="S80" s="122"/>
     </row>
     <row r="81" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="501" t="s">
+      <c r="B81" s="533" t="s">
         <v>69</v>
       </c>
-      <c r="C81" s="502"/>
+      <c r="C81" s="534"/>
       <c r="D81" s="112">
         <f>M64</f>
         <v>0</v>
@@ -9829,10 +9823,10 @@
       <c r="S81" s="122"/>
     </row>
     <row r="82" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="497" t="s">
+      <c r="B82" s="527" t="s">
         <v>68</v>
       </c>
-      <c r="C82" s="498"/>
+      <c r="C82" s="528"/>
       <c r="D82" s="123">
         <f>M80</f>
         <v>0</v>
@@ -9846,18 +9840,18 @@
       <c r="H82" s="410"/>
       <c r="I82" s="410"/>
       <c r="J82" s="410"/>
-      <c r="K82" s="445" t="s">
+      <c r="K82" s="573" t="s">
         <v>199</v>
       </c>
-      <c r="L82" s="446"/>
-      <c r="M82" s="447"/>
+      <c r="L82" s="574"/>
+      <c r="M82" s="575"/>
       <c r="S82" s="122"/>
     </row>
     <row r="83" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B83" s="501" t="s">
+      <c r="B83" s="533" t="s">
         <v>174</v>
       </c>
-      <c r="C83" s="502"/>
+      <c r="C83" s="534"/>
       <c r="D83" s="112">
         <f>(D80-D81-D82)</f>
         <v>0</v>
@@ -9871,17 +9865,17 @@
       <c r="H83" s="411"/>
       <c r="I83" s="411"/>
       <c r="J83" s="411"/>
-      <c r="K83" s="448" t="s">
+      <c r="K83" s="576" t="s">
         <v>200</v>
       </c>
-      <c r="L83" s="449"/>
+      <c r="L83" s="577"/>
       <c r="M83" s="409"/>
     </row>
     <row r="84" spans="2:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="497" t="s">
+      <c r="B84" s="527" t="s">
         <v>66</v>
       </c>
-      <c r="C84" s="498"/>
+      <c r="C84" s="528"/>
       <c r="D84" s="117" t="e">
         <f>D83/M74</f>
         <v>#DIV/0!</v>
@@ -9895,17 +9889,17 @@
       <c r="H84" s="411"/>
       <c r="I84" s="411"/>
       <c r="J84" s="411"/>
-      <c r="K84" s="450" t="s">
+      <c r="K84" s="578" t="s">
         <v>203</v>
       </c>
-      <c r="L84" s="451"/>
+      <c r="L84" s="579"/>
       <c r="M84" s="407"/>
     </row>
     <row r="85" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="497" t="s">
+      <c r="B85" s="527" t="s">
         <v>65</v>
       </c>
-      <c r="C85" s="498"/>
+      <c r="C85" s="528"/>
       <c r="D85" s="118" t="e">
         <f>D80/(D81+D82)</f>
         <v>#DIV/0!</v>
@@ -9921,17 +9915,17 @@
       <c r="H85" s="411"/>
       <c r="I85" s="411"/>
       <c r="J85" s="411"/>
-      <c r="K85" s="450" t="s">
+      <c r="K85" s="578" t="s">
         <v>204</v>
       </c>
-      <c r="L85" s="451"/>
+      <c r="L85" s="579"/>
       <c r="M85" s="407"/>
     </row>
     <row r="86" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="497" t="s">
+      <c r="B86" s="527" t="s">
         <v>64</v>
       </c>
-      <c r="C86" s="498"/>
+      <c r="C86" s="528"/>
       <c r="D86" s="117" t="e">
         <f>D77/D52</f>
         <v>#DIV/0!</v>
@@ -9947,17 +9941,17 @@
       <c r="H86" s="411"/>
       <c r="I86" s="411"/>
       <c r="J86" s="411"/>
-      <c r="K86" s="450" t="s">
+      <c r="K86" s="578" t="s">
         <v>201</v>
       </c>
-      <c r="L86" s="451"/>
+      <c r="L86" s="579"/>
       <c r="M86" s="407"/>
     </row>
     <row r="87" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="497" t="s">
+      <c r="B87" s="527" t="s">
         <v>176</v>
       </c>
-      <c r="C87" s="498"/>
+      <c r="C87" s="528"/>
       <c r="D87" s="112">
         <f>D83*E87</f>
         <v>0</v>
@@ -9975,17 +9969,17 @@
       <c r="H87" s="411"/>
       <c r="I87" s="411"/>
       <c r="J87" s="411"/>
-      <c r="K87" s="450" t="s">
+      <c r="K87" s="578" t="s">
         <v>202</v>
       </c>
-      <c r="L87" s="451"/>
+      <c r="L87" s="579"/>
       <c r="M87" s="407"/>
     </row>
     <row r="88" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B88" s="497" t="s">
+      <c r="B88" s="527" t="s">
         <v>173</v>
       </c>
-      <c r="C88" s="498"/>
+      <c r="C88" s="528"/>
       <c r="D88" s="112">
         <f>D83-D87</f>
         <v>0</v>
@@ -9999,17 +9993,17 @@
       <c r="H88" s="411"/>
       <c r="I88" s="411"/>
       <c r="J88" s="411"/>
-      <c r="K88" s="450" t="s">
+      <c r="K88" s="578" t="s">
         <v>205</v>
       </c>
-      <c r="L88" s="451"/>
+      <c r="L88" s="579"/>
       <c r="M88" s="407"/>
     </row>
     <row r="89" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="495" t="s">
+      <c r="B89" s="525" t="s">
         <v>171</v>
       </c>
-      <c r="C89" s="496"/>
+      <c r="C89" s="526"/>
       <c r="D89" s="108" t="e">
         <f>D88/M74</f>
         <v>#DIV/0!</v>
@@ -10023,8 +10017,8 @@
       <c r="H89" s="411"/>
       <c r="I89" s="411"/>
       <c r="J89" s="411"/>
-      <c r="K89" s="467"/>
-      <c r="L89" s="468"/>
+      <c r="K89" s="586"/>
+      <c r="L89" s="587"/>
       <c r="M89" s="407"/>
       <c r="S89" s="106" t="s">
         <v>63</v>
@@ -10034,8 +10028,8 @@
       <c r="F90" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="K90" s="440"/>
-      <c r="L90" s="441"/>
+      <c r="K90" s="571"/>
+      <c r="L90" s="572"/>
       <c r="M90" s="408"/>
     </row>
     <row r="91" spans="2:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -10044,15 +10038,89 @@
   </sheetData>
   <sheetProtection password="9D59" sheet="1" selectLockedCells="1"/>
   <mergeCells count="120">
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="B41:O41"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B47:M47"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E51:H52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="B60:C60"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="F3:O3"/>
     <mergeCell ref="B7:O7"/>
@@ -10077,93 +10145,19 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D13:I13"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="D19:I19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B47:M47"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="E51:H52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="B41:O41"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G57:H57"/>
   </mergeCells>
   <conditionalFormatting sqref="E68">
     <cfRule type="cellIs" dxfId="84" priority="25" stopIfTrue="1" operator="between">
@@ -10386,27 +10380,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="528" t="s">
+      <c r="B2" s="508" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="529"/>
-      <c r="D2" s="529"/>
-      <c r="E2" s="529"/>
-      <c r="F2" s="529"/>
-      <c r="G2" s="529"/>
-      <c r="H2" s="529"/>
-      <c r="I2" s="529"/>
-      <c r="J2" s="529"/>
-      <c r="K2" s="529"/>
-      <c r="L2" s="529"/>
-      <c r="M2" s="530"/>
-      <c r="P2" s="627" t="s">
+      <c r="C2" s="509"/>
+      <c r="D2" s="509"/>
+      <c r="E2" s="509"/>
+      <c r="F2" s="509"/>
+      <c r="G2" s="509"/>
+      <c r="H2" s="509"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="509"/>
+      <c r="K2" s="509"/>
+      <c r="L2" s="509"/>
+      <c r="M2" s="510"/>
+      <c r="P2" s="592" t="s">
         <v>144</v>
       </c>
-      <c r="Q2" s="628"/>
-      <c r="R2" s="628"/>
-      <c r="S2" s="628"/>
-      <c r="T2" s="629"/>
+      <c r="Q2" s="593"/>
+      <c r="R2" s="593"/>
+      <c r="S2" s="593"/>
+      <c r="T2" s="594"/>
       <c r="U2" s="231"/>
     </row>
     <row r="3" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10430,122 +10424,122 @@
       <c r="U3" s="105"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="454" t="s">
+      <c r="B4" s="478" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="455"/>
-      <c r="D4" s="456"/>
-      <c r="E4" s="624" t="s">
+      <c r="C4" s="479"/>
+      <c r="D4" s="480"/>
+      <c r="E4" s="589" t="s">
         <v>198</v>
       </c>
-      <c r="F4" s="625"/>
-      <c r="G4" s="625"/>
-      <c r="H4" s="625"/>
-      <c r="I4" s="626"/>
+      <c r="F4" s="590"/>
+      <c r="G4" s="590"/>
+      <c r="H4" s="590"/>
+      <c r="I4" s="591"/>
       <c r="J4" s="375"/>
-      <c r="K4" s="632" t="s">
+      <c r="K4" s="600" t="s">
         <v>150</v>
       </c>
-      <c r="L4" s="632"/>
-      <c r="M4" s="633"/>
-      <c r="P4" s="621" t="s">
+      <c r="L4" s="600"/>
+      <c r="M4" s="601"/>
+      <c r="P4" s="595" t="s">
         <v>141</v>
       </c>
-      <c r="Q4" s="622"/>
-      <c r="R4" s="622"/>
-      <c r="S4" s="622"/>
-      <c r="T4" s="623"/>
+      <c r="Q4" s="596"/>
+      <c r="R4" s="596"/>
+      <c r="S4" s="596"/>
+      <c r="T4" s="597"/>
       <c r="U4" s="105"/>
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="224" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="630">
+      <c r="C5" s="598">
         <f>'Acqusition-NF'!C50</f>
         <v>0</v>
       </c>
-      <c r="D5" s="631"/>
-      <c r="E5" s="657" t="s">
+      <c r="D5" s="599"/>
+      <c r="E5" s="619" t="s">
         <v>194</v>
       </c>
-      <c r="F5" s="658"/>
-      <c r="G5" s="658"/>
-      <c r="H5" s="659"/>
+      <c r="F5" s="620"/>
+      <c r="G5" s="620"/>
+      <c r="H5" s="621"/>
       <c r="I5" s="380">
         <f>'Acqusition-NF'!M51</f>
         <v>0</v>
       </c>
-      <c r="J5" s="646"/>
-      <c r="K5" s="634"/>
-      <c r="L5" s="635"/>
-      <c r="M5" s="636"/>
-      <c r="P5" s="621" t="s">
+      <c r="J5" s="605"/>
+      <c r="K5" s="602"/>
+      <c r="L5" s="603"/>
+      <c r="M5" s="604"/>
+      <c r="P5" s="595" t="s">
         <v>149</v>
       </c>
-      <c r="Q5" s="622"/>
-      <c r="R5" s="622"/>
-      <c r="S5" s="622"/>
-      <c r="T5" s="623"/>
+      <c r="Q5" s="596"/>
+      <c r="R5" s="596"/>
+      <c r="S5" s="596"/>
+      <c r="T5" s="597"/>
       <c r="U5" s="105"/>
     </row>
     <row r="6" spans="2:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="469" t="s">
+      <c r="B6" s="470" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="531"/>
+      <c r="C6" s="511"/>
       <c r="D6" s="271">
         <f>'Acqusition-NF'!D51</f>
         <v>0</v>
       </c>
-      <c r="E6" s="653" t="s">
+      <c r="E6" s="615" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="654"/>
-      <c r="G6" s="655"/>
-      <c r="H6" s="656"/>
+      <c r="F6" s="616"/>
+      <c r="G6" s="617"/>
+      <c r="H6" s="618"/>
       <c r="I6" s="381">
         <f>'Acqusition-NF'!M53</f>
         <v>0</v>
       </c>
-      <c r="J6" s="647"/>
-      <c r="K6" s="637"/>
-      <c r="L6" s="638"/>
-      <c r="M6" s="639"/>
-      <c r="P6" s="621" t="s">
+      <c r="J6" s="606"/>
+      <c r="K6" s="609"/>
+      <c r="L6" s="610"/>
+      <c r="M6" s="611"/>
+      <c r="P6" s="595" t="s">
         <v>133</v>
       </c>
-      <c r="Q6" s="622"/>
-      <c r="R6" s="622"/>
-      <c r="S6" s="622"/>
-      <c r="T6" s="623"/>
+      <c r="Q6" s="596"/>
+      <c r="R6" s="596"/>
+      <c r="S6" s="596"/>
+      <c r="T6" s="597"/>
       <c r="U6" s="211"/>
     </row>
     <row r="7" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="469" t="s">
+      <c r="B7" s="470" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="490"/>
+      <c r="C7" s="471"/>
       <c r="D7" s="252">
         <f>'Acqusition-NF'!D52</f>
         <v>0</v>
       </c>
-      <c r="E7" s="653" t="s">
+      <c r="E7" s="615" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="666"/>
-      <c r="G7" s="660">
-        <v>0</v>
-      </c>
-      <c r="H7" s="661"/>
+      <c r="F7" s="628"/>
+      <c r="G7" s="622">
+        <v>0</v>
+      </c>
+      <c r="H7" s="623"/>
       <c r="I7" s="381">
         <f xml:space="preserve"> I6-(I6*G7)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="647"/>
-      <c r="K7" s="637"/>
-      <c r="L7" s="638"/>
-      <c r="M7" s="639"/>
+      <c r="J7" s="606"/>
+      <c r="K7" s="609"/>
+      <c r="L7" s="610"/>
+      <c r="M7" s="611"/>
       <c r="P7" s="214" t="s">
         <v>131</v>
       </c>
@@ -10556,66 +10550,66 @@
       <c r="U7" s="211"/>
     </row>
     <row r="8" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="469" t="s">
+      <c r="B8" s="470" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="490"/>
+      <c r="C8" s="471"/>
       <c r="D8" s="252" t="e">
         <f>'Acqusition-NF'!D53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="662" t="s">
+      <c r="E8" s="624" t="s">
         <v>197</v>
       </c>
-      <c r="F8" s="663"/>
-      <c r="G8" s="664"/>
-      <c r="H8" s="665"/>
+      <c r="F8" s="625"/>
+      <c r="G8" s="626"/>
+      <c r="H8" s="627"/>
       <c r="I8" s="382">
         <f>I5-I7</f>
         <v>0</v>
       </c>
-      <c r="J8" s="647"/>
-      <c r="K8" s="637"/>
-      <c r="L8" s="638"/>
-      <c r="M8" s="639"/>
+      <c r="J8" s="606"/>
+      <c r="K8" s="609"/>
+      <c r="L8" s="610"/>
+      <c r="M8" s="611"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B9" s="469" t="s">
+      <c r="B9" s="470" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="490"/>
+      <c r="C9" s="471"/>
       <c r="D9" s="270">
         <f>'Acqusition-NF'!D54</f>
         <v>0</v>
       </c>
-      <c r="E9" s="640"/>
-      <c r="F9" s="641"/>
-      <c r="G9" s="641"/>
-      <c r="H9" s="641"/>
-      <c r="I9" s="642"/>
-      <c r="J9" s="648"/>
-      <c r="K9" s="637"/>
-      <c r="L9" s="638"/>
-      <c r="M9" s="639"/>
+      <c r="E9" s="629"/>
+      <c r="F9" s="630"/>
+      <c r="G9" s="630"/>
+      <c r="H9" s="630"/>
+      <c r="I9" s="631"/>
+      <c r="J9" s="607"/>
+      <c r="K9" s="609"/>
+      <c r="L9" s="610"/>
+      <c r="M9" s="611"/>
     </row>
     <row r="10" spans="2:21" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="543" t="s">
+      <c r="B10" s="516" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="544"/>
+      <c r="C10" s="517"/>
       <c r="D10" s="374" t="e">
         <f>'Acqusition-NF'!D55</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="643"/>
-      <c r="F10" s="644"/>
-      <c r="G10" s="644"/>
-      <c r="H10" s="644"/>
-      <c r="I10" s="645"/>
-      <c r="J10" s="649"/>
-      <c r="K10" s="650"/>
-      <c r="L10" s="651"/>
-      <c r="M10" s="652"/>
+      <c r="E10" s="632"/>
+      <c r="F10" s="633"/>
+      <c r="G10" s="633"/>
+      <c r="H10" s="633"/>
+      <c r="I10" s="634"/>
+      <c r="J10" s="608"/>
+      <c r="K10" s="612"/>
+      <c r="L10" s="613"/>
+      <c r="M10" s="614"/>
     </row>
     <row r="11" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="201"/>
@@ -10645,30 +10639,30 @@
       <c r="F12" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="455" t="s">
+      <c r="G12" s="479" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="456"/>
+      <c r="H12" s="480"/>
       <c r="I12" s="261" t="s">
         <v>147</v>
       </c>
       <c r="J12" s="107"/>
-      <c r="K12" s="454" t="s">
+      <c r="K12" s="478" t="s">
         <v>120</v>
       </c>
-      <c r="L12" s="455"/>
-      <c r="M12" s="456"/>
-      <c r="P12" s="454" t="s">
+      <c r="L12" s="479"/>
+      <c r="M12" s="480"/>
+      <c r="P12" s="478" t="s">
         <v>83</v>
       </c>
-      <c r="Q12" s="455"/>
-      <c r="R12" s="456"/>
+      <c r="Q12" s="479"/>
+      <c r="R12" s="480"/>
     </row>
     <row r="13" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="509" t="s">
+      <c r="B13" s="496" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="538"/>
+      <c r="C13" s="497"/>
       <c r="D13" s="252">
         <f>'Acqusition-NF'!D58</f>
         <v>0</v>
@@ -10678,29 +10672,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="260"/>
-      <c r="G13" s="539" t="e">
+      <c r="G13" s="498" t="e">
         <f>F13/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="540"/>
+      <c r="H13" s="499"/>
       <c r="I13" s="259" t="e">
         <f>F13/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="141"/>
-      <c r="K13" s="536" t="s">
+      <c r="K13" s="494" t="s">
         <v>116</v>
       </c>
-      <c r="L13" s="537"/>
+      <c r="L13" s="495"/>
       <c r="M13" s="175">
         <f>D7</f>
         <v>0</v>
       </c>
       <c r="P13" s="162"/>
-      <c r="Q13" s="547" t="s">
+      <c r="Q13" s="520" t="s">
         <v>81</v>
       </c>
-      <c r="R13" s="548"/>
+      <c r="R13" s="521"/>
     </row>
     <row r="14" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="159" t="s">
@@ -10721,11 +10715,11 @@
         <f>C14*F13</f>
         <v>0</v>
       </c>
-      <c r="G14" s="474" t="e">
+      <c r="G14" s="512" t="e">
         <f>F14/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="475"/>
+      <c r="H14" s="513"/>
       <c r="I14" s="235" t="e">
         <f>F14/F13</f>
         <v>#DIV/0!</v>
@@ -10740,16 +10734,16 @@
         <v>0.2</v>
       </c>
       <c r="P14" s="160"/>
-      <c r="Q14" s="547" t="s">
+      <c r="Q14" s="520" t="s">
         <v>80</v>
       </c>
-      <c r="R14" s="548"/>
+      <c r="R14" s="521"/>
     </row>
     <row r="15" spans="2:21" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="471" t="s">
+      <c r="B15" s="501" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="542"/>
+      <c r="C15" s="502"/>
       <c r="D15" s="265">
         <f>'Acqusition-NF'!D60</f>
         <v>0</v>
@@ -10759,29 +10753,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="250"/>
-      <c r="G15" s="488" t="e">
+      <c r="G15" s="555" t="e">
         <f>F15/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="489"/>
+      <c r="H15" s="556"/>
       <c r="I15" s="249" t="e">
         <f>F15/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="141"/>
-      <c r="K15" s="461" t="s">
+      <c r="K15" s="584" t="s">
         <v>110</v>
       </c>
-      <c r="L15" s="462"/>
+      <c r="L15" s="585"/>
       <c r="M15" s="168">
         <f>M13*M14</f>
         <v>0</v>
       </c>
       <c r="P15" s="152"/>
-      <c r="Q15" s="547" t="s">
+      <c r="Q15" s="520" t="s">
         <v>77</v>
       </c>
-      <c r="R15" s="548"/>
+      <c r="R15" s="521"/>
     </row>
     <row r="16" spans="2:21" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B16" s="195" t="s">
@@ -10800,20 +10794,20 @@
         <f>F13-F14-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="611" t="e">
+      <c r="G16" s="635" t="e">
         <f>F16/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="612"/>
+      <c r="H16" s="636"/>
       <c r="I16" s="259" t="e">
         <f>F16/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="141"/>
-      <c r="K16" s="465" t="s">
+      <c r="K16" s="492" t="s">
         <v>75</v>
       </c>
-      <c r="L16" s="473"/>
+      <c r="L16" s="493"/>
       <c r="M16" s="168">
         <f>M13-M15</f>
         <v>0</v>
@@ -10833,30 +10827,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="251"/>
-      <c r="G17" s="474" t="e">
+      <c r="G17" s="512" t="e">
         <f>F17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="475"/>
+      <c r="H17" s="513"/>
       <c r="I17" s="235" t="e">
         <f>F17/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="141"/>
-      <c r="K17" s="465" t="s">
+      <c r="K17" s="492" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="473"/>
+      <c r="L17" s="493"/>
       <c r="M17" s="266">
         <f>'Acqusition-NF'!M62</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="471" t="s">
+      <c r="B18" s="501" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="472"/>
+      <c r="C18" s="542"/>
       <c r="D18" s="265">
         <f>'Acqusition-NF'!D63</f>
         <v>0</v>
@@ -10866,20 +10860,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="250"/>
-      <c r="G18" s="488" t="e">
+      <c r="G18" s="555" t="e">
         <f>F18/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="489"/>
+      <c r="H18" s="556"/>
       <c r="I18" s="249" t="e">
         <f>F18/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="141"/>
-      <c r="K18" s="534" t="s">
+      <c r="K18" s="490" t="s">
         <v>104</v>
       </c>
-      <c r="L18" s="535"/>
+      <c r="L18" s="491"/>
       <c r="M18" s="264">
         <f>'Acqusition-NF'!M63</f>
         <v>250</v>
@@ -10902,11 +10896,11 @@
         <f>F16+F17+F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="463" t="e">
+      <c r="G19" s="557" t="e">
         <f>F19/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="464"/>
+      <c r="H19" s="558"/>
       <c r="I19" s="248" t="e">
         <f>F19/F13</f>
         <v>#DIV/0!</v>
@@ -10927,8 +10921,8 @@
       <c r="D20" s="188"/>
       <c r="E20" s="187"/>
       <c r="F20" s="186"/>
-      <c r="G20" s="541"/>
-      <c r="H20" s="541"/>
+      <c r="G20" s="500"/>
+      <c r="H20" s="500"/>
       <c r="I20" s="113"/>
       <c r="J20" s="113"/>
       <c r="K20" s="113"/>
@@ -10949,27 +10943,27 @@
       <c r="F21" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="455" t="s">
+      <c r="G21" s="479" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="456"/>
+      <c r="H21" s="480"/>
       <c r="I21" s="261" t="s">
         <v>147</v>
       </c>
       <c r="J21" s="107"/>
-      <c r="K21" s="608" t="s">
+      <c r="K21" s="649" t="s">
         <v>95</v>
       </c>
-      <c r="L21" s="609"/>
-      <c r="M21" s="606"/>
+      <c r="L21" s="650"/>
+      <c r="M21" s="651"/>
       <c r="N21" s="105"/>
       <c r="O21" s="105"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B22" s="509" t="s">
+      <c r="B22" s="496" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="466"/>
+      <c r="C22" s="541"/>
       <c r="D22" s="252">
         <f>'Acqusition-NF'!D67</f>
         <v>0</v>
@@ -10979,30 +10973,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="260"/>
-      <c r="G22" s="499" t="e">
+      <c r="G22" s="529" t="e">
         <f>F22/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="500"/>
+      <c r="H22" s="530"/>
       <c r="I22" s="259" t="e">
         <f>F22/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="141"/>
-      <c r="K22" s="619" t="s">
+      <c r="K22" s="647" t="s">
         <v>93</v>
       </c>
-      <c r="L22" s="620"/>
+      <c r="L22" s="648"/>
       <c r="M22" s="175">
         <f>'Acqusition-NF'!M67</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="465" t="s">
+      <c r="B23" s="492" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="504"/>
+      <c r="C23" s="536"/>
       <c r="D23" s="252">
         <f>'Acqusition-NF'!D68</f>
         <v>0</v>
@@ -11012,20 +11006,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="251"/>
-      <c r="G23" s="459" t="e">
+      <c r="G23" s="531" t="e">
         <f>F23/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="460"/>
+      <c r="H23" s="532"/>
       <c r="I23" s="235" t="e">
         <f>F23/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="141"/>
-      <c r="K23" s="465" t="s">
+      <c r="K23" s="492" t="s">
         <v>91</v>
       </c>
-      <c r="L23" s="473"/>
+      <c r="L23" s="493"/>
       <c r="M23" s="205">
         <f>'Acqusition-NF'!M68</f>
         <v>0.01</v>
@@ -11045,30 +11039,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="251"/>
-      <c r="G24" s="459" t="e">
+      <c r="G24" s="531" t="e">
         <f>F24/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="460"/>
+      <c r="H24" s="532"/>
       <c r="I24" s="235" t="e">
         <f>F24/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="141"/>
-      <c r="K24" s="465" t="s">
+      <c r="K24" s="492" t="s">
         <v>88</v>
       </c>
-      <c r="L24" s="473"/>
+      <c r="L24" s="493"/>
       <c r="M24" s="168">
         <f>'Acqusition-NF'!M69</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="465" t="s">
+      <c r="B25" s="492" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="503"/>
+      <c r="C25" s="535"/>
       <c r="D25" s="252">
         <f>'Acqusition-NF'!D70</f>
         <v>0</v>
@@ -11078,20 +11072,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="251"/>
-      <c r="G25" s="459" t="e">
+      <c r="G25" s="531" t="e">
         <f>F25/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="460"/>
+      <c r="H25" s="532"/>
       <c r="I25" s="235" t="e">
         <f>D25/D13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="141"/>
-      <c r="K25" s="534" t="s">
+      <c r="K25" s="490" t="s">
         <v>86</v>
       </c>
-      <c r="L25" s="535"/>
+      <c r="L25" s="491"/>
       <c r="M25" s="168">
         <f>'Acqusition-NF'!M70</f>
         <v>0</v>
@@ -11117,30 +11111,30 @@
         <f>F19*C26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="459" t="e">
+      <c r="G26" s="531" t="e">
         <f>F26/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="460"/>
+      <c r="H26" s="532"/>
       <c r="I26" s="235" t="e">
         <f>F26/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="141"/>
-      <c r="K26" s="617" t="s">
+      <c r="K26" s="645" t="s">
         <v>84</v>
       </c>
-      <c r="L26" s="618"/>
+      <c r="L26" s="646"/>
       <c r="M26" s="124">
         <f>'Acqusition-NF'!M71</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="465" t="s">
+      <c r="B27" s="492" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="466"/>
+      <c r="C27" s="541"/>
       <c r="D27" s="252">
         <f>'Acqusition-NF'!D72</f>
         <v>0</v>
@@ -11150,11 +11144,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="251"/>
-      <c r="G27" s="459" t="e">
+      <c r="G27" s="531" t="e">
         <f>F27/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="460"/>
+      <c r="H27" s="532"/>
       <c r="I27" s="235" t="e">
         <f>F27/F13</f>
         <v>#DIV/0!</v>
@@ -11170,10 +11164,10 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="465" t="s">
+      <c r="B28" s="492" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="504"/>
+      <c r="C28" s="536"/>
       <c r="D28" s="252">
         <f>'Acqusition-NF'!D73</f>
         <v>0</v>
@@ -11183,11 +11177,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="251"/>
-      <c r="G28" s="459" t="e">
+      <c r="G28" s="531" t="e">
         <f>F28/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="460"/>
+      <c r="H28" s="532"/>
       <c r="I28" s="235" t="e">
         <f>F28/F13</f>
         <v>#DIV/0!</v>
@@ -11198,10 +11192,10 @@
       <c r="M28" s="253"/>
     </row>
     <row r="29" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="465" t="s">
+      <c r="B29" s="492" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="504"/>
+      <c r="C29" s="536"/>
       <c r="D29" s="252">
         <f>'Acqusition-NF'!D74</f>
         <v>0</v>
@@ -11211,11 +11205,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="251"/>
-      <c r="G29" s="459" t="e">
+      <c r="G29" s="531" t="e">
         <f>F29/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="460"/>
+      <c r="H29" s="532"/>
       <c r="I29" s="235" t="e">
         <f>F29/F13</f>
         <v>#DIV/0!</v>
@@ -11231,10 +11225,10 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="471" t="s">
+      <c r="B30" s="501" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="472"/>
+      <c r="C30" s="542"/>
       <c r="D30" s="192">
         <f>'Acqusition-NF'!D75</f>
         <v>0</v>
@@ -11244,11 +11238,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="250"/>
-      <c r="G30" s="505" t="e">
+      <c r="G30" s="537" t="e">
         <f>F30/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="506"/>
+      <c r="H30" s="538"/>
       <c r="I30" s="249" t="e">
         <f>F30/F13</f>
         <v>#DIV/0!</v>
@@ -11276,34 +11270,34 @@
         <f>SUM(F22:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="604" t="e">
+      <c r="G31" s="654" t="e">
         <f>F31/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="605"/>
+      <c r="H31" s="655"/>
       <c r="I31" s="248" t="e">
         <f>F31/F13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="141"/>
-      <c r="K31" s="454" t="s">
+      <c r="K31" s="478" t="s">
         <v>76</v>
       </c>
-      <c r="L31" s="455"/>
-      <c r="M31" s="606"/>
+      <c r="L31" s="479"/>
+      <c r="M31" s="651"/>
       <c r="S31" s="122"/>
     </row>
     <row r="32" spans="2:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="480" t="s">
+      <c r="B32" s="547" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="481"/>
-      <c r="D32" s="594">
+      <c r="C32" s="548"/>
+      <c r="D32" s="657">
         <f>'Acqusition-NF'!D77</f>
         <v>0</v>
       </c>
       <c r="E32" s="247"/>
-      <c r="F32" s="596">
+      <c r="F32" s="659">
         <f>F19-F31</f>
         <v>0</v>
       </c>
@@ -11322,11 +11316,11 @@
       <c r="S32" s="122"/>
     </row>
     <row r="33" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="482"/>
-      <c r="C33" s="483"/>
-      <c r="D33" s="595"/>
+      <c r="B33" s="549"/>
+      <c r="C33" s="550"/>
+      <c r="D33" s="658"/>
       <c r="E33" s="245"/>
-      <c r="F33" s="597"/>
+      <c r="F33" s="660"/>
       <c r="G33" s="120"/>
       <c r="H33" s="120"/>
       <c r="I33" s="120"/>
@@ -11342,10 +11336,10 @@
       <c r="S33" s="122"/>
     </row>
     <row r="34" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="507" t="s">
+      <c r="B34" s="539" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="508"/>
+      <c r="C34" s="540"/>
       <c r="D34" s="134">
         <f>'Acqusition-NF'!D79</f>
         <v>0</v>
@@ -11359,10 +11353,10 @@
       <c r="H34" s="120"/>
       <c r="I34" s="120"/>
       <c r="J34" s="120"/>
-      <c r="K34" s="469" t="s">
+      <c r="K34" s="470" t="s">
         <v>72</v>
       </c>
-      <c r="L34" s="598"/>
+      <c r="L34" s="661"/>
       <c r="M34" s="168">
         <f>'Acqusition-NF'!M79</f>
         <v>250</v>
@@ -11398,10 +11392,10 @@
       <c r="S35" s="122"/>
     </row>
     <row r="36" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="501" t="s">
+      <c r="B36" s="533" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="599"/>
+      <c r="C36" s="662"/>
       <c r="D36" s="233">
         <f>'Acqusition-NF'!D81</f>
         <v>0</v>
@@ -11421,10 +11415,10 @@
       <c r="S36" s="122"/>
     </row>
     <row r="37" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="497" t="s">
+      <c r="B37" s="527" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="603"/>
+      <c r="C37" s="656"/>
       <c r="D37" s="233">
         <f>'Acqusition-NF'!D82</f>
         <v>0</v>
@@ -11435,23 +11429,23 @@
         <v>0</v>
       </c>
       <c r="G37" s="119"/>
-      <c r="H37" s="445" t="s">
+      <c r="H37" s="573" t="s">
         <v>146</v>
       </c>
-      <c r="I37" s="446"/>
-      <c r="J37" s="446"/>
-      <c r="K37" s="446"/>
-      <c r="L37" s="445" t="s">
+      <c r="I37" s="574"/>
+      <c r="J37" s="574"/>
+      <c r="K37" s="574"/>
+      <c r="L37" s="573" t="s">
         <v>145</v>
       </c>
-      <c r="M37" s="447"/>
+      <c r="M37" s="575"/>
       <c r="S37" s="122"/>
     </row>
     <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="501" t="s">
+      <c r="B38" s="533" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="599"/>
+      <c r="C38" s="662"/>
       <c r="D38" s="233">
         <f>'Acqusition-NF'!D83</f>
         <v>0</v>
@@ -11462,18 +11456,18 @@
         <v>0</v>
       </c>
       <c r="G38" s="120"/>
-      <c r="H38" s="600"/>
-      <c r="I38" s="601"/>
-      <c r="J38" s="601"/>
-      <c r="K38" s="602"/>
-      <c r="L38" s="600"/>
-      <c r="M38" s="610"/>
+      <c r="H38" s="652"/>
+      <c r="I38" s="663"/>
+      <c r="J38" s="663"/>
+      <c r="K38" s="664"/>
+      <c r="L38" s="652"/>
+      <c r="M38" s="653"/>
     </row>
     <row r="39" spans="2:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="497" t="s">
+      <c r="B39" s="527" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="603"/>
+      <c r="C39" s="656"/>
       <c r="D39" s="237" t="e">
         <f>'Acqusition-NF'!D84</f>
         <v>#DIV/0!</v>
@@ -11484,18 +11478,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G39" s="119"/>
-      <c r="H39" s="591"/>
-      <c r="I39" s="592"/>
-      <c r="J39" s="592"/>
-      <c r="K39" s="593"/>
-      <c r="L39" s="591"/>
-      <c r="M39" s="607"/>
+      <c r="H39" s="637"/>
+      <c r="I39" s="641"/>
+      <c r="J39" s="641"/>
+      <c r="K39" s="642"/>
+      <c r="L39" s="637"/>
+      <c r="M39" s="638"/>
     </row>
     <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="497" t="s">
+      <c r="B40" s="527" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="603"/>
+      <c r="C40" s="656"/>
       <c r="D40" s="239" t="e">
         <f>'Acqusition-NF'!D85</f>
         <v>#DIV/0!</v>
@@ -11508,18 +11502,18 @@
       <c r="G40" s="107">
         <v>1</v>
       </c>
-      <c r="H40" s="591"/>
-      <c r="I40" s="592"/>
-      <c r="J40" s="592"/>
-      <c r="K40" s="593"/>
-      <c r="L40" s="591"/>
-      <c r="M40" s="607"/>
+      <c r="H40" s="637"/>
+      <c r="I40" s="641"/>
+      <c r="J40" s="641"/>
+      <c r="K40" s="642"/>
+      <c r="L40" s="637"/>
+      <c r="M40" s="638"/>
     </row>
     <row r="41" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="497" t="s">
+      <c r="B41" s="527" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="603"/>
+      <c r="C41" s="656"/>
       <c r="D41" s="237" t="e">
         <f>'Acqusition-NF'!D86</f>
         <v>#DIV/0!</v>
@@ -11532,18 +11526,18 @@
       <c r="G41" s="107">
         <v>2</v>
       </c>
-      <c r="H41" s="591"/>
-      <c r="I41" s="592"/>
-      <c r="J41" s="592"/>
-      <c r="K41" s="593"/>
-      <c r="L41" s="591"/>
-      <c r="M41" s="607"/>
+      <c r="H41" s="637"/>
+      <c r="I41" s="641"/>
+      <c r="J41" s="641"/>
+      <c r="K41" s="642"/>
+      <c r="L41" s="637"/>
+      <c r="M41" s="638"/>
     </row>
     <row r="42" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="497" t="s">
+      <c r="B42" s="527" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="603"/>
+      <c r="C42" s="656"/>
       <c r="D42" s="233">
         <f>'Acqusition-NF'!D87</f>
         <v>0</v>
@@ -11559,18 +11553,18 @@
       <c r="G42" s="115">
         <v>0.03</v>
       </c>
-      <c r="H42" s="591"/>
-      <c r="I42" s="592"/>
-      <c r="J42" s="592"/>
-      <c r="K42" s="593"/>
-      <c r="L42" s="591"/>
-      <c r="M42" s="607"/>
+      <c r="H42" s="637"/>
+      <c r="I42" s="641"/>
+      <c r="J42" s="641"/>
+      <c r="K42" s="642"/>
+      <c r="L42" s="637"/>
+      <c r="M42" s="638"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B43" s="497" t="s">
+      <c r="B43" s="527" t="s">
         <v>172</v>
       </c>
-      <c r="C43" s="603"/>
+      <c r="C43" s="656"/>
       <c r="D43" s="233">
         <f>'Acqusition-NF'!D88</f>
         <v>0</v>
@@ -11581,18 +11575,18 @@
         <v>0</v>
       </c>
       <c r="G43" s="107"/>
-      <c r="H43" s="591"/>
-      <c r="I43" s="592"/>
-      <c r="J43" s="592"/>
-      <c r="K43" s="593"/>
-      <c r="L43" s="591"/>
-      <c r="M43" s="607"/>
+      <c r="H43" s="637"/>
+      <c r="I43" s="641"/>
+      <c r="J43" s="641"/>
+      <c r="K43" s="642"/>
+      <c r="L43" s="637"/>
+      <c r="M43" s="638"/>
     </row>
     <row r="44" spans="2:19" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="495" t="s">
+      <c r="B44" s="525" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="496"/>
+      <c r="C44" s="526"/>
       <c r="D44" s="232" t="e">
         <f>'Acqusition-NF'!D89</f>
         <v>#DIV/0!</v>
@@ -11603,12 +11597,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G44" s="107"/>
-      <c r="H44" s="613"/>
-      <c r="I44" s="615"/>
-      <c r="J44" s="615"/>
-      <c r="K44" s="616"/>
-      <c r="L44" s="613"/>
-      <c r="M44" s="614"/>
+      <c r="H44" s="639"/>
+      <c r="I44" s="643"/>
+      <c r="J44" s="643"/>
+      <c r="K44" s="644"/>
+      <c r="L44" s="639"/>
+      <c r="M44" s="640"/>
       <c r="S44" s="106" t="s">
         <v>63</v>
       </c>
@@ -11624,59 +11618,33 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="104">
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="J5:J10"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="E9:I10"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="K18:L18"/>
@@ -11701,33 +11669,59 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="E9:I10"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="J5:J10"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="42" priority="40" stopIfTrue="1" operator="between">
@@ -11916,8 +11910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C1:T59"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U41" sqref="U41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -11937,55 +11931,55 @@
   <sheetData>
     <row r="1" spans="3:20" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="3:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="672" t="s">
+      <c r="C2" s="756" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="673"/>
-      <c r="E2" s="673"/>
-      <c r="F2" s="673"/>
-      <c r="G2" s="673"/>
-      <c r="H2" s="673"/>
-      <c r="I2" s="673"/>
-      <c r="J2" s="673"/>
-      <c r="K2" s="673"/>
-      <c r="L2" s="673"/>
-      <c r="M2" s="673"/>
-      <c r="N2" s="673"/>
-      <c r="O2" s="674"/>
+      <c r="D2" s="757"/>
+      <c r="E2" s="757"/>
+      <c r="F2" s="757"/>
+      <c r="G2" s="757"/>
+      <c r="H2" s="757"/>
+      <c r="I2" s="757"/>
+      <c r="J2" s="757"/>
+      <c r="K2" s="757"/>
+      <c r="L2" s="757"/>
+      <c r="M2" s="757"/>
+      <c r="N2" s="757"/>
+      <c r="O2" s="758"/>
     </row>
     <row r="3" spans="3:20" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="C3" s="675" t="s">
+      <c r="C3" s="759" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="676"/>
-      <c r="E3" s="676"/>
-      <c r="F3" s="676"/>
-      <c r="G3" s="676"/>
-      <c r="H3" s="676"/>
-      <c r="I3" s="676"/>
-      <c r="J3" s="676"/>
-      <c r="K3" s="676"/>
-      <c r="L3" s="676"/>
-      <c r="M3" s="676"/>
-      <c r="N3" s="676"/>
-      <c r="O3" s="677"/>
+      <c r="D3" s="760"/>
+      <c r="E3" s="760"/>
+      <c r="F3" s="760"/>
+      <c r="G3" s="760"/>
+      <c r="H3" s="760"/>
+      <c r="I3" s="760"/>
+      <c r="J3" s="760"/>
+      <c r="K3" s="760"/>
+      <c r="L3" s="760"/>
+      <c r="M3" s="760"/>
+      <c r="N3" s="760"/>
+      <c r="O3" s="761"/>
     </row>
     <row r="4" spans="3:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="681" t="s">
+      <c r="C4" s="762" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="682"/>
-      <c r="E4" s="682"/>
-      <c r="F4" s="682"/>
-      <c r="G4" s="682"/>
-      <c r="H4" s="682"/>
-      <c r="I4" s="682"/>
-      <c r="J4" s="682"/>
-      <c r="K4" s="682"/>
-      <c r="L4" s="682"/>
-      <c r="M4" s="682"/>
-      <c r="N4" s="682"/>
-      <c r="O4" s="683"/>
+      <c r="D4" s="763"/>
+      <c r="E4" s="763"/>
+      <c r="F4" s="763"/>
+      <c r="G4" s="763"/>
+      <c r="H4" s="763"/>
+      <c r="I4" s="763"/>
+      <c r="J4" s="763"/>
+      <c r="K4" s="763"/>
+      <c r="L4" s="763"/>
+      <c r="M4" s="763"/>
+      <c r="N4" s="763"/>
+      <c r="O4" s="764"/>
     </row>
     <row r="5" spans="3:20" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C5" s="32"/>
@@ -12003,85 +11997,85 @@
       <c r="O5" s="35"/>
     </row>
     <row r="6" spans="3:20" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="705" t="s">
+      <c r="C6" s="784" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="706"/>
-      <c r="E6" s="706"/>
-      <c r="F6" s="706"/>
-      <c r="G6" s="706"/>
-      <c r="H6" s="706"/>
-      <c r="I6" s="707"/>
-      <c r="J6" s="707"/>
-      <c r="K6" s="707"/>
-      <c r="L6" s="707"/>
-      <c r="M6" s="707"/>
-      <c r="N6" s="707"/>
-      <c r="O6" s="708"/>
-      <c r="R6" s="686" t="s">
+      <c r="D6" s="785"/>
+      <c r="E6" s="785"/>
+      <c r="F6" s="785"/>
+      <c r="G6" s="785"/>
+      <c r="H6" s="785"/>
+      <c r="I6" s="786"/>
+      <c r="J6" s="786"/>
+      <c r="K6" s="786"/>
+      <c r="L6" s="786"/>
+      <c r="M6" s="786"/>
+      <c r="N6" s="786"/>
+      <c r="O6" s="787"/>
+      <c r="R6" s="767" t="s">
         <v>187</v>
       </c>
-      <c r="S6" s="687"/>
-      <c r="T6" s="688"/>
+      <c r="S6" s="768"/>
+      <c r="T6" s="769"/>
     </row>
     <row r="7" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="709" t="s">
+      <c r="C7" s="737" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="710"/>
-      <c r="E7" s="711">
+      <c r="D7" s="738"/>
+      <c r="E7" s="739">
         <f>'Acqusition-NF'!C50</f>
         <v>0</v>
       </c>
-      <c r="F7" s="712"/>
-      <c r="G7" s="712"/>
-      <c r="H7" s="713"/>
+      <c r="F7" s="740"/>
+      <c r="G7" s="740"/>
+      <c r="H7" s="741"/>
       <c r="I7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="700">
+      <c r="J7" s="835">
         <f>'Acqusition-NF'!F49</f>
         <v>0</v>
       </c>
-      <c r="K7" s="701"/>
+      <c r="K7" s="836"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
       <c r="O7" s="29"/>
-      <c r="R7" s="689" t="s">
+      <c r="R7" s="770" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="690"/>
+      <c r="S7" s="771"/>
       <c r="T7" s="85"/>
     </row>
     <row r="8" spans="3:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="726" t="s">
+      <c r="C8" s="686" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="727"/>
-      <c r="E8" s="727"/>
-      <c r="F8" s="727"/>
-      <c r="G8" s="728"/>
-      <c r="H8" s="727"/>
-      <c r="I8" s="727"/>
-      <c r="J8" s="727"/>
-      <c r="K8" s="727"/>
-      <c r="L8" s="727"/>
-      <c r="M8" s="727"/>
-      <c r="N8" s="727"/>
-      <c r="O8" s="729"/>
-      <c r="R8" s="691" t="s">
+      <c r="D8" s="687"/>
+      <c r="E8" s="687"/>
+      <c r="F8" s="687"/>
+      <c r="G8" s="688"/>
+      <c r="H8" s="687"/>
+      <c r="I8" s="687"/>
+      <c r="J8" s="687"/>
+      <c r="K8" s="687"/>
+      <c r="L8" s="687"/>
+      <c r="M8" s="687"/>
+      <c r="N8" s="687"/>
+      <c r="O8" s="726"/>
+      <c r="R8" s="772" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="692"/>
+      <c r="S8" s="773"/>
       <c r="T8" s="87"/>
     </row>
     <row r="9" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="678" t="s">
+      <c r="C9" s="690" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="679"/>
-      <c r="E9" s="680"/>
+      <c r="D9" s="691"/>
+      <c r="E9" s="692"/>
       <c r="F9" s="383" t="s">
         <v>31</v>
       </c>
@@ -12112,10 +12106,10 @@
       <c r="O9" s="30">
         <v>0.03</v>
       </c>
-      <c r="R9" s="693" t="s">
+      <c r="R9" s="774" t="s">
         <v>53</v>
       </c>
-      <c r="S9" s="694"/>
+      <c r="S9" s="775"/>
       <c r="T9" s="88"/>
     </row>
     <row r="10" spans="3:20" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -12152,21 +12146,21 @@
       <c r="O10" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="R10" s="695" t="s">
+      <c r="R10" s="776" t="s">
         <v>48</v>
       </c>
-      <c r="S10" s="696"/>
+      <c r="S10" s="777"/>
       <c r="T10" s="342" t="e">
         <f>T8/T9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="3:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="714" t="s">
+      <c r="C11" s="742" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="715"/>
-      <c r="E11" s="716"/>
+      <c r="D11" s="743"/>
+      <c r="E11" s="744"/>
       <c r="F11" s="373">
         <f>'Year 1 Projection - NF'!I5</f>
         <v>0</v>
@@ -12207,18 +12201,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R11" s="697" t="s">
+      <c r="R11" s="778" t="s">
         <v>47</v>
       </c>
-      <c r="S11" s="698"/>
-      <c r="T11" s="699"/>
+      <c r="S11" s="779"/>
+      <c r="T11" s="780"/>
     </row>
     <row r="12" spans="3:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="733" t="s">
+      <c r="C12" s="730" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="734"/>
-      <c r="E12" s="735"/>
+      <c r="D12" s="731"/>
+      <c r="E12" s="732"/>
       <c r="F12" s="376">
         <f>'Year 1 Projection - NF'!I7</f>
         <v>0</v>
@@ -12242,11 +12236,11 @@
       </c>
     </row>
     <row r="13" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="737" t="s">
+      <c r="C13" s="734" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="738"/>
-      <c r="E13" s="739"/>
+      <c r="D13" s="735"/>
+      <c r="E13" s="736"/>
       <c r="F13" s="308" t="e">
         <f>F12/F11</f>
         <v>#DIV/0!</v>
@@ -12299,11 +12293,11 @@
       </c>
     </row>
     <row r="14" spans="3:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="733" t="s">
+      <c r="C14" s="730" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="734"/>
-      <c r="E14" s="735"/>
+      <c r="D14" s="731"/>
+      <c r="E14" s="732"/>
       <c r="F14" s="318">
         <f>F11-F12</f>
         <v>0</v>
@@ -12354,11 +12348,11 @@
       </c>
     </row>
     <row r="15" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="702" t="s">
+      <c r="C15" s="781" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="703"/>
-      <c r="E15" s="704"/>
+      <c r="D15" s="782"/>
+      <c r="E15" s="783"/>
       <c r="F15" s="317">
         <f>'Year 1 Projection - NF'!C14</f>
         <v>0</v>
@@ -12397,11 +12391,11 @@
       <c r="T15" s="315"/>
     </row>
     <row r="16" spans="3:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="736" t="s">
+      <c r="C16" s="733" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="731"/>
-      <c r="E16" s="732"/>
+      <c r="D16" s="728"/>
+      <c r="E16" s="729"/>
       <c r="F16" s="38">
         <f>'Year 1 Projection - NF'!F14</f>
         <v>0</v>
@@ -12452,11 +12446,11 @@
       </c>
     </row>
     <row r="17" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="770" t="s">
+      <c r="C17" s="667" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="771"/>
-      <c r="E17" s="772"/>
+      <c r="D17" s="668"/>
+      <c r="E17" s="669"/>
       <c r="F17" s="317" t="s">
         <v>31</v>
       </c>
@@ -12497,11 +12491,11 @@
       </c>
     </row>
     <row r="18" spans="3:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="717" t="s">
+      <c r="C18" s="745" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="718"/>
-      <c r="E18" s="719"/>
+      <c r="D18" s="746"/>
+      <c r="E18" s="747"/>
       <c r="F18" s="309">
         <f>'Year 1 Projection - NF'!F15</f>
         <v>0</v>
@@ -12552,11 +12546,11 @@
       </c>
     </row>
     <row r="19" spans="3:20" ht="13.9" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="720" t="s">
+      <c r="C19" s="748" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="721"/>
-      <c r="E19" s="722"/>
+      <c r="D19" s="749"/>
+      <c r="E19" s="750"/>
       <c r="F19" s="43">
         <f>'Year 1 Projection - NF'!F16</f>
         <v>0</v>
@@ -12607,11 +12601,11 @@
       </c>
     </row>
     <row r="20" spans="3:20" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="C20" s="730" t="s">
+      <c r="C20" s="727" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="731"/>
-      <c r="E20" s="732"/>
+      <c r="D20" s="728"/>
+      <c r="E20" s="729"/>
       <c r="F20" s="38">
         <f>'Year 1 Projection - NF'!F17</f>
         <v>0</v>
@@ -12663,11 +12657,11 @@
       </c>
     </row>
     <row r="22" spans="3:20" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="751" t="s">
+      <c r="C22" s="693" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="752"/>
-      <c r="E22" s="753"/>
+      <c r="D22" s="694"/>
+      <c r="E22" s="695"/>
       <c r="F22" s="385">
         <f>SUM(F19:F21)</f>
         <v>0</v>
@@ -12708,43 +12702,43 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R22" s="669" t="s">
+      <c r="R22" s="753" t="s">
         <v>57</v>
       </c>
-      <c r="S22" s="670"/>
-      <c r="T22" s="671"/>
+      <c r="S22" s="754"/>
+      <c r="T22" s="755"/>
     </row>
     <row r="23" spans="3:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="726" t="s">
+      <c r="C23" s="686" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="727"/>
-      <c r="E23" s="727"/>
-      <c r="F23" s="728"/>
-      <c r="G23" s="728"/>
-      <c r="H23" s="728"/>
-      <c r="I23" s="728"/>
-      <c r="J23" s="728"/>
-      <c r="K23" s="728"/>
-      <c r="L23" s="728"/>
-      <c r="M23" s="728"/>
-      <c r="N23" s="728"/>
-      <c r="O23" s="787"/>
-      <c r="R23" s="684" t="s">
+      <c r="D23" s="687"/>
+      <c r="E23" s="687"/>
+      <c r="F23" s="688"/>
+      <c r="G23" s="688"/>
+      <c r="H23" s="688"/>
+      <c r="I23" s="688"/>
+      <c r="J23" s="688"/>
+      <c r="K23" s="688"/>
+      <c r="L23" s="688"/>
+      <c r="M23" s="688"/>
+      <c r="N23" s="688"/>
+      <c r="O23" s="689"/>
+      <c r="R23" s="765" t="s">
         <v>58</v>
       </c>
-      <c r="S23" s="685"/>
+      <c r="S23" s="766"/>
       <c r="T23" s="98">
         <f>T7</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="678" t="s">
+      <c r="C24" s="690" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="679"/>
-      <c r="E24" s="680"/>
+      <c r="D24" s="691"/>
+      <c r="E24" s="692"/>
       <c r="F24" s="16" t="s">
         <v>31</v>
       </c>
@@ -12775,21 +12769,21 @@
       <c r="O24" s="30">
         <v>0.02</v>
       </c>
-      <c r="R24" s="790" t="s">
+      <c r="R24" s="698" t="s">
         <v>61</v>
       </c>
-      <c r="S24" s="791"/>
+      <c r="S24" s="699"/>
       <c r="T24" s="99">
         <f>F43</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:20" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="C25" s="742" t="s">
+      <c r="C25" s="702" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="743"/>
-      <c r="E25" s="744"/>
+      <c r="D25" s="703"/>
+      <c r="E25" s="704"/>
       <c r="F25" s="311">
         <f>'Year 1 Projection - NF'!F22</f>
         <v>0</v>
@@ -12810,11 +12804,11 @@
       <c r="T25" s="351"/>
     </row>
     <row r="26" spans="3:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="745" t="s">
+      <c r="C26" s="705" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="746"/>
-      <c r="E26" s="757"/>
+      <c r="D26" s="706"/>
+      <c r="E26" s="714"/>
       <c r="F26" s="312">
         <f>'Year 1 Projection - NF'!F23</f>
         <v>0</v>
@@ -12855,21 +12849,21 @@
         <f>N26+O24*N26</f>
         <v>0</v>
       </c>
-      <c r="R26" s="790" t="s">
+      <c r="R26" s="698" t="s">
         <v>152</v>
       </c>
-      <c r="S26" s="791"/>
+      <c r="S26" s="699"/>
       <c r="T26" s="99" t="e">
         <f>T21</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="3:20" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="C27" s="745" t="s">
+      <c r="C27" s="705" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="746"/>
-      <c r="E27" s="757"/>
+      <c r="D27" s="706"/>
+      <c r="E27" s="714"/>
       <c r="F27" s="312">
         <f>'Year 1 Projection - NF'!F24</f>
         <v>0</v>
@@ -12910,21 +12904,21 @@
         <f>N27+N27*O24</f>
         <v>0</v>
       </c>
-      <c r="R27" s="667" t="s">
+      <c r="R27" s="751" t="s">
         <v>59</v>
       </c>
-      <c r="S27" s="668"/>
+      <c r="S27" s="752"/>
       <c r="T27" s="100" t="e">
         <f>(T25+T26)/T24</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C28" s="754" t="s">
+      <c r="C28" s="711" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="755"/>
-      <c r="E28" s="756"/>
+      <c r="D28" s="712"/>
+      <c r="E28" s="713"/>
       <c r="F28" s="312">
         <f>'Year 1 Projection - NF'!F25</f>
         <v>0</v>
@@ -12965,10 +12959,10 @@
         <f>N28+N28*O24</f>
         <v>0</v>
       </c>
-      <c r="R28" s="768" t="s">
+      <c r="R28" s="665" t="s">
         <v>60</v>
       </c>
-      <c r="S28" s="769"/>
+      <c r="S28" s="666"/>
       <c r="T28" s="341" t="e">
         <f>T27/T23</f>
         <v>#DIV/0!</v>
@@ -13025,11 +13019,11 @@
       </c>
     </row>
     <row r="30" spans="3:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="745" t="s">
+      <c r="C30" s="705" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="746"/>
-      <c r="E30" s="747"/>
+      <c r="D30" s="706"/>
+      <c r="E30" s="707"/>
       <c r="F30" s="312">
         <f>'Year 1 Projection - NF'!F27</f>
         <v>0</v>
@@ -13070,18 +13064,18 @@
         <f>N30+N30*O24</f>
         <v>0</v>
       </c>
-      <c r="R30" s="773" t="s">
+      <c r="R30" s="670" t="s">
         <v>190</v>
       </c>
-      <c r="S30" s="774"/>
-      <c r="T30" s="775"/>
+      <c r="S30" s="671"/>
+      <c r="T30" s="672"/>
     </row>
     <row r="31" spans="3:20" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="C31" s="745" t="s">
+      <c r="C31" s="705" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="746"/>
-      <c r="E31" s="757"/>
+      <c r="D31" s="706"/>
+      <c r="E31" s="714"/>
       <c r="F31" s="312">
         <f>'Year 1 Projection - NF'!F28</f>
         <v>0</v>
@@ -13122,21 +13116,21 @@
         <f>N31 + N31*O24</f>
         <v>0</v>
       </c>
-      <c r="R31" s="776" t="s">
+      <c r="R31" s="673" t="s">
         <v>2</v>
       </c>
-      <c r="S31" s="777"/>
+      <c r="S31" s="674"/>
       <c r="T31" s="350">
         <f>F42+G42+H42</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:20" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="C32" s="745" t="s">
+      <c r="C32" s="705" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="746"/>
-      <c r="E32" s="757"/>
+      <c r="D32" s="706"/>
+      <c r="E32" s="714"/>
       <c r="F32" s="312">
         <f>'Year 1 Projection - NF'!F29</f>
         <v>0</v>
@@ -13177,21 +13171,21 @@
         <f>N32 + N32*O24</f>
         <v>0</v>
       </c>
-      <c r="R32" s="779" t="s">
+      <c r="R32" s="678" t="s">
         <v>4</v>
       </c>
-      <c r="S32" s="780"/>
+      <c r="S32" s="679"/>
       <c r="T32" s="349">
         <f>T31+I42+J42</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="748" t="s">
+      <c r="C33" s="708" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="749"/>
-      <c r="E33" s="750"/>
+      <c r="D33" s="709"/>
+      <c r="E33" s="710"/>
       <c r="F33" s="314">
         <f>'Year 1 Projection - NF'!F30</f>
         <v>0</v>
@@ -13232,21 +13226,21 @@
         <f>N33 +N33*O24</f>
         <v>0</v>
       </c>
-      <c r="R33" s="781" t="s">
+      <c r="R33" s="680" t="s">
         <v>54</v>
       </c>
-      <c r="S33" s="782"/>
+      <c r="S33" s="681"/>
       <c r="T33" s="349">
         <f>T32+K42+L42</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C34" s="751" t="s">
+      <c r="C34" s="693" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="752"/>
-      <c r="E34" s="753"/>
+      <c r="D34" s="694"/>
+      <c r="E34" s="695"/>
       <c r="F34" s="9">
         <f>SUM(F25:F33)</f>
         <v>0</v>
@@ -13287,21 +13281,21 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R34" s="783" t="s">
+      <c r="R34" s="682" t="s">
         <v>46</v>
       </c>
-      <c r="S34" s="784"/>
+      <c r="S34" s="683"/>
       <c r="T34" s="348">
         <f>T33+M42+N42+O42</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C35" s="751" t="s">
+      <c r="C35" s="693" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="752"/>
-      <c r="E35" s="753"/>
+      <c r="D35" s="694"/>
+      <c r="E35" s="695"/>
       <c r="F35" s="9">
         <f>F22-F34</f>
         <v>0</v>
@@ -13344,11 +13338,11 @@
       </c>
     </row>
     <row r="36" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C36" s="760" t="s">
+      <c r="C36" s="717" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="761"/>
-      <c r="E36" s="762"/>
+      <c r="D36" s="718"/>
+      <c r="E36" s="677"/>
       <c r="F36" s="15">
         <f>'Year 1 Projection - NF'!F34</f>
         <v>0</v>
@@ -13389,17 +13383,17 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R36" s="788" t="s">
+      <c r="R36" s="696" t="s">
         <v>151</v>
       </c>
-      <c r="S36" s="789"/>
+      <c r="S36" s="697"/>
     </row>
     <row r="37" spans="3:20" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="C37" s="763" t="s">
+      <c r="C37" s="675" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="761"/>
-      <c r="E37" s="762"/>
+      <c r="D37" s="718"/>
+      <c r="E37" s="677"/>
       <c r="F37" s="13">
         <f>'Year 1 Projection - NF'!F35</f>
         <v>0</v>
@@ -13449,11 +13443,11 @@
       </c>
     </row>
     <row r="38" spans="3:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="763" t="s">
+      <c r="C38" s="675" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="764"/>
-      <c r="E38" s="764"/>
+      <c r="D38" s="719"/>
+      <c r="E38" s="719"/>
       <c r="F38" s="15">
         <f>'Year 1 Projection - NF'!M19</f>
         <v>0</v>
@@ -13476,11 +13470,11 @@
       </c>
     </row>
     <row r="39" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C39" s="758" t="s">
+      <c r="C39" s="715" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="759"/>
-      <c r="E39" s="759"/>
+      <c r="D39" s="716"/>
+      <c r="E39" s="716"/>
       <c r="F39" s="9">
         <f>SUM(F37-F38)</f>
         <v>0</v>
@@ -13586,10 +13580,10 @@
       </c>
     </row>
     <row r="41" spans="3:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C41" s="785" t="s">
+      <c r="C41" s="684" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="786"/>
+      <c r="D41" s="685"/>
       <c r="E41" s="320">
         <v>0.3</v>
       </c>
@@ -13639,11 +13633,11 @@
       <c r="S41" s="358"/>
     </row>
     <row r="42" spans="3:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C42" s="763" t="s">
+      <c r="C42" s="675" t="s">
         <v>161</v>
       </c>
-      <c r="D42" s="778"/>
-      <c r="E42" s="762"/>
+      <c r="D42" s="676"/>
+      <c r="E42" s="677"/>
       <c r="F42" s="12">
         <f>SUM(F39-F40-F41)</f>
         <v>0</v>
@@ -13694,11 +13688,11 @@
       </c>
     </row>
     <row r="43" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="765" t="s">
+      <c r="C43" s="720" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="766"/>
-      <c r="E43" s="767"/>
+      <c r="D43" s="721"/>
+      <c r="E43" s="722"/>
       <c r="F43" s="322">
         <f>'Acqusition-NF'!M74</f>
         <v>0</v>
@@ -13721,11 +13715,11 @@
       </c>
     </row>
     <row r="44" spans="3:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C44" s="740" t="s">
+      <c r="C44" s="700" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="741"/>
-      <c r="E44" s="741"/>
+      <c r="D44" s="701"/>
+      <c r="E44" s="701"/>
       <c r="F44" s="44" t="e">
         <f>SUM(F42/F43)</f>
         <v>#DIV/0!</v>
@@ -13887,21 +13881,33 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C23:O23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="C2:O2"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C30:E30"/>
@@ -13918,34 +13924,22 @@
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="C43:E43"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R24:S24"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C8:O8"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="C2:O2"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C6:O6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.4" right="0.4" top="0.25" bottom="0.25" header="0" footer="0"/>
@@ -13974,22 +13968,22 @@
   <sheetData>
     <row r="5" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="705" t="s">
+      <c r="B6" s="784" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="706"/>
-      <c r="D6" s="706"/>
-      <c r="E6" s="706"/>
-      <c r="F6" s="706"/>
-      <c r="G6" s="706"/>
-      <c r="H6" s="706"/>
-      <c r="I6" s="706"/>
-      <c r="J6" s="706"/>
-      <c r="K6" s="706"/>
-      <c r="L6" s="706"/>
-      <c r="M6" s="706"/>
-      <c r="N6" s="706"/>
-      <c r="O6" s="796"/>
+      <c r="C6" s="785"/>
+      <c r="D6" s="785"/>
+      <c r="E6" s="785"/>
+      <c r="F6" s="785"/>
+      <c r="G6" s="785"/>
+      <c r="H6" s="785"/>
+      <c r="I6" s="785"/>
+      <c r="J6" s="785"/>
+      <c r="K6" s="785"/>
+      <c r="L6" s="785"/>
+      <c r="M6" s="785"/>
+      <c r="N6" s="785"/>
+      <c r="O6" s="800"/>
     </row>
     <row r="7" spans="2:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="344" t="s">
@@ -13999,17 +13993,17 @@
         <f>'10 year Proforma'!F43</f>
         <v>0</v>
       </c>
-      <c r="D7" s="797"/>
-      <c r="E7" s="798"/>
-      <c r="F7" s="798"/>
-      <c r="G7" s="798"/>
-      <c r="H7" s="798"/>
-      <c r="I7" s="798"/>
-      <c r="J7" s="798"/>
-      <c r="K7" s="798"/>
-      <c r="L7" s="798"/>
-      <c r="M7" s="798"/>
-      <c r="N7" s="798"/>
+      <c r="D7" s="801"/>
+      <c r="E7" s="802"/>
+      <c r="F7" s="802"/>
+      <c r="G7" s="802"/>
+      <c r="H7" s="802"/>
+      <c r="I7" s="802"/>
+      <c r="J7" s="802"/>
+      <c r="K7" s="802"/>
+      <c r="L7" s="802"/>
+      <c r="M7" s="802"/>
+      <c r="N7" s="802"/>
       <c r="O7" s="321"/>
     </row>
     <row r="8" spans="2:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -14053,10 +14047,10 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="799" t="s">
+      <c r="B9" s="793" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="800"/>
+      <c r="C9" s="794"/>
       <c r="D9" s="300">
         <f>'10 year Proforma'!F42</f>
         <v>0</v>
@@ -14104,10 +14098,10 @@
       <c r="O9" s="297"/>
     </row>
     <row r="10" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="794" t="s">
+      <c r="B10" s="795" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="801"/>
+      <c r="C10" s="796"/>
       <c r="D10" s="302" t="e">
         <f>'10 year Proforma'!F44</f>
         <v>#DIV/0!</v>
@@ -14155,10 +14149,10 @@
       </c>
     </row>
     <row r="11" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="794" t="s">
+      <c r="B11" s="795" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="801"/>
+      <c r="C11" s="796"/>
       <c r="D11" s="304"/>
       <c r="E11" s="286"/>
       <c r="F11" s="286"/>
@@ -14176,10 +14170,10 @@
       <c r="O11" s="298"/>
     </row>
     <row r="12" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="794" t="s">
+      <c r="B12" s="795" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="801"/>
+      <c r="C12" s="796"/>
       <c r="D12" s="304"/>
       <c r="E12" s="286"/>
       <c r="F12" s="286"/>
@@ -14197,10 +14191,10 @@
       </c>
     </row>
     <row r="13" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="792" t="s">
+      <c r="B13" s="788" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="793"/>
+      <c r="C13" s="789"/>
       <c r="D13" s="306"/>
       <c r="E13" s="287"/>
       <c r="F13" s="287"/>
@@ -14218,10 +14212,10 @@
       </c>
     </row>
     <row r="14" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="805" t="s">
+      <c r="B14" s="797" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="806"/>
+      <c r="C14" s="798"/>
       <c r="D14" s="287"/>
       <c r="E14" s="287"/>
       <c r="F14" s="287"/>
@@ -14240,22 +14234,22 @@
     </row>
     <row r="16" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="802" t="s">
+      <c r="B17" s="790" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="803"/>
-      <c r="D17" s="803"/>
-      <c r="E17" s="803"/>
-      <c r="F17" s="803"/>
-      <c r="G17" s="803"/>
-      <c r="H17" s="803"/>
-      <c r="I17" s="803"/>
-      <c r="J17" s="803"/>
-      <c r="K17" s="803"/>
-      <c r="L17" s="803"/>
-      <c r="M17" s="803"/>
-      <c r="N17" s="803"/>
-      <c r="O17" s="804"/>
+      <c r="C17" s="791"/>
+      <c r="D17" s="791"/>
+      <c r="E17" s="791"/>
+      <c r="F17" s="791"/>
+      <c r="G17" s="791"/>
+      <c r="H17" s="791"/>
+      <c r="I17" s="791"/>
+      <c r="J17" s="791"/>
+      <c r="K17" s="791"/>
+      <c r="L17" s="791"/>
+      <c r="M17" s="791"/>
+      <c r="N17" s="791"/>
+      <c r="O17" s="792"/>
     </row>
     <row r="18" spans="2:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="281"/>
@@ -14296,10 +14290,10 @@
       <c r="O18" s="316"/>
     </row>
     <row r="19" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="799" t="s">
+      <c r="B19" s="793" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="800"/>
+      <c r="C19" s="794"/>
       <c r="D19" s="300">
         <f>'10 year Proforma'!F41</f>
         <v>0</v>
@@ -14347,10 +14341,10 @@
       <c r="O19" s="297"/>
     </row>
     <row r="20" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="794" t="s">
+      <c r="B20" s="795" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="795"/>
+      <c r="C20" s="799"/>
       <c r="D20" s="327">
         <f>'10 year Proforma'!F41</f>
         <v>0</v>
@@ -14398,10 +14392,10 @@
       <c r="O20" s="298"/>
     </row>
     <row r="21" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="794" t="s">
+      <c r="B21" s="795" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="801"/>
+      <c r="C21" s="796"/>
       <c r="D21" s="330" t="e">
         <f>'10 year Proforma'!T20</f>
         <v>#DIV/0!</v>
@@ -14422,10 +14416,10 @@
       <c r="O21" s="298"/>
     </row>
     <row r="22" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="792" t="s">
+      <c r="B22" s="788" t="s">
         <v>183</v>
       </c>
-      <c r="C22" s="793"/>
+      <c r="C22" s="789"/>
       <c r="D22" s="333"/>
       <c r="E22" s="334"/>
       <c r="F22" s="334"/>
@@ -14444,11 +14438,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B6:O6"/>
@@ -14457,6 +14446,11 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14484,21 +14478,21 @@
   <sheetData>
     <row r="1" spans="3:15" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" s="832" t="s">
+      <c r="C2" s="817" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="833"/>
-      <c r="E2" s="833"/>
-      <c r="F2" s="833"/>
-      <c r="G2" s="833"/>
-      <c r="H2" s="833"/>
-      <c r="I2" s="833"/>
-      <c r="J2" s="833"/>
-      <c r="K2" s="833"/>
-      <c r="L2" s="833"/>
-      <c r="M2" s="833"/>
-      <c r="N2" s="833"/>
-      <c r="O2" s="834"/>
+      <c r="D2" s="818"/>
+      <c r="E2" s="818"/>
+      <c r="F2" s="818"/>
+      <c r="G2" s="818"/>
+      <c r="H2" s="818"/>
+      <c r="I2" s="818"/>
+      <c r="J2" s="818"/>
+      <c r="K2" s="818"/>
+      <c r="L2" s="818"/>
+      <c r="M2" s="818"/>
+      <c r="N2" s="818"/>
+      <c r="O2" s="819"/>
     </row>
     <row r="3" spans="3:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="23"/>
@@ -14536,11 +14530,11 @@
       </c>
     </row>
     <row r="4" spans="3:15" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="826" t="s">
+      <c r="C4" s="803" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="827"/>
-      <c r="E4" s="827"/>
+      <c r="D4" s="804"/>
+      <c r="E4" s="804"/>
       <c r="F4" s="49"/>
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
@@ -14553,11 +14547,11 @@
       <c r="O4" s="48"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C5" s="820" t="s">
+      <c r="C5" s="812" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="821"/>
-      <c r="E5" s="821"/>
+      <c r="D5" s="813"/>
+      <c r="E5" s="813"/>
       <c r="F5" s="52">
         <f>'10 year Proforma'!F11</f>
         <v>0</v>
@@ -14600,11 +14594,11 @@
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C6" s="820" t="s">
+      <c r="C6" s="812" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="821"/>
-      <c r="E6" s="821"/>
+      <c r="D6" s="813"/>
+      <c r="E6" s="813"/>
       <c r="F6" s="55">
         <f>'10 year Proforma'!F12</f>
         <v>0</v>
@@ -14647,11 +14641,11 @@
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C7" s="820" t="s">
+      <c r="C7" s="812" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="821"/>
-      <c r="E7" s="821"/>
+      <c r="D7" s="813"/>
+      <c r="E7" s="813"/>
       <c r="F7" s="370">
         <f>'10 year Proforma'!F14</f>
         <v>0</v>
@@ -14694,11 +14688,11 @@
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C8" s="818" t="s">
+      <c r="C8" s="809" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="821"/>
-      <c r="E8" s="821"/>
+      <c r="D8" s="813"/>
+      <c r="E8" s="813"/>
       <c r="F8" s="55">
         <f>'10 year Proforma'!F16</f>
         <v>0</v>
@@ -14741,11 +14735,11 @@
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C9" s="818" t="s">
+      <c r="C9" s="809" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="821"/>
-      <c r="E9" s="821"/>
+      <c r="D9" s="813"/>
+      <c r="E9" s="813"/>
       <c r="F9" s="55">
         <f>'10 year Proforma'!F18</f>
         <v>0</v>
@@ -14788,11 +14782,11 @@
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C10" s="820" t="s">
+      <c r="C10" s="812" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="821"/>
-      <c r="E10" s="821"/>
+      <c r="D10" s="813"/>
+      <c r="E10" s="813"/>
       <c r="F10" s="52">
         <f>'10 year Proforma'!F19</f>
         <v>0</v>
@@ -14835,11 +14829,11 @@
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C11" s="820" t="s">
+      <c r="C11" s="812" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="821"/>
-      <c r="E11" s="821"/>
+      <c r="D11" s="813"/>
+      <c r="E11" s="813"/>
       <c r="F11" s="52">
         <f>'10 year Proforma'!F20</f>
         <v>0</v>
@@ -14882,11 +14876,11 @@
       </c>
     </row>
     <row r="12" spans="3:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="820" t="s">
+      <c r="C12" s="812" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="821"/>
-      <c r="E12" s="821"/>
+      <c r="D12" s="813"/>
+      <c r="E12" s="813"/>
       <c r="F12" s="58">
         <f>'10 year Proforma'!F21</f>
         <v>0</v>
@@ -14944,11 +14938,11 @@
       <c r="O13" s="51"/>
     </row>
     <row r="14" spans="3:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="813" t="s">
+      <c r="C14" s="814" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="814"/>
-      <c r="E14" s="815"/>
+      <c r="D14" s="815"/>
+      <c r="E14" s="816"/>
       <c r="F14" s="77">
         <f>'10 year Proforma'!F22</f>
         <v>0</v>
@@ -14991,11 +14985,11 @@
       </c>
     </row>
     <row r="15" spans="3:15" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="826" t="s">
+      <c r="C15" s="803" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="827"/>
-      <c r="E15" s="835"/>
+      <c r="D15" s="804"/>
+      <c r="E15" s="805"/>
       <c r="F15" s="59"/>
       <c r="G15" s="59"/>
       <c r="H15" s="59"/>
@@ -15008,11 +15002,11 @@
       <c r="O15" s="60"/>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C16" s="816" t="s">
+      <c r="C16" s="806" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="817"/>
-      <c r="E16" s="836"/>
+      <c r="D16" s="807"/>
+      <c r="E16" s="808"/>
       <c r="F16" s="62">
         <f>'10 year Proforma'!F25</f>
         <v>0</v>
@@ -15055,11 +15049,11 @@
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C17" s="818" t="s">
+      <c r="C17" s="809" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="819"/>
-      <c r="E17" s="831"/>
+      <c r="D17" s="810"/>
+      <c r="E17" s="811"/>
       <c r="F17" s="62">
         <f>'10 year Proforma'!F26</f>
         <v>0</v>
@@ -15102,11 +15096,11 @@
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C18" s="818" t="s">
+      <c r="C18" s="809" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="819"/>
-      <c r="E18" s="831"/>
+      <c r="D18" s="810"/>
+      <c r="E18" s="811"/>
       <c r="F18" s="62">
         <f>'10 year Proforma'!F27</f>
         <v>0</v>
@@ -15149,11 +15143,11 @@
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C19" s="818" t="s">
+      <c r="C19" s="809" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="819"/>
-      <c r="E19" s="831"/>
+      <c r="D19" s="810"/>
+      <c r="E19" s="811"/>
       <c r="F19" s="62">
         <f>'10 year Proforma'!F28</f>
         <v>0</v>
@@ -15196,11 +15190,11 @@
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C20" s="818" t="s">
+      <c r="C20" s="809" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="819"/>
-      <c r="E20" s="831"/>
+      <c r="D20" s="810"/>
+      <c r="E20" s="811"/>
       <c r="F20" s="62">
         <f>'10 year Proforma'!F29</f>
         <v>0</v>
@@ -15243,11 +15237,11 @@
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C21" s="818" t="s">
+      <c r="C21" s="809" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="819"/>
-      <c r="E21" s="831"/>
+      <c r="D21" s="810"/>
+      <c r="E21" s="811"/>
       <c r="F21" s="62">
         <f>'10 year Proforma'!F30</f>
         <v>0</v>
@@ -15290,11 +15284,11 @@
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C22" s="818" t="s">
+      <c r="C22" s="809" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="819"/>
-      <c r="E22" s="831"/>
+      <c r="D22" s="810"/>
+      <c r="E22" s="811"/>
       <c r="F22" s="62">
         <f>'10 year Proforma'!F31</f>
         <v>0</v>
@@ -15337,11 +15331,11 @@
       </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C23" s="818" t="s">
+      <c r="C23" s="809" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="819"/>
-      <c r="E23" s="831"/>
+      <c r="D23" s="810"/>
+      <c r="E23" s="811"/>
       <c r="F23" s="62">
         <f>'10 year Proforma'!F32</f>
         <v>0</v>
@@ -15384,11 +15378,11 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="818" t="s">
+      <c r="C24" s="809" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="819"/>
-      <c r="E24" s="831"/>
+      <c r="D24" s="810"/>
+      <c r="E24" s="811"/>
       <c r="F24" s="65">
         <f>'10 year Proforma'!F33</f>
         <v>0</v>
@@ -15446,11 +15440,11 @@
       <c r="O25" s="63"/>
     </row>
     <row r="26" spans="3:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="813" t="s">
+      <c r="C26" s="814" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="814"/>
-      <c r="E26" s="815"/>
+      <c r="D26" s="815"/>
+      <c r="E26" s="816"/>
       <c r="F26" s="71">
         <f>'10 year Proforma'!F34</f>
         <v>0</v>
@@ -15493,26 +15487,26 @@
       </c>
     </row>
     <row r="27" spans="3:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="823"/>
-      <c r="D27" s="824"/>
-      <c r="E27" s="825"/>
-      <c r="F27" s="807"/>
-      <c r="G27" s="808"/>
-      <c r="H27" s="808"/>
-      <c r="I27" s="808"/>
-      <c r="J27" s="809"/>
-      <c r="K27" s="807"/>
-      <c r="L27" s="808"/>
-      <c r="M27" s="808"/>
-      <c r="N27" s="808"/>
-      <c r="O27" s="809"/>
+      <c r="C27" s="830"/>
+      <c r="D27" s="831"/>
+      <c r="E27" s="832"/>
+      <c r="F27" s="823"/>
+      <c r="G27" s="824"/>
+      <c r="H27" s="824"/>
+      <c r="I27" s="824"/>
+      <c r="J27" s="825"/>
+      <c r="K27" s="823"/>
+      <c r="L27" s="824"/>
+      <c r="M27" s="824"/>
+      <c r="N27" s="824"/>
+      <c r="O27" s="825"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C28" s="820" t="s">
+      <c r="C28" s="812" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="821"/>
-      <c r="E28" s="822"/>
+      <c r="D28" s="813"/>
+      <c r="E28" s="829"/>
       <c r="F28" s="62">
         <f>'10 year Proforma'!F35</f>
         <v>0</v>
@@ -15555,11 +15549,11 @@
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C29" s="820" t="s">
+      <c r="C29" s="812" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="821"/>
-      <c r="E29" s="822"/>
+      <c r="D29" s="813"/>
+      <c r="E29" s="829"/>
       <c r="F29" s="53">
         <f>'10 year Proforma'!F36</f>
         <v>0</v>
@@ -15602,11 +15596,11 @@
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C30" s="820" t="s">
+      <c r="C30" s="812" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="821"/>
-      <c r="E30" s="822"/>
+      <c r="D30" s="813"/>
+      <c r="E30" s="829"/>
       <c r="F30" s="50">
         <f>'10 year Proforma'!F37</f>
         <v>0</v>
@@ -15649,11 +15643,11 @@
       </c>
     </row>
     <row r="31" spans="3:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="818" t="s">
+      <c r="C31" s="809" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="819"/>
-      <c r="E31" s="831"/>
+      <c r="D31" s="810"/>
+      <c r="E31" s="811"/>
       <c r="F31" s="68">
         <f>'10 year Proforma'!F38</f>
         <v>0</v>
@@ -15696,11 +15690,11 @@
       </c>
     </row>
     <row r="32" spans="3:15" ht="16.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C32" s="813" t="s">
+      <c r="C32" s="814" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="814"/>
-      <c r="E32" s="815"/>
+      <c r="D32" s="815"/>
+      <c r="E32" s="816"/>
       <c r="F32" s="377">
         <f>'10 year Proforma'!F39</f>
         <v>0</v>
@@ -15743,27 +15737,27 @@
       </c>
     </row>
     <row r="33" spans="3:15" ht="3.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="816" t="str">
+      <c r="C33" s="806" t="str">
         <f>'10 year Proforma'!C40:D40</f>
         <v xml:space="preserve">Asset Management </v>
       </c>
-      <c r="D33" s="817"/>
-      <c r="E33" s="817"/>
-      <c r="F33" s="810"/>
-      <c r="G33" s="811"/>
-      <c r="H33" s="811"/>
-      <c r="I33" s="811"/>
-      <c r="J33" s="811"/>
-      <c r="K33" s="810"/>
-      <c r="L33" s="811"/>
-      <c r="M33" s="811"/>
-      <c r="N33" s="811"/>
-      <c r="O33" s="812"/>
+      <c r="D33" s="807"/>
+      <c r="E33" s="807"/>
+      <c r="F33" s="826"/>
+      <c r="G33" s="827"/>
+      <c r="H33" s="827"/>
+      <c r="I33" s="827"/>
+      <c r="J33" s="827"/>
+      <c r="K33" s="826"/>
+      <c r="L33" s="827"/>
+      <c r="M33" s="827"/>
+      <c r="N33" s="827"/>
+      <c r="O33" s="828"/>
     </row>
     <row r="34" spans="3:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="818"/>
-      <c r="D34" s="819"/>
-      <c r="E34" s="819"/>
+      <c r="C34" s="809"/>
+      <c r="D34" s="810"/>
+      <c r="E34" s="810"/>
       <c r="F34" s="55">
         <f>'10 year Proforma'!F40</f>
         <v>0</v>
@@ -15806,10 +15800,10 @@
       </c>
     </row>
     <row r="35" spans="3:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="785" t="s">
+      <c r="C35" s="684" t="s">
         <v>178</v>
       </c>
-      <c r="D35" s="786"/>
+      <c r="D35" s="685"/>
       <c r="E35" s="391">
         <v>0.3</v>
       </c>
@@ -15855,11 +15849,11 @@
       </c>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C36" s="818" t="s">
+      <c r="C36" s="809" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="821"/>
-      <c r="E36" s="821"/>
+      <c r="D36" s="813"/>
+      <c r="E36" s="813"/>
       <c r="F36" s="52">
         <f>'10 year Proforma'!F42</f>
         <v>0</v>
@@ -15902,11 +15896,11 @@
       </c>
     </row>
     <row r="37" spans="3:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="765" t="s">
+      <c r="C37" s="720" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="766"/>
-      <c r="E37" s="766"/>
+      <c r="D37" s="721"/>
+      <c r="E37" s="721"/>
       <c r="F37" s="398">
         <f>'10 year Proforma'!F43</f>
         <v>0</v>
@@ -15949,11 +15943,11 @@
       </c>
     </row>
     <row r="38" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="828" t="s">
+      <c r="C38" s="820" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="829"/>
-      <c r="E38" s="830"/>
+      <c r="D38" s="821"/>
+      <c r="E38" s="822"/>
       <c r="F38" s="393" t="e">
         <f>'10 year Proforma'!F44</f>
         <v>#DIV/0!</v>
@@ -16188,17 +16182,16 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C2:O2"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="K33:O33"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E34"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C29:E29"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C4:E4"/>
@@ -16215,16 +16208,17 @@
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="K33:O33"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E34"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C2:O2"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -16248,11 +16242,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.65" x14ac:dyDescent="0.6">
-      <c r="A1" s="837" t="s">
+      <c r="A1" s="833" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="837"/>
-      <c r="C1" s="837"/>
+      <c r="B1" s="833"/>
+      <c r="C1" s="833"/>
     </row>
     <row r="2" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="420" t="s">
@@ -16610,7 +16604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A440EE4-E0AE-4073-80F4-2C74DBFC819F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -16623,11 +16617,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="A1" s="838" t="s">
+      <c r="A1" s="834" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="838"/>
-      <c r="C1" s="838"/>
+      <c r="B1" s="834"/>
+      <c r="C1" s="834"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="104" t="s">
